--- a/doc/backend/api/TRN-MiniBlog_API-Specification_TENHO.xlsx
+++ b/doc/backend/api/TRN-MiniBlog_API-Specification_TENHO.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER_MLD3\Desktop\miniblog\doc\backend\api\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14080" tabRatio="957" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14085" tabRatio="957" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="23" r:id="rId1"/>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="253">
   <si>
     <t>Description</t>
   </si>
@@ -849,16 +854,31 @@
       <t>ccount</t>
     </r>
   </si>
+  <si>
+    <t>Username already exist</t>
+  </si>
+  <si>
+    <t>Username or password is incorrect</t>
+  </si>
+  <si>
+    <t>Wrong password</t>
+  </si>
+  <si>
+    <t>Username is existed</t>
+  </si>
+  <si>
+    <t>Wrong username or password</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="36">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -866,7 +886,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -874,7 +894,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -882,7 +902,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -895,45 +915,45 @@
     <font>
       <sz val="18"/>
       <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="5" tint="-0.249977111117893"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF963634"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -948,7 +968,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2097,29 +2117,73 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -2131,44 +2195,6 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2197,6 +2223,21 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -2209,48 +2250,30 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2260,9 +2283,6 @@
     <xf numFmtId="0" fontId="32" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2293,17 +2313,14 @@
     <xf numFmtId="49" fontId="13" fillId="8" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2322,20 +2339,23 @@
     <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="411">
@@ -4412,305 +4432,305 @@
       <selection activeCell="X10" sqref="X10:AC10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="70" width="4.83203125" style="44" customWidth="1"/>
-    <col min="71" max="95" width="3.6640625" style="44" customWidth="1"/>
-    <col min="96" max="16384" width="10.83203125" style="44"/>
+    <col min="1" max="70" width="4.875" style="44" customWidth="1"/>
+    <col min="71" max="95" width="3.625" style="44" customWidth="1"/>
+    <col min="96" max="16384" width="10.875" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="43" customFormat="1">
-      <c r="A1" s="158" t="s">
+    <row r="1" spans="1:30" s="43" customFormat="1" ht="15.75">
+      <c r="A1" s="189" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="160"/>
-      <c r="D1" s="161" t="s">
+      <c r="B1" s="190"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="192" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
-      <c r="G1" s="162"/>
-      <c r="H1" s="162"/>
-      <c r="I1" s="162"/>
-      <c r="J1" s="162"/>
-      <c r="K1" s="163" t="s">
+      <c r="E1" s="193"/>
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
+      <c r="H1" s="193"/>
+      <c r="I1" s="193"/>
+      <c r="J1" s="193"/>
+      <c r="K1" s="197" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="164"/>
-      <c r="M1" s="165"/>
-      <c r="N1" s="166" t="s">
+      <c r="L1" s="198"/>
+      <c r="M1" s="199"/>
+      <c r="N1" s="179" t="s">
         <v>157</v>
       </c>
-      <c r="O1" s="167"/>
-      <c r="P1" s="167"/>
-      <c r="Q1" s="167"/>
-      <c r="R1" s="167"/>
-      <c r="S1" s="167"/>
-      <c r="T1" s="167"/>
-      <c r="U1" s="168"/>
-      <c r="V1" s="169" t="s">
+      <c r="O1" s="180"/>
+      <c r="P1" s="180"/>
+      <c r="Q1" s="180"/>
+      <c r="R1" s="180"/>
+      <c r="S1" s="180"/>
+      <c r="T1" s="180"/>
+      <c r="U1" s="181"/>
+      <c r="V1" s="200" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="170"/>
-      <c r="X1" s="170"/>
-      <c r="Y1" s="170"/>
-      <c r="Z1" s="170"/>
-      <c r="AA1" s="170"/>
-      <c r="AB1" s="170"/>
-      <c r="AC1" s="170"/>
-      <c r="AD1" s="171"/>
-    </row>
-    <row r="2" spans="1:30" s="43" customFormat="1">
-      <c r="A2" s="158" t="s">
+      <c r="W1" s="201"/>
+      <c r="X1" s="201"/>
+      <c r="Y1" s="201"/>
+      <c r="Z1" s="201"/>
+      <c r="AA1" s="201"/>
+      <c r="AB1" s="201"/>
+      <c r="AC1" s="201"/>
+      <c r="AD1" s="202"/>
+    </row>
+    <row r="2" spans="1:30" s="43" customFormat="1" ht="15.75">
+      <c r="A2" s="189" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="159"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="161" t="s">
+      <c r="B2" s="190"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="192" t="s">
         <v>160</v>
       </c>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="175" t="s">
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="176"/>
-      <c r="M2" s="177"/>
-      <c r="N2" s="187" t="s">
+      <c r="L2" s="175"/>
+      <c r="M2" s="176"/>
+      <c r="N2" s="194" t="s">
         <v>162</v>
       </c>
-      <c r="O2" s="188"/>
-      <c r="P2" s="188"/>
-      <c r="Q2" s="188"/>
-      <c r="R2" s="188"/>
-      <c r="S2" s="188"/>
-      <c r="T2" s="188"/>
-      <c r="U2" s="189"/>
-      <c r="V2" s="172" t="s">
+      <c r="O2" s="195"/>
+      <c r="P2" s="195"/>
+      <c r="Q2" s="195"/>
+      <c r="R2" s="195"/>
+      <c r="S2" s="195"/>
+      <c r="T2" s="195"/>
+      <c r="U2" s="196"/>
+      <c r="V2" s="171" t="s">
         <v>164</v>
       </c>
-      <c r="W2" s="173"/>
-      <c r="X2" s="174"/>
-      <c r="Y2" s="172" t="s">
+      <c r="W2" s="172"/>
+      <c r="X2" s="173"/>
+      <c r="Y2" s="171" t="s">
         <v>31</v>
       </c>
-      <c r="Z2" s="173"/>
-      <c r="AA2" s="174"/>
-      <c r="AB2" s="172" t="s">
+      <c r="Z2" s="172"/>
+      <c r="AA2" s="173"/>
+      <c r="AB2" s="171" t="s">
         <v>32</v>
       </c>
-      <c r="AC2" s="173"/>
-      <c r="AD2" s="174"/>
-    </row>
-    <row r="3" spans="1:30" s="43" customFormat="1">
-      <c r="A3" s="175" t="s">
+      <c r="AC2" s="172"/>
+      <c r="AD2" s="173"/>
+    </row>
+    <row r="3" spans="1:30" s="43" customFormat="1" ht="15.75">
+      <c r="A3" s="174" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="176"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="178" t="s">
+      <c r="B3" s="175"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="177" t="s">
         <v>161</v>
       </c>
-      <c r="E3" s="179"/>
-      <c r="F3" s="179"/>
-      <c r="G3" s="179"/>
-      <c r="H3" s="179"/>
-      <c r="I3" s="179"/>
-      <c r="J3" s="179"/>
-      <c r="K3" s="175" t="s">
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="178"/>
+      <c r="I3" s="178"/>
+      <c r="J3" s="178"/>
+      <c r="K3" s="174" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="176"/>
-      <c r="M3" s="177"/>
-      <c r="N3" s="166" t="s">
+      <c r="L3" s="175"/>
+      <c r="M3" s="176"/>
+      <c r="N3" s="179" t="s">
         <v>163</v>
       </c>
-      <c r="O3" s="167"/>
-      <c r="P3" s="167"/>
-      <c r="Q3" s="167"/>
-      <c r="R3" s="167"/>
-      <c r="S3" s="167"/>
-      <c r="T3" s="167"/>
-      <c r="U3" s="168"/>
-      <c r="V3" s="180"/>
-      <c r="W3" s="181"/>
-      <c r="X3" s="182"/>
-      <c r="Y3" s="183"/>
-      <c r="Z3" s="184"/>
-      <c r="AA3" s="185"/>
-      <c r="AB3" s="186"/>
-      <c r="AC3" s="184"/>
-      <c r="AD3" s="185"/>
-    </row>
-    <row r="7" spans="1:30" ht="16" thickBot="1"/>
-    <row r="8" spans="1:30" ht="16" thickBot="1">
-      <c r="B8" s="202" t="s">
+      <c r="O3" s="180"/>
+      <c r="P3" s="180"/>
+      <c r="Q3" s="180"/>
+      <c r="R3" s="180"/>
+      <c r="S3" s="180"/>
+      <c r="T3" s="180"/>
+      <c r="U3" s="181"/>
+      <c r="V3" s="182"/>
+      <c r="W3" s="183"/>
+      <c r="X3" s="184"/>
+      <c r="Y3" s="185"/>
+      <c r="Z3" s="186"/>
+      <c r="AA3" s="187"/>
+      <c r="AB3" s="188"/>
+      <c r="AC3" s="186"/>
+      <c r="AD3" s="187"/>
+    </row>
+    <row r="7" spans="1:30" ht="15.75" thickBot="1"/>
+    <row r="8" spans="1:30" ht="16.5" thickBot="1">
+      <c r="B8" s="169" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="202"/>
-      <c r="D8" s="202"/>
-      <c r="E8" s="202"/>
-      <c r="F8" s="202" t="s">
+      <c r="C8" s="169"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="202"/>
-      <c r="H8" s="202" t="s">
+      <c r="G8" s="169"/>
+      <c r="H8" s="169" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="202"/>
-      <c r="J8" s="202"/>
-      <c r="K8" s="202" t="s">
+      <c r="I8" s="169"/>
+      <c r="J8" s="169"/>
+      <c r="K8" s="169" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="202"/>
-      <c r="M8" s="202"/>
-      <c r="N8" s="202"/>
-      <c r="O8" s="202"/>
-      <c r="P8" s="202"/>
-      <c r="Q8" s="202"/>
-      <c r="R8" s="202"/>
-      <c r="S8" s="202"/>
-      <c r="T8" s="202"/>
-      <c r="U8" s="202"/>
-      <c r="V8" s="202"/>
-      <c r="W8" s="202"/>
-      <c r="X8" s="202" t="s">
+      <c r="L8" s="169"/>
+      <c r="M8" s="169"/>
+      <c r="N8" s="169"/>
+      <c r="O8" s="169"/>
+      <c r="P8" s="169"/>
+      <c r="Q8" s="169"/>
+      <c r="R8" s="169"/>
+      <c r="S8" s="169"/>
+      <c r="T8" s="169"/>
+      <c r="U8" s="169"/>
+      <c r="V8" s="169"/>
+      <c r="W8" s="169"/>
+      <c r="X8" s="169" t="s">
         <v>36</v>
       </c>
-      <c r="Y8" s="202"/>
-      <c r="Z8" s="202"/>
-      <c r="AA8" s="202"/>
-      <c r="AB8" s="202"/>
-      <c r="AC8" s="202"/>
+      <c r="Y8" s="169"/>
+      <c r="Z8" s="169"/>
+      <c r="AA8" s="169"/>
+      <c r="AB8" s="169"/>
+      <c r="AC8" s="169"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="B9" s="190" t="s">
+      <c r="B9" s="170" t="s">
         <v>159</v>
       </c>
-      <c r="C9" s="191"/>
-      <c r="D9" s="191"/>
-      <c r="E9" s="192"/>
-      <c r="F9" s="193" t="s">
+      <c r="C9" s="159"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="161" t="s">
         <v>156</v>
       </c>
-      <c r="G9" s="194"/>
-      <c r="H9" s="195"/>
-      <c r="I9" s="191"/>
-      <c r="J9" s="192"/>
-      <c r="K9" s="196"/>
-      <c r="L9" s="197"/>
-      <c r="M9" s="197"/>
-      <c r="N9" s="197"/>
-      <c r="O9" s="197"/>
-      <c r="P9" s="197"/>
-      <c r="Q9" s="197"/>
-      <c r="R9" s="197"/>
-      <c r="S9" s="197"/>
-      <c r="T9" s="197"/>
-      <c r="U9" s="197"/>
-      <c r="V9" s="197"/>
-      <c r="W9" s="198"/>
-      <c r="X9" s="199"/>
-      <c r="Y9" s="200"/>
-      <c r="Z9" s="200"/>
-      <c r="AA9" s="200"/>
-      <c r="AB9" s="200"/>
-      <c r="AC9" s="201"/>
+      <c r="G9" s="162"/>
+      <c r="H9" s="158"/>
+      <c r="I9" s="159"/>
+      <c r="J9" s="160"/>
+      <c r="K9" s="163"/>
+      <c r="L9" s="164"/>
+      <c r="M9" s="164"/>
+      <c r="N9" s="164"/>
+      <c r="O9" s="164"/>
+      <c r="P9" s="164"/>
+      <c r="Q9" s="164"/>
+      <c r="R9" s="164"/>
+      <c r="S9" s="164"/>
+      <c r="T9" s="164"/>
+      <c r="U9" s="164"/>
+      <c r="V9" s="164"/>
+      <c r="W9" s="165"/>
+      <c r="X9" s="166"/>
+      <c r="Y9" s="167"/>
+      <c r="Z9" s="167"/>
+      <c r="AA9" s="167"/>
+      <c r="AB9" s="167"/>
+      <c r="AC9" s="168"/>
     </row>
     <row r="10" spans="1:30">
-      <c r="B10" s="195"/>
-      <c r="C10" s="191"/>
-      <c r="D10" s="191"/>
-      <c r="E10" s="192"/>
-      <c r="F10" s="193"/>
-      <c r="G10" s="194"/>
-      <c r="H10" s="195"/>
-      <c r="I10" s="191"/>
-      <c r="J10" s="192"/>
-      <c r="K10" s="196"/>
-      <c r="L10" s="197"/>
-      <c r="M10" s="197"/>
-      <c r="N10" s="197"/>
-      <c r="O10" s="197"/>
-      <c r="P10" s="197"/>
-      <c r="Q10" s="197"/>
-      <c r="R10" s="197"/>
-      <c r="S10" s="197"/>
-      <c r="T10" s="197"/>
-      <c r="U10" s="197"/>
-      <c r="V10" s="197"/>
-      <c r="W10" s="198"/>
-      <c r="X10" s="199"/>
-      <c r="Y10" s="200"/>
-      <c r="Z10" s="200"/>
-      <c r="AA10" s="200"/>
-      <c r="AB10" s="200"/>
-      <c r="AC10" s="201"/>
+      <c r="B10" s="158"/>
+      <c r="C10" s="159"/>
+      <c r="D10" s="159"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="161"/>
+      <c r="G10" s="162"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="159"/>
+      <c r="J10" s="160"/>
+      <c r="K10" s="163"/>
+      <c r="L10" s="164"/>
+      <c r="M10" s="164"/>
+      <c r="N10" s="164"/>
+      <c r="O10" s="164"/>
+      <c r="P10" s="164"/>
+      <c r="Q10" s="164"/>
+      <c r="R10" s="164"/>
+      <c r="S10" s="164"/>
+      <c r="T10" s="164"/>
+      <c r="U10" s="164"/>
+      <c r="V10" s="164"/>
+      <c r="W10" s="165"/>
+      <c r="X10" s="166"/>
+      <c r="Y10" s="167"/>
+      <c r="Z10" s="167"/>
+      <c r="AA10" s="167"/>
+      <c r="AB10" s="167"/>
+      <c r="AC10" s="168"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="B11" s="195"/>
-      <c r="C11" s="191"/>
-      <c r="D11" s="191"/>
-      <c r="E11" s="192"/>
-      <c r="F11" s="193"/>
-      <c r="G11" s="194"/>
-      <c r="H11" s="195"/>
-      <c r="I11" s="191"/>
-      <c r="J11" s="192"/>
-      <c r="K11" s="196"/>
-      <c r="L11" s="197"/>
-      <c r="M11" s="197"/>
-      <c r="N11" s="197"/>
-      <c r="O11" s="197"/>
-      <c r="P11" s="197"/>
-      <c r="Q11" s="197"/>
-      <c r="R11" s="197"/>
-      <c r="S11" s="197"/>
-      <c r="T11" s="197"/>
-      <c r="U11" s="197"/>
-      <c r="V11" s="197"/>
-      <c r="W11" s="198"/>
-      <c r="X11" s="199"/>
-      <c r="Y11" s="200"/>
-      <c r="Z11" s="200"/>
-      <c r="AA11" s="200"/>
-      <c r="AB11" s="200"/>
-      <c r="AC11" s="201"/>
+      <c r="B11" s="158"/>
+      <c r="C11" s="159"/>
+      <c r="D11" s="159"/>
+      <c r="E11" s="160"/>
+      <c r="F11" s="161"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="158"/>
+      <c r="I11" s="159"/>
+      <c r="J11" s="160"/>
+      <c r="K11" s="163"/>
+      <c r="L11" s="164"/>
+      <c r="M11" s="164"/>
+      <c r="N11" s="164"/>
+      <c r="O11" s="164"/>
+      <c r="P11" s="164"/>
+      <c r="Q11" s="164"/>
+      <c r="R11" s="164"/>
+      <c r="S11" s="164"/>
+      <c r="T11" s="164"/>
+      <c r="U11" s="164"/>
+      <c r="V11" s="164"/>
+      <c r="W11" s="165"/>
+      <c r="X11" s="166"/>
+      <c r="Y11" s="167"/>
+      <c r="Z11" s="167"/>
+      <c r="AA11" s="167"/>
+      <c r="AB11" s="167"/>
+      <c r="AC11" s="168"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="B12" s="195"/>
-      <c r="C12" s="191"/>
-      <c r="D12" s="191"/>
-      <c r="E12" s="192"/>
-      <c r="F12" s="193"/>
-      <c r="G12" s="194"/>
-      <c r="H12" s="195"/>
-      <c r="I12" s="191"/>
-      <c r="J12" s="192"/>
-      <c r="K12" s="196"/>
-      <c r="L12" s="197"/>
-      <c r="M12" s="197"/>
-      <c r="N12" s="197"/>
-      <c r="O12" s="197"/>
-      <c r="P12" s="197"/>
-      <c r="Q12" s="197"/>
-      <c r="R12" s="197"/>
-      <c r="S12" s="197"/>
-      <c r="T12" s="197"/>
-      <c r="U12" s="197"/>
-      <c r="V12" s="197"/>
-      <c r="W12" s="198"/>
-      <c r="X12" s="199"/>
-      <c r="Y12" s="200"/>
-      <c r="Z12" s="200"/>
-      <c r="AA12" s="200"/>
-      <c r="AB12" s="200"/>
-      <c r="AC12" s="201"/>
+      <c r="B12" s="158"/>
+      <c r="C12" s="159"/>
+      <c r="D12" s="159"/>
+      <c r="E12" s="160"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="162"/>
+      <c r="H12" s="158"/>
+      <c r="I12" s="159"/>
+      <c r="J12" s="160"/>
+      <c r="K12" s="163"/>
+      <c r="L12" s="164"/>
+      <c r="M12" s="164"/>
+      <c r="N12" s="164"/>
+      <c r="O12" s="164"/>
+      <c r="P12" s="164"/>
+      <c r="Q12" s="164"/>
+      <c r="R12" s="164"/>
+      <c r="S12" s="164"/>
+      <c r="T12" s="164"/>
+      <c r="U12" s="164"/>
+      <c r="V12" s="164"/>
+      <c r="W12" s="165"/>
+      <c r="X12" s="166"/>
+      <c r="Y12" s="167"/>
+      <c r="Z12" s="167"/>
+      <c r="AA12" s="167"/>
+      <c r="AB12" s="167"/>
+      <c r="AC12" s="168"/>
     </row>
     <row r="13" spans="1:30" ht="18" customHeight="1"/>
     <row r="14" spans="1:30" ht="18" customHeight="1"/>
@@ -4740,31 +4760,11 @@
     <row r="38" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="X12:AC12"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="X10:AC10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="X11:AC11"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="X9:AC9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:AD1"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="A3:C3"/>
@@ -4779,11 +4779,31 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:U2"/>
     <mergeCell ref="V2:X2"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:AD1"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="X9:AC9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="X11:AC11"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="X10:AC10"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="X12:AC12"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4804,17 +4824,17 @@
       <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="1"/>
-    <col min="3" max="3" width="10.83203125" style="2"/>
+    <col min="1" max="2" width="10.875" style="1"/>
+    <col min="3" max="3" width="10.875" style="2"/>
     <col min="4" max="4" width="53" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="52.5" style="30" customWidth="1"/>
-    <col min="6" max="6" width="52.33203125" style="30" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="52.375" style="30" customWidth="1"/>
+    <col min="7" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" s="3" customFormat="1" ht="26" customHeight="1">
+    <row r="1" spans="2:6" s="3" customFormat="1" ht="26.1" customHeight="1">
       <c r="B1" s="3" t="s">
         <v>37</v>
       </c>
@@ -4825,7 +4845,7 @@
     <row r="3" spans="2:6">
       <c r="E3" s="23"/>
     </row>
-    <row r="4" spans="2:6" ht="20">
+    <row r="4" spans="2:6" ht="18.75">
       <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
@@ -4833,7 +4853,7 @@
       <c r="E4" s="24"/>
       <c r="F4" s="24"/>
     </row>
-    <row r="5" spans="2:6" ht="20">
+    <row r="5" spans="2:6" ht="18.75">
       <c r="C5" s="7" t="s">
         <v>39</v>
       </c>
@@ -4841,7 +4861,7 @@
       <c r="E5" s="24"/>
       <c r="F5" s="24"/>
     </row>
-    <row r="6" spans="2:6" ht="20">
+    <row r="6" spans="2:6" ht="18.75">
       <c r="C6" s="8" t="s">
         <v>24</v>
       </c>
@@ -4855,7 +4875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="20">
+    <row r="7" spans="2:6" ht="18.75">
       <c r="C7" s="7">
         <v>1</v>
       </c>
@@ -4869,7 +4889,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="20">
+    <row r="8" spans="2:6" ht="18.75">
       <c r="C8" s="7">
         <v>2</v>
       </c>
@@ -4883,19 +4903,19 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="20">
+    <row r="9" spans="2:6" ht="18.75">
       <c r="C9" s="7"/>
       <c r="D9" s="11"/>
       <c r="E9" s="27"/>
       <c r="F9" s="27"/>
     </row>
-    <row r="10" spans="2:6" ht="20">
+    <row r="10" spans="2:6" ht="18.75">
       <c r="C10" s="7"/>
       <c r="D10" s="12"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
     </row>
-    <row r="11" spans="2:6" ht="20">
+    <row r="11" spans="2:6" ht="18.75">
       <c r="C11" s="13" t="s">
         <v>45</v>
       </c>
@@ -4903,7 +4923,7 @@
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
     </row>
-    <row r="12" spans="2:6" ht="20">
+    <row r="12" spans="2:6" ht="18.75">
       <c r="C12" s="14" t="s">
         <v>46</v>
       </c>
@@ -4911,7 +4931,7 @@
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
     </row>
-    <row r="13" spans="2:6" ht="20">
+    <row r="13" spans="2:6" ht="18.75">
       <c r="C13" s="8" t="s">
         <v>24</v>
       </c>
@@ -4925,7 +4945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="20">
+    <row r="14" spans="2:6" ht="18.75">
       <c r="C14" s="7">
         <v>1</v>
       </c>
@@ -4939,7 +4959,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="20">
+    <row r="15" spans="2:6" ht="18.75">
       <c r="C15" s="7">
         <v>2</v>
       </c>
@@ -4953,7 +4973,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="20">
+    <row r="16" spans="2:6" ht="18.75">
       <c r="C16" s="7">
         <v>3</v>
       </c>
@@ -4967,13 +4987,13 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="3:6" ht="20">
+    <row r="17" spans="3:6" ht="18.75">
       <c r="C17" s="7"/>
       <c r="D17" s="6"/>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
     </row>
-    <row r="18" spans="3:6" ht="20">
+    <row r="18" spans="3:6" ht="18.75">
       <c r="C18" s="15" t="s">
         <v>50</v>
       </c>
@@ -4981,7 +5001,7 @@
       <c r="E18" s="28"/>
       <c r="F18" s="28"/>
     </row>
-    <row r="19" spans="3:6" ht="20">
+    <row r="19" spans="3:6" ht="18.75">
       <c r="C19" s="17" t="s">
         <v>51</v>
       </c>
@@ -4989,7 +5009,7 @@
       <c r="E19" s="28"/>
       <c r="F19" s="28"/>
     </row>
-    <row r="20" spans="3:6" ht="20">
+    <row r="20" spans="3:6" ht="18.75">
       <c r="C20" s="18" t="s">
         <v>24</v>
       </c>
@@ -5003,7 +5023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:6" ht="20">
+    <row r="21" spans="3:6" ht="18.75">
       <c r="C21" s="20">
         <v>1</v>
       </c>
@@ -5017,7 +5037,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="3:6" ht="20">
+    <row r="22" spans="3:6" ht="18.75">
       <c r="C22" s="20">
         <v>2</v>
       </c>
@@ -5031,7 +5051,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="3:6" ht="20">
+    <row r="23" spans="3:6" ht="18.75">
       <c r="C23" s="20">
         <v>3</v>
       </c>
@@ -5045,7 +5065,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="3:6" ht="20">
+    <row r="24" spans="3:6" ht="18.75">
       <c r="C24" s="20">
         <v>4</v>
       </c>
@@ -5059,7 +5079,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="3:6" ht="20">
+    <row r="25" spans="3:6" ht="18.75">
       <c r="C25" s="20">
         <v>5</v>
       </c>
@@ -5073,7 +5093,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="3:6" ht="20">
+    <row r="28" spans="3:6" ht="18.75">
       <c r="C28" s="15" t="s">
         <v>72</v>
       </c>
@@ -5081,7 +5101,7 @@
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
     </row>
-    <row r="29" spans="3:6" ht="20">
+    <row r="29" spans="3:6" ht="18.75">
       <c r="C29" s="17" t="s">
         <v>74</v>
       </c>
@@ -5089,7 +5109,7 @@
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
     </row>
-    <row r="30" spans="3:6" ht="20">
+    <row r="30" spans="3:6" ht="18.75">
       <c r="C30" s="18" t="s">
         <v>24</v>
       </c>
@@ -5103,7 +5123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:6" ht="20">
+    <row r="31" spans="3:6" ht="18.75">
       <c r="C31" s="20">
         <v>1</v>
       </c>
@@ -5117,7 +5137,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="3:6" ht="20">
+    <row r="32" spans="3:6" ht="18.75">
       <c r="C32" s="20">
         <v>2</v>
       </c>
@@ -5131,19 +5151,19 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="3:6" ht="20">
+    <row r="33" spans="3:6" ht="18.75">
       <c r="C33" s="20"/>
       <c r="D33" s="21"/>
       <c r="E33" s="26"/>
       <c r="F33" s="32"/>
     </row>
-    <row r="34" spans="3:6" ht="20">
+    <row r="34" spans="3:6" ht="18.75">
       <c r="C34" s="20"/>
       <c r="D34" s="21"/>
       <c r="E34" s="26"/>
       <c r="F34" s="32"/>
     </row>
-    <row r="35" spans="3:6" ht="20">
+    <row r="35" spans="3:6" ht="18.75">
       <c r="C35" s="15" t="s">
         <v>67</v>
       </c>
@@ -5151,7 +5171,7 @@
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
     </row>
-    <row r="36" spans="3:6" ht="20">
+    <row r="36" spans="3:6" ht="18.75">
       <c r="C36" s="17" t="s">
         <v>68</v>
       </c>
@@ -5159,7 +5179,7 @@
       <c r="E36" s="28"/>
       <c r="F36" s="28"/>
     </row>
-    <row r="37" spans="3:6" ht="20">
+    <row r="37" spans="3:6" ht="18.75">
       <c r="C37" s="18" t="s">
         <v>24</v>
       </c>
@@ -5173,7 +5193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:6" ht="20">
+    <row r="38" spans="3:6" ht="18.75">
       <c r="C38" s="20">
         <v>1</v>
       </c>
@@ -5187,7 +5207,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="3:6" ht="20">
+    <row r="39" spans="3:6" ht="18.75">
       <c r="C39" s="20">
         <v>2</v>
       </c>
@@ -5201,7 +5221,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="3:6" ht="20">
+    <row r="40" spans="3:6" ht="18.75">
       <c r="C40" s="20">
         <v>3</v>
       </c>
@@ -5215,7 +5235,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="3:6" ht="20">
+    <row r="43" spans="3:6" ht="18.75">
       <c r="C43" s="15" t="s">
         <v>61</v>
       </c>
@@ -5223,7 +5243,7 @@
       <c r="E43" s="28"/>
       <c r="F43" s="28"/>
     </row>
-    <row r="44" spans="3:6" ht="20">
+    <row r="44" spans="3:6" ht="18.75">
       <c r="C44" s="17" t="s">
         <v>60</v>
       </c>
@@ -5231,7 +5251,7 @@
       <c r="E44" s="28"/>
       <c r="F44" s="28"/>
     </row>
-    <row r="45" spans="3:6" ht="20">
+    <row r="45" spans="3:6" ht="18.75">
       <c r="C45" s="18" t="s">
         <v>24</v>
       </c>
@@ -5245,7 +5265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:6" ht="20">
+    <row r="46" spans="3:6" ht="18.75">
       <c r="C46" s="20">
         <v>1</v>
       </c>
@@ -5259,7 +5279,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="3:6" ht="20">
+    <row r="47" spans="3:6" ht="18.75">
       <c r="C47" s="20">
         <v>2</v>
       </c>
@@ -5273,7 +5293,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="3:6" ht="20">
+    <row r="50" spans="3:6" ht="18.75">
       <c r="C50" s="15" t="s">
         <v>62</v>
       </c>
@@ -5281,7 +5301,7 @@
       <c r="E50" s="28"/>
       <c r="F50" s="28"/>
     </row>
-    <row r="51" spans="3:6" ht="20">
+    <row r="51" spans="3:6" ht="18.75">
       <c r="C51" s="17" t="s">
         <v>63</v>
       </c>
@@ -5289,7 +5309,7 @@
       <c r="E51" s="28"/>
       <c r="F51" s="28"/>
     </row>
-    <row r="52" spans="3:6" ht="20">
+    <row r="52" spans="3:6" ht="18.75">
       <c r="C52" s="18" t="s">
         <v>24</v>
       </c>
@@ -5303,7 +5323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:6" ht="20">
+    <row r="53" spans="3:6" ht="18.75">
       <c r="C53" s="20">
         <v>1</v>
       </c>
@@ -5317,7 +5337,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="3:6" ht="20">
+    <row r="56" spans="3:6" ht="18.75">
       <c r="C56" s="15" t="s">
         <v>123</v>
       </c>
@@ -5325,7 +5345,7 @@
       <c r="E56" s="28"/>
       <c r="F56" s="28"/>
     </row>
-    <row r="57" spans="3:6" ht="20">
+    <row r="57" spans="3:6" ht="18.75">
       <c r="C57" s="17" t="s">
         <v>124</v>
       </c>
@@ -5333,7 +5353,7 @@
       <c r="E57" s="28"/>
       <c r="F57" s="28"/>
     </row>
-    <row r="58" spans="3:6" ht="20">
+    <row r="58" spans="3:6" ht="18.75">
       <c r="C58" s="18" t="s">
         <v>24</v>
       </c>
@@ -5347,7 +5367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:6" ht="20">
+    <row r="59" spans="3:6" ht="18.75">
       <c r="C59" s="20">
         <v>1</v>
       </c>
@@ -5402,14 +5422,14 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="10.83203125" style="44"/>
-    <col min="3" max="3" width="5.33203125" style="44" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="44"/>
+    <col min="1" max="2" width="10.875" style="44"/>
+    <col min="3" max="3" width="5.375" style="44" customWidth="1"/>
+    <col min="4" max="16384" width="10.875" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" s="135" customFormat="1" ht="26" customHeight="1">
+    <row r="1" spans="2:11" s="135" customFormat="1" ht="26.1" customHeight="1">
       <c r="B1" s="56" t="s">
         <v>158</v>
       </c>
@@ -5427,7 +5447,7 @@
       <c r="J3" s="46"/>
       <c r="K3" s="47"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" ht="15.75">
       <c r="B4" s="48"/>
       <c r="C4" s="136" t="s">
         <v>165</v>
@@ -5633,7 +5653,7 @@
       <c r="J20" s="49"/>
       <c r="K20" s="50"/>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="2:14" ht="15.75">
       <c r="B21" s="48"/>
       <c r="C21" s="136" t="s">
         <v>166</v>
@@ -5833,23 +5853,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="36"/>
-    <col min="2" max="2" width="7.83203125" style="36" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="36" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="36" customWidth="1"/>
-    <col min="5" max="5" width="42.6640625" style="36" customWidth="1"/>
-    <col min="6" max="6" width="41.83203125" style="36" customWidth="1"/>
-    <col min="7" max="7" width="56.1640625" style="36" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="36"/>
+    <col min="1" max="1" width="10.875" style="36"/>
+    <col min="2" max="2" width="7.875" style="36" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="36" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="36" customWidth="1"/>
+    <col min="5" max="5" width="42.625" style="36" customWidth="1"/>
+    <col min="6" max="6" width="41.875" style="36" customWidth="1"/>
+    <col min="7" max="7" width="56.125" style="36" customWidth="1"/>
+    <col min="8" max="16384" width="10.875" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="120" customFormat="1" ht="26" customHeight="1">
+    <row r="1" spans="2:12" s="120" customFormat="1" ht="26.1" customHeight="1">
       <c r="B1" s="133" t="s">
         <v>1</v>
       </c>
@@ -5867,7 +5887,7 @@
       <c r="K2" s="122"/>
       <c r="L2" s="122"/>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" ht="15.75">
       <c r="B3" s="123" t="s">
         <v>20</v>
       </c>
@@ -5881,17 +5901,17 @@
       <c r="K3" s="122"/>
       <c r="L3" s="122"/>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" ht="15.75">
       <c r="B4" s="104" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="104" t="s">
         <v>231</v>
       </c>
-      <c r="D4" s="204" t="s">
+      <c r="D4" s="205" t="s">
         <v>234</v>
       </c>
-      <c r="E4" s="204"/>
+      <c r="E4" s="205"/>
       <c r="F4" s="144" t="s">
         <v>232</v>
       </c>
@@ -5902,17 +5922,17 @@
       <c r="K4" s="122"/>
       <c r="L4" s="122"/>
     </row>
-    <row r="5" spans="2:12" ht="20" customHeight="1">
+    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="147">
         <v>1</v>
       </c>
       <c r="C5" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="207" t="s">
+      <c r="D5" s="204" t="s">
         <v>236</v>
       </c>
-      <c r="E5" s="207"/>
+      <c r="E5" s="204"/>
       <c r="F5" s="149" t="s">
         <v>235</v>
       </c>
@@ -5945,7 +5965,7 @@
       <c r="K7" s="122"/>
       <c r="L7" s="122"/>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" ht="15.75">
       <c r="B8" s="123" t="s">
         <v>3</v>
       </c>
@@ -5960,22 +5980,22 @@
       <c r="K8" s="122"/>
       <c r="L8" s="122"/>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" ht="15.75">
       <c r="B9" s="104" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="144" t="s">
         <v>231</v>
       </c>
-      <c r="D9" s="204" t="s">
+      <c r="D9" s="205" t="s">
         <v>234</v>
       </c>
-      <c r="E9" s="204"/>
+      <c r="E9" s="205"/>
       <c r="F9" s="144" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="20" customHeight="1">
+    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="126">
         <v>1</v>
       </c>
@@ -5988,7 +6008,7 @@
       <c r="G10" s="125"/>
       <c r="H10" s="125"/>
     </row>
-    <row r="11" spans="2:12" ht="20" customHeight="1">
+    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="126">
         <v>2</v>
       </c>
@@ -6001,7 +6021,7 @@
       <c r="G11" s="125"/>
       <c r="H11" s="125"/>
     </row>
-    <row r="12" spans="2:12" ht="20" customHeight="1">
+    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="126">
         <v>3</v>
       </c>
@@ -6014,7 +6034,7 @@
       <c r="G12" s="125"/>
       <c r="H12" s="125"/>
     </row>
-    <row r="13" spans="2:12" ht="20" customHeight="1">
+    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="126">
         <v>4</v>
       </c>
@@ -6027,7 +6047,7 @@
       <c r="G13" s="125"/>
       <c r="H13" s="125"/>
     </row>
-    <row r="14" spans="2:12" ht="20" customHeight="1">
+    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="126">
         <v>5</v>
       </c>
@@ -6040,7 +6060,7 @@
       <c r="G14" s="125"/>
       <c r="H14" s="125"/>
     </row>
-    <row r="15" spans="2:12" ht="20" customHeight="1">
+    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="126">
         <v>6</v>
       </c>
@@ -6053,7 +6073,7 @@
       <c r="G15" s="125"/>
       <c r="H15" s="125"/>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" ht="15.75">
       <c r="B17" s="123" t="s">
         <v>21</v>
       </c>
@@ -6061,22 +6081,22 @@
       <c r="D17" s="132"/>
       <c r="E17" s="122"/>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" ht="15.75">
       <c r="B18" s="104" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="144" t="s">
         <v>231</v>
       </c>
-      <c r="D18" s="204" t="s">
+      <c r="D18" s="205" t="s">
         <v>234</v>
       </c>
-      <c r="E18" s="204"/>
+      <c r="E18" s="205"/>
       <c r="F18" s="144" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="20" customHeight="1">
+    <row r="19" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B19" s="126">
         <v>1</v>
       </c>
@@ -6089,7 +6109,7 @@
       <c r="G19" s="125"/>
       <c r="H19" s="125"/>
     </row>
-    <row r="20" spans="2:8" ht="20" customHeight="1">
+    <row r="20" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="126">
         <v>2</v>
       </c>
@@ -6102,7 +6122,7 @@
       <c r="G20" s="125"/>
       <c r="H20" s="125"/>
     </row>
-    <row r="21" spans="2:8" ht="20" customHeight="1">
+    <row r="21" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="126">
         <v>3</v>
       </c>
@@ -6115,7 +6135,7 @@
       <c r="G21" s="125"/>
       <c r="H21" s="125"/>
     </row>
-    <row r="22" spans="2:8" ht="20" customHeight="1">
+    <row r="22" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="126">
         <v>4</v>
       </c>
@@ -6128,7 +6148,7 @@
       <c r="G22" s="125"/>
       <c r="H22" s="125"/>
     </row>
-    <row r="23" spans="2:8" ht="20" customHeight="1">
+    <row r="23" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B23" s="126">
         <v>5</v>
       </c>
@@ -6141,7 +6161,7 @@
       <c r="G23" s="125"/>
       <c r="H23" s="125"/>
     </row>
-    <row r="24" spans="2:8" ht="20" customHeight="1">
+    <row r="24" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B24" s="126">
         <v>6</v>
       </c>
@@ -6154,7 +6174,7 @@
       <c r="G24" s="125"/>
       <c r="H24" s="125"/>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:8" ht="15.75">
       <c r="B26" s="123" t="s">
         <v>233</v>
       </c>
@@ -6162,61 +6182,73 @@
       <c r="D26" s="132"/>
       <c r="E26" s="122"/>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:8" ht="15.75">
       <c r="B27" s="104" t="s">
         <v>2</v>
       </c>
       <c r="C27" s="144" t="s">
         <v>231</v>
       </c>
-      <c r="D27" s="204" t="s">
+      <c r="D27" s="205" t="s">
         <v>234</v>
       </c>
-      <c r="E27" s="204"/>
+      <c r="E27" s="205"/>
       <c r="F27" s="144" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="20" customHeight="1">
+    <row r="28" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B28" s="147">
         <v>1</v>
       </c>
       <c r="C28" s="148" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="207"/>
-      <c r="E28" s="207"/>
-      <c r="F28" s="150"/>
+      <c r="D28" s="204" t="s">
+        <v>248</v>
+      </c>
+      <c r="E28" s="204"/>
+      <c r="F28" s="150" t="s">
+        <v>251</v>
+      </c>
       <c r="G28" s="125"/>
       <c r="H28" s="125"/>
     </row>
-    <row r="29" spans="2:8" ht="20" customHeight="1">
+    <row r="29" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B29" s="126">
         <v>2</v>
       </c>
       <c r="C29" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="203"/>
+      <c r="D29" s="203" t="s">
+        <v>249</v>
+      </c>
       <c r="E29" s="203"/>
-      <c r="F29" s="146"/>
+      <c r="F29" s="146" t="s">
+        <v>252</v>
+      </c>
       <c r="G29" s="125"/>
       <c r="H29" s="125"/>
     </row>
-    <row r="30" spans="2:8" ht="20" customHeight="1">
+    <row r="30" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B30" s="126">
         <v>3</v>
       </c>
       <c r="C30" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="203"/>
+      <c r="D30" s="203" t="s">
+        <v>250</v>
+      </c>
       <c r="E30" s="203"/>
-      <c r="F30" s="146"/>
+      <c r="F30" s="146" t="s">
+        <v>250</v>
+      </c>
       <c r="G30" s="125"/>
       <c r="H30" s="125"/>
     </row>
-    <row r="31" spans="2:8" ht="20" customHeight="1">
+    <row r="31" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B31" s="126">
         <v>4</v>
       </c>
@@ -6229,7 +6261,7 @@
       <c r="G31" s="125"/>
       <c r="H31" s="125"/>
     </row>
-    <row r="32" spans="2:8" ht="20" customHeight="1">
+    <row r="32" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B32" s="126">
         <v>5</v>
       </c>
@@ -6242,7 +6274,7 @@
       <c r="G32" s="125"/>
       <c r="H32" s="125"/>
     </row>
-    <row r="33" spans="2:8" ht="20" customHeight="1">
+    <row r="33" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B33" s="126">
         <v>6</v>
       </c>
@@ -6255,7 +6287,7 @@
       <c r="G33" s="125"/>
       <c r="H33" s="125"/>
     </row>
-    <row r="34" spans="2:8" ht="20" customHeight="1">
+    <row r="34" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B34" s="126">
         <v>7</v>
       </c>
@@ -6268,7 +6300,7 @@
       <c r="G34" s="125"/>
       <c r="H34" s="125"/>
     </row>
-    <row r="35" spans="2:8" ht="20" customHeight="1">
+    <row r="35" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B35" s="126">
         <v>8</v>
       </c>
@@ -6281,7 +6313,7 @@
       <c r="G35" s="125"/>
       <c r="H35" s="125"/>
     </row>
-    <row r="36" spans="2:8" ht="20" customHeight="1">
+    <row r="36" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B36" s="126">
         <v>9</v>
       </c>
@@ -6294,7 +6326,7 @@
       <c r="G36" s="125"/>
       <c r="H36" s="125"/>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="2:8" ht="15.75">
       <c r="B39" s="123" t="s">
         <v>114</v>
       </c>
@@ -6302,15 +6334,15 @@
       <c r="D39" s="132"/>
       <c r="E39" s="122"/>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="2:8" ht="15.75">
       <c r="B40" s="124"/>
       <c r="C40" s="157" t="s">
         <v>231</v>
       </c>
-      <c r="D40" s="204" t="s">
+      <c r="D40" s="205" t="s">
         <v>234</v>
       </c>
-      <c r="E40" s="204"/>
+      <c r="E40" s="205"/>
       <c r="F40" s="157" t="s">
         <v>232</v>
       </c>
@@ -6368,7 +6400,7 @@
       <c r="E45" s="203"/>
       <c r="F45" s="146"/>
     </row>
-    <row r="48" spans="2:8">
+    <row r="48" spans="2:8" ht="15.75">
       <c r="B48" s="123" t="s">
         <v>94</v>
       </c>
@@ -6376,20 +6408,20 @@
       <c r="D48" s="132"/>
       <c r="E48" s="122"/>
     </row>
-    <row r="49" spans="2:6">
+    <row r="49" spans="2:6" ht="15.75">
       <c r="B49" s="124"/>
       <c r="C49" s="144" t="s">
         <v>231</v>
       </c>
-      <c r="D49" s="204" t="s">
+      <c r="D49" s="205" t="s">
         <v>234</v>
       </c>
-      <c r="E49" s="204"/>
+      <c r="E49" s="205"/>
       <c r="F49" s="144" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="50" spans="2:6" ht="20" customHeight="1">
+    <row r="50" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B50" s="126">
         <v>1</v>
       </c>
@@ -6400,7 +6432,7 @@
       <c r="E50" s="203"/>
       <c r="F50" s="146"/>
     </row>
-    <row r="51" spans="2:6" ht="20" customHeight="1">
+    <row r="51" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B51" s="126">
         <v>2</v>
       </c>
@@ -6411,7 +6443,7 @@
       <c r="E51" s="203"/>
       <c r="F51" s="146"/>
     </row>
-    <row r="52" spans="2:6" ht="20" customHeight="1">
+    <row r="52" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B52" s="126">
         <v>3</v>
       </c>
@@ -6422,7 +6454,7 @@
       <c r="E52" s="203"/>
       <c r="F52" s="146"/>
     </row>
-    <row r="53" spans="2:6" ht="20" customHeight="1">
+    <row r="53" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B53" s="126">
         <v>4</v>
       </c>
@@ -6433,7 +6465,7 @@
       <c r="E53" s="203"/>
       <c r="F53" s="146"/>
     </row>
-    <row r="54" spans="2:6" ht="20" customHeight="1">
+    <row r="54" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B54" s="126">
         <v>5</v>
       </c>
@@ -6444,7 +6476,7 @@
       <c r="E54" s="203"/>
       <c r="F54" s="146"/>
     </row>
-    <row r="55" spans="2:6" ht="20" customHeight="1">
+    <row r="55" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B55" s="126">
         <v>6</v>
       </c>
@@ -6455,7 +6487,7 @@
       <c r="E55" s="203"/>
       <c r="F55" s="146"/>
     </row>
-    <row r="56" spans="2:6" ht="20" customHeight="1">
+    <row r="56" spans="2:6" ht="20.100000000000001" customHeight="1">
       <c r="B56" s="126">
         <v>7</v>
       </c>
@@ -6466,7 +6498,7 @@
       <c r="E56" s="203"/>
       <c r="F56" s="146"/>
     </row>
-    <row r="59" spans="2:6">
+    <row r="59" spans="2:6" ht="15.75">
       <c r="B59" s="123" t="s">
         <v>102</v>
       </c>
@@ -6474,15 +6506,15 @@
       <c r="D59" s="132"/>
       <c r="E59" s="122"/>
     </row>
-    <row r="60" spans="2:6">
+    <row r="60" spans="2:6" ht="15.75">
       <c r="B60" s="124"/>
       <c r="C60" s="144" t="s">
         <v>231</v>
       </c>
-      <c r="D60" s="204" t="s">
+      <c r="D60" s="205" t="s">
         <v>234</v>
       </c>
-      <c r="E60" s="204"/>
+      <c r="E60" s="205"/>
       <c r="F60" s="144" t="s">
         <v>232</v>
       </c>
@@ -6494,8 +6526,8 @@
       <c r="C61" s="127" t="s">
         <v>103</v>
       </c>
-      <c r="D61" s="205"/>
-      <c r="E61" s="206"/>
+      <c r="D61" s="206"/>
+      <c r="E61" s="207"/>
       <c r="F61" s="146"/>
     </row>
     <row r="62" spans="2:6" ht="15" customHeight="1">
@@ -6505,8 +6537,8 @@
       <c r="C62" s="127" t="s">
         <v>104</v>
       </c>
-      <c r="D62" s="205"/>
-      <c r="E62" s="206"/>
+      <c r="D62" s="206"/>
+      <c r="E62" s="207"/>
       <c r="F62" s="146"/>
     </row>
     <row r="63" spans="2:6" ht="15" customHeight="1">
@@ -6516,8 +6548,8 @@
       <c r="C63" s="127" t="s">
         <v>105</v>
       </c>
-      <c r="D63" s="205"/>
-      <c r="E63" s="206"/>
+      <c r="D63" s="206"/>
+      <c r="E63" s="207"/>
       <c r="F63" s="146"/>
     </row>
     <row r="64" spans="2:6" ht="15" customHeight="1">
@@ -6527,8 +6559,8 @@
       <c r="C64" s="127" t="s">
         <v>106</v>
       </c>
-      <c r="D64" s="205"/>
-      <c r="E64" s="206"/>
+      <c r="D64" s="206"/>
+      <c r="E64" s="207"/>
       <c r="F64" s="146"/>
     </row>
     <row r="65" spans="2:6">
@@ -6538,21 +6570,33 @@
       <c r="C65" s="127" t="s">
         <v>107</v>
       </c>
-      <c r="D65" s="205"/>
-      <c r="E65" s="206"/>
+      <c r="D65" s="206"/>
+      <c r="E65" s="207"/>
       <c r="F65" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="D65:E65"/>
     <mergeCell ref="D23:E23"/>
@@ -6569,27 +6613,15 @@
     <mergeCell ref="D62:E62"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6610,21 +6642,21 @@
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.5" style="36" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" style="36" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" style="36" customWidth="1"/>
+    <col min="2" max="2" width="7.875" style="36" customWidth="1"/>
+    <col min="3" max="3" width="26.625" style="36" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="36" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="36" customWidth="1"/>
-    <col min="6" max="6" width="48.6640625" style="36" customWidth="1"/>
-    <col min="7" max="7" width="62.33203125" style="36" customWidth="1"/>
-    <col min="8" max="8" width="62.83203125" style="36" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="36" customWidth="1"/>
+    <col min="6" max="6" width="48.625" style="36" customWidth="1"/>
+    <col min="7" max="7" width="62.375" style="36" customWidth="1"/>
+    <col min="8" max="8" width="62.875" style="36" customWidth="1"/>
     <col min="9" max="9" width="57.5" style="36" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="36"/>
+    <col min="10" max="16384" width="10.875" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" s="34" customFormat="1" ht="26" customHeight="1">
+    <row r="1" spans="2:14" s="34" customFormat="1" ht="26.1" customHeight="1">
       <c r="B1" s="133" t="s">
         <v>167</v>
       </c>
@@ -6681,7 +6713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="20" customHeight="1">
+    <row r="5" spans="2:14" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="105">
         <v>1</v>
       </c>
@@ -6706,7 +6738,7 @@
       <c r="I5" s="110"/>
       <c r="J5" s="38"/>
     </row>
-    <row r="6" spans="2:14" ht="20" customHeight="1">
+    <row r="6" spans="2:14" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="105">
         <v>2</v>
       </c>
@@ -6719,7 +6751,7 @@
       <c r="I6" s="110"/>
       <c r="J6" s="38"/>
     </row>
-    <row r="7" spans="2:14" ht="20" customHeight="1">
+    <row r="7" spans="2:14" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="105">
         <v>3</v>
       </c>
@@ -6732,7 +6764,7 @@
       <c r="I7" s="110"/>
       <c r="J7" s="38"/>
     </row>
-    <row r="8" spans="2:14" ht="20" customHeight="1">
+    <row r="8" spans="2:14" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="105">
         <v>4</v>
       </c>
@@ -6745,7 +6777,7 @@
       <c r="I8" s="110"/>
       <c r="J8" s="38"/>
     </row>
-    <row r="9" spans="2:14" ht="20" customHeight="1">
+    <row r="9" spans="2:14" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="105">
         <v>5</v>
       </c>
@@ -6758,7 +6790,7 @@
       <c r="I9" s="110"/>
       <c r="J9" s="38"/>
     </row>
-    <row r="10" spans="2:14" ht="20" customHeight="1">
+    <row r="10" spans="2:14" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="105">
         <v>6</v>
       </c>
@@ -6773,7 +6805,7 @@
       </c>
       <c r="J10" s="38"/>
     </row>
-    <row r="11" spans="2:14" ht="20" customHeight="1">
+    <row r="11" spans="2:14" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="105">
         <v>7</v>
       </c>
@@ -6786,7 +6818,7 @@
       <c r="I11" s="110"/>
       <c r="J11" s="38"/>
     </row>
-    <row r="12" spans="2:14" ht="20" customHeight="1">
+    <row r="12" spans="2:14" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="105">
         <v>8</v>
       </c>
@@ -6801,7 +6833,7 @@
       <c r="I12" s="110"/>
       <c r="J12" s="38"/>
     </row>
-    <row r="13" spans="2:14" ht="20" customHeight="1">
+    <row r="13" spans="2:14" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="105">
         <v>9</v>
       </c>
@@ -6816,7 +6848,7 @@
       </c>
       <c r="J13" s="38"/>
     </row>
-    <row r="14" spans="2:14" ht="20" customHeight="1">
+    <row r="14" spans="2:14" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="105">
         <v>10</v>
       </c>
@@ -6829,7 +6861,7 @@
       <c r="I14" s="110"/>
       <c r="J14" s="38"/>
     </row>
-    <row r="15" spans="2:14" ht="20" customHeight="1">
+    <row r="15" spans="2:14" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="105">
         <v>11</v>
       </c>
@@ -6842,7 +6874,7 @@
       <c r="I15" s="110"/>
       <c r="J15" s="38"/>
     </row>
-    <row r="16" spans="2:14" ht="20" customHeight="1">
+    <row r="16" spans="2:14" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="105">
         <v>12</v>
       </c>
@@ -6855,7 +6887,7 @@
       <c r="I16" s="110"/>
       <c r="J16" s="38"/>
     </row>
-    <row r="17" spans="2:10" ht="20" customHeight="1">
+    <row r="17" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B17" s="105">
         <v>13</v>
       </c>
@@ -6868,7 +6900,7 @@
       <c r="I17" s="110"/>
       <c r="J17" s="38"/>
     </row>
-    <row r="18" spans="2:10" ht="20" customHeight="1">
+    <row r="18" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B18" s="105">
         <v>14</v>
       </c>
@@ -6881,7 +6913,7 @@
       <c r="I18" s="110"/>
       <c r="J18" s="38"/>
     </row>
-    <row r="19" spans="2:10" ht="20" customHeight="1">
+    <row r="19" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B19" s="105">
         <v>15</v>
       </c>
@@ -6894,7 +6926,7 @@
       <c r="I19" s="110"/>
       <c r="J19" s="38"/>
     </row>
-    <row r="20" spans="2:10" ht="20" customHeight="1">
+    <row r="20" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="105">
         <v>16</v>
       </c>
@@ -6909,7 +6941,7 @@
       <c r="I20" s="110"/>
       <c r="J20" s="38"/>
     </row>
-    <row r="21" spans="2:10" ht="20" customHeight="1">
+    <row r="21" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="105">
         <v>17</v>
       </c>
@@ -6922,7 +6954,7 @@
       <c r="I21" s="110"/>
       <c r="J21" s="38"/>
     </row>
-    <row r="22" spans="2:10" ht="20" customHeight="1">
+    <row r="22" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="105">
         <v>18</v>
       </c>
@@ -6935,7 +6967,7 @@
       <c r="I22" s="110"/>
       <c r="J22" s="38"/>
     </row>
-    <row r="23" spans="2:10" ht="20" customHeight="1">
+    <row r="23" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B23" s="105">
         <v>19</v>
       </c>
@@ -6948,7 +6980,7 @@
       <c r="I23" s="110"/>
       <c r="J23" s="38"/>
     </row>
-    <row r="24" spans="2:10" ht="20" customHeight="1">
+    <row r="24" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B24" s="105">
         <v>20</v>
       </c>
@@ -6961,7 +6993,7 @@
       <c r="I24" s="110"/>
       <c r="J24" s="38"/>
     </row>
-    <row r="25" spans="2:10" ht="20" customHeight="1">
+    <row r="25" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B25" s="105">
         <v>21</v>
       </c>
@@ -6974,7 +7006,7 @@
       <c r="I25" s="110"/>
       <c r="J25" s="38"/>
     </row>
-    <row r="26" spans="2:10" ht="20" customHeight="1">
+    <row r="26" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B26" s="105">
         <v>22</v>
       </c>
@@ -6987,7 +7019,7 @@
       <c r="I26" s="110"/>
       <c r="J26" s="38"/>
     </row>
-    <row r="27" spans="2:10" ht="20" customHeight="1">
+    <row r="27" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B27" s="105">
         <v>23</v>
       </c>
@@ -7000,7 +7032,7 @@
       <c r="I27" s="110"/>
       <c r="J27" s="38"/>
     </row>
-    <row r="28" spans="2:10" ht="20" customHeight="1">
+    <row r="28" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B28" s="105">
         <v>24</v>
       </c>
@@ -7013,7 +7045,7 @@
       <c r="I28" s="110"/>
       <c r="J28" s="38"/>
     </row>
-    <row r="29" spans="2:10" ht="20" customHeight="1">
+    <row r="29" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B29" s="58"/>
       <c r="C29" s="65"/>
       <c r="D29" s="59"/>
@@ -7024,7 +7056,7 @@
       <c r="I29" s="61"/>
       <c r="J29" s="38"/>
     </row>
-    <row r="30" spans="2:10" ht="20" customHeight="1">
+    <row r="30" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B30" s="39"/>
       <c r="C30" s="64"/>
       <c r="D30" s="40"/>
@@ -7035,7 +7067,7 @@
       <c r="I30" s="61"/>
       <c r="J30" s="38"/>
     </row>
-    <row r="31" spans="2:10" ht="20" customHeight="1">
+    <row r="31" spans="2:10" ht="20.100000000000001" customHeight="1">
       <c r="B31" s="39"/>
       <c r="C31" s="64"/>
       <c r="D31" s="40"/>
@@ -7068,28 +7100,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A70" workbookViewId="0">
       <selection activeCell="L68" sqref="L68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="67"/>
-    <col min="2" max="2" width="17.83203125" style="67" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="67"/>
+    <col min="2" max="2" width="17.875" style="67" customWidth="1"/>
     <col min="3" max="3" width="15" style="67" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="67" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" style="67" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="67" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="67"/>
-    <col min="8" max="8" width="11.83203125" style="67" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="67" customWidth="1"/>
+    <col min="5" max="5" width="21.125" style="67" customWidth="1"/>
+    <col min="6" max="6" width="13.625" style="67" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="67"/>
+    <col min="8" max="8" width="11.875" style="67" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24" style="67" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.5" style="67" customWidth="1"/>
-    <col min="11" max="11" width="5.83203125" style="67" customWidth="1"/>
-    <col min="12" max="12" width="38.83203125" style="67" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="67"/>
+    <col min="11" max="11" width="5.875" style="67" customWidth="1"/>
+    <col min="12" max="12" width="38.875" style="67" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.875" style="67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20" customHeight="1">
+    <row r="1" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="66"/>
       <c r="B1" s="66"/>
       <c r="C1" s="66"/>
@@ -7106,7 +7138,7 @@
       <c r="N1" s="66"/>
       <c r="O1" s="66"/>
     </row>
-    <row r="2" spans="1:15" ht="20" customHeight="1">
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="68" t="s">
         <v>142</v>
       </c>
@@ -7127,7 +7159,7 @@
       <c r="N2" s="66"/>
       <c r="O2" s="66"/>
     </row>
-    <row r="3" spans="1:15" ht="20" customHeight="1">
+    <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="66"/>
       <c r="B3" s="69" t="s">
         <v>128</v>
@@ -7146,20 +7178,20 @@
       <c r="N3" s="66"/>
       <c r="O3" s="66"/>
     </row>
-    <row r="4" spans="1:15" ht="20" customHeight="1">
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="66"/>
       <c r="B4" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="218" t="s">
+      <c r="C4" s="220" t="s">
         <v>177</v>
       </c>
-      <c r="D4" s="219"/>
-      <c r="E4" s="219"/>
-      <c r="F4" s="219"/>
-      <c r="G4" s="219"/>
-      <c r="H4" s="219"/>
-      <c r="I4" s="220"/>
+      <c r="D4" s="230"/>
+      <c r="E4" s="230"/>
+      <c r="F4" s="230"/>
+      <c r="G4" s="230"/>
+      <c r="H4" s="230"/>
+      <c r="I4" s="219"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -7167,20 +7199,20 @@
       <c r="N4" s="66"/>
       <c r="O4" s="66"/>
     </row>
-    <row r="5" spans="1:15" ht="20" customHeight="1">
+    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="66"/>
       <c r="B5" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="218" t="s">
+      <c r="C5" s="220" t="s">
         <v>174</v>
       </c>
-      <c r="D5" s="219"/>
-      <c r="E5" s="219"/>
-      <c r="F5" s="219"/>
-      <c r="G5" s="219"/>
-      <c r="H5" s="219"/>
-      <c r="I5" s="220"/>
+      <c r="D5" s="230"/>
+      <c r="E5" s="230"/>
+      <c r="F5" s="230"/>
+      <c r="G5" s="230"/>
+      <c r="H5" s="230"/>
+      <c r="I5" s="219"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -7188,7 +7220,7 @@
       <c r="N5" s="66"/>
       <c r="O5" s="66"/>
     </row>
-    <row r="6" spans="1:15" ht="20" customHeight="1">
+    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="66"/>
       <c r="B6" s="70" t="s">
         <v>179</v>
@@ -7209,20 +7241,20 @@
       <c r="N6" s="66"/>
       <c r="O6" s="66"/>
     </row>
-    <row r="7" spans="1:15" ht="20" customHeight="1">
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="66"/>
       <c r="B7" s="70" t="s">
         <v>191</v>
       </c>
-      <c r="C7" s="218" t="s">
+      <c r="C7" s="220" t="s">
         <v>171</v>
       </c>
-      <c r="D7" s="219"/>
-      <c r="E7" s="219"/>
-      <c r="F7" s="219"/>
-      <c r="G7" s="219"/>
-      <c r="H7" s="219"/>
-      <c r="I7" s="220"/>
+      <c r="D7" s="230"/>
+      <c r="E7" s="230"/>
+      <c r="F7" s="230"/>
+      <c r="G7" s="230"/>
+      <c r="H7" s="230"/>
+      <c r="I7" s="219"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -7230,7 +7262,7 @@
       <c r="N7" s="66"/>
       <c r="O7" s="66"/>
     </row>
-    <row r="8" spans="1:15" ht="20" customHeight="1">
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="66"/>
       <c r="B8" s="70" t="s">
         <v>192</v>
@@ -7251,20 +7283,20 @@
       <c r="N8" s="66"/>
       <c r="O8" s="66"/>
     </row>
-    <row r="9" spans="1:15" ht="20" customHeight="1">
+    <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="66"/>
       <c r="B9" s="70" t="s">
         <v>225</v>
       </c>
-      <c r="C9" s="218" t="s">
+      <c r="C9" s="220" t="s">
         <v>226</v>
       </c>
-      <c r="D9" s="219"/>
-      <c r="E9" s="219"/>
-      <c r="F9" s="219"/>
-      <c r="G9" s="219"/>
-      <c r="H9" s="219"/>
-      <c r="I9" s="220"/>
+      <c r="D9" s="230"/>
+      <c r="E9" s="230"/>
+      <c r="F9" s="230"/>
+      <c r="G9" s="230"/>
+      <c r="H9" s="230"/>
+      <c r="I9" s="219"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -7272,7 +7304,7 @@
       <c r="N9" s="66"/>
       <c r="O9" s="66"/>
     </row>
-    <row r="10" spans="1:15" ht="20" customHeight="1">
+    <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="66"/>
       <c r="B10" s="66"/>
       <c r="C10" s="66"/>
@@ -7289,7 +7321,7 @@
       <c r="N10" s="66"/>
       <c r="O10" s="66"/>
     </row>
-    <row r="11" spans="1:15" ht="20" customHeight="1">
+    <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="66"/>
       <c r="B11" s="74" t="s">
         <v>190</v>
@@ -7308,7 +7340,7 @@
       <c r="N11" s="66"/>
       <c r="O11" s="66"/>
     </row>
-    <row r="12" spans="1:15" ht="20" customHeight="1">
+    <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="66"/>
       <c r="B12" s="74"/>
       <c r="C12" s="74"/>
@@ -7325,26 +7357,26 @@
       <c r="N12" s="66"/>
       <c r="O12" s="66"/>
     </row>
-    <row r="13" spans="1:15" ht="20" customHeight="1">
+    <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="227" t="s">
+      <c r="B13" s="226" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="228"/>
-      <c r="D13" s="228"/>
-      <c r="E13" s="228"/>
-      <c r="F13" s="228"/>
-      <c r="G13" s="228"/>
-      <c r="H13" s="228"/>
-      <c r="I13" s="228"/>
-      <c r="J13" s="228"/>
-      <c r="K13" s="228"/>
-      <c r="L13" s="229"/>
+      <c r="C13" s="227"/>
+      <c r="D13" s="227"/>
+      <c r="E13" s="227"/>
+      <c r="F13" s="227"/>
+      <c r="G13" s="227"/>
+      <c r="H13" s="227"/>
+      <c r="I13" s="227"/>
+      <c r="J13" s="227"/>
+      <c r="K13" s="227"/>
+      <c r="L13" s="228"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
     </row>
-    <row r="14" spans="1:15" ht="20" customHeight="1">
+    <row r="14" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="66"/>
       <c r="B14" s="75"/>
       <c r="C14" s="76" t="s">
@@ -7368,16 +7400,16 @@
       <c r="I14" s="76" t="s">
         <v>138</v>
       </c>
-      <c r="J14" s="221" t="s">
+      <c r="J14" s="235" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="221"/>
-      <c r="L14" s="221"/>
+      <c r="K14" s="235"/>
+      <c r="L14" s="235"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
     </row>
-    <row r="15" spans="1:15" ht="20" customHeight="1">
+    <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="66"/>
       <c r="B15" s="77"/>
       <c r="C15" s="78" t="s">
@@ -7401,16 +7433,16 @@
       <c r="I15" s="81" t="s">
         <v>184</v>
       </c>
-      <c r="J15" s="230" t="s">
+      <c r="J15" s="229" t="s">
         <v>185</v>
       </c>
-      <c r="K15" s="230"/>
-      <c r="L15" s="230"/>
+      <c r="K15" s="229"/>
+      <c r="L15" s="229"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
     </row>
-    <row r="16" spans="1:15" ht="20" customHeight="1">
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="66"/>
       <c r="B16" s="77"/>
       <c r="C16" s="78" t="s">
@@ -7434,16 +7466,16 @@
       <c r="I16" s="81" t="s">
         <v>188</v>
       </c>
-      <c r="J16" s="230" t="s">
+      <c r="J16" s="229" t="s">
         <v>189</v>
       </c>
-      <c r="K16" s="230"/>
-      <c r="L16" s="230"/>
+      <c r="K16" s="229"/>
+      <c r="L16" s="229"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
     </row>
-    <row r="17" spans="1:15" ht="20" customHeight="1">
+    <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="66"/>
       <c r="B17" s="77"/>
       <c r="C17" s="78" t="s">
@@ -7476,7 +7508,7 @@
       <c r="N17" s="66"/>
       <c r="O17" s="66"/>
     </row>
-    <row r="18" spans="1:15" ht="20" customHeight="1">
+    <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="66"/>
       <c r="B18" s="77"/>
       <c r="C18" s="78" t="s">
@@ -7500,16 +7532,16 @@
       <c r="I18" s="79" t="s">
         <v>197</v>
       </c>
-      <c r="J18" s="218" t="s">
+      <c r="J18" s="220" t="s">
         <v>200</v>
       </c>
-      <c r="K18" s="219"/>
-      <c r="L18" s="220"/>
+      <c r="K18" s="230"/>
+      <c r="L18" s="219"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
       <c r="O18" s="66"/>
     </row>
-    <row r="19" spans="1:15" ht="20" customHeight="1">
+    <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="66"/>
       <c r="B19" s="82"/>
       <c r="C19" s="78" t="s">
@@ -7533,16 +7565,16 @@
       <c r="I19" s="83" t="s">
         <v>204</v>
       </c>
-      <c r="J19" s="218" t="s">
+      <c r="J19" s="220" t="s">
         <v>205</v>
       </c>
-      <c r="K19" s="219"/>
-      <c r="L19" s="220"/>
+      <c r="K19" s="230"/>
+      <c r="L19" s="219"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
       <c r="O19" s="66"/>
     </row>
-    <row r="20" spans="1:15" ht="20" customHeight="1">
+    <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="66"/>
       <c r="B20" s="84"/>
       <c r="C20" s="85"/>
@@ -7559,7 +7591,7 @@
       <c r="N20" s="66"/>
       <c r="O20" s="66"/>
     </row>
-    <row r="21" spans="1:15" ht="20" customHeight="1">
+    <row r="21" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="66"/>
       <c r="B21" s="74" t="s">
         <v>223</v>
@@ -7578,7 +7610,7 @@
       <c r="N21" s="66"/>
       <c r="O21" s="66"/>
     </row>
-    <row r="22" spans="1:15" ht="20" customHeight="1">
+    <row r="22" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="66"/>
       <c r="B22" s="84"/>
       <c r="C22" s="84"/>
@@ -7595,7 +7627,7 @@
       <c r="N22" s="66"/>
       <c r="O22" s="66"/>
     </row>
-    <row r="23" spans="1:15" ht="20" customHeight="1">
+    <row r="23" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="66"/>
       <c r="B23" s="84"/>
       <c r="C23" s="84"/>
@@ -7612,7 +7644,7 @@
       <c r="N23" s="66"/>
       <c r="O23" s="66"/>
     </row>
-    <row r="24" spans="1:15" ht="20" customHeight="1">
+    <row r="24" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="66"/>
       <c r="B24" s="84"/>
       <c r="C24" s="84"/>
@@ -7629,7 +7661,7 @@
       <c r="N24" s="66"/>
       <c r="O24" s="66"/>
     </row>
-    <row r="25" spans="1:15" ht="20" customHeight="1">
+    <row r="25" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="66"/>
       <c r="B25" s="84"/>
       <c r="C25" s="84"/>
@@ -7646,7 +7678,7 @@
       <c r="N25" s="66"/>
       <c r="O25" s="66"/>
     </row>
-    <row r="26" spans="1:15" ht="20" customHeight="1">
+    <row r="26" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="66"/>
       <c r="B26" s="84"/>
       <c r="C26" s="84"/>
@@ -7663,7 +7695,7 @@
       <c r="N26" s="66"/>
       <c r="O26" s="66"/>
     </row>
-    <row r="27" spans="1:15" ht="20" customHeight="1">
+    <row r="27" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="66"/>
       <c r="B27" s="84"/>
       <c r="C27" s="84"/>
@@ -7680,7 +7712,7 @@
       <c r="N27" s="66"/>
       <c r="O27" s="66"/>
     </row>
-    <row r="28" spans="1:15" ht="20" customHeight="1">
+    <row r="28" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="66"/>
       <c r="B28" s="84"/>
       <c r="C28" s="84"/>
@@ -7697,7 +7729,7 @@
       <c r="N28" s="66"/>
       <c r="O28" s="66"/>
     </row>
-    <row r="29" spans="1:15" s="89" customFormat="1" ht="20" customHeight="1">
+    <row r="29" spans="1:15" s="89" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="69"/>
       <c r="B29" s="231" t="s">
         <v>193</v>
@@ -7716,14 +7748,14 @@
       <c r="N29" s="69"/>
       <c r="O29" s="69"/>
     </row>
-    <row r="30" spans="1:15" s="91" customFormat="1" ht="20" customHeight="1">
+    <row r="30" spans="1:15" s="91" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="90"/>
-      <c r="B30" s="224" t="s">
+      <c r="B30" s="223" t="s">
         <v>133</v>
       </c>
-      <c r="C30" s="225"/>
-      <c r="D30" s="225"/>
-      <c r="E30" s="226"/>
+      <c r="C30" s="224"/>
+      <c r="D30" s="224"/>
+      <c r="E30" s="225"/>
       <c r="F30" s="76" t="s">
         <v>132</v>
       </c>
@@ -7749,7 +7781,7 @@
       <c r="N30" s="90"/>
       <c r="O30" s="90"/>
     </row>
-    <row r="31" spans="1:15" ht="20" customHeight="1">
+    <row r="31" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="66"/>
       <c r="B31" s="92" t="s">
         <v>147</v>
@@ -7780,7 +7812,7 @@
       <c r="N31" s="66"/>
       <c r="O31" s="66"/>
     </row>
-    <row r="32" spans="1:15" ht="20" customHeight="1">
+    <row r="32" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="66"/>
       <c r="B32" s="92"/>
       <c r="C32" s="95" t="s">
@@ -7811,14 +7843,14 @@
       <c r="N32" s="66"/>
       <c r="O32" s="66"/>
     </row>
-    <row r="33" spans="1:15" ht="20" customHeight="1">
+    <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="66"/>
       <c r="B33" s="92"/>
       <c r="C33" s="97"/>
-      <c r="D33" s="218" t="s">
+      <c r="D33" s="220" t="s">
         <v>211</v>
       </c>
-      <c r="E33" s="220"/>
+      <c r="E33" s="219"/>
       <c r="F33" s="78" t="s">
         <v>148</v>
       </c>
@@ -7844,14 +7876,14 @@
       <c r="N33" s="66"/>
       <c r="O33" s="66"/>
     </row>
-    <row r="34" spans="1:15" ht="20" customHeight="1">
+    <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="66"/>
       <c r="B34" s="92"/>
       <c r="C34" s="99"/>
-      <c r="D34" s="218" t="s">
+      <c r="D34" s="220" t="s">
         <v>212</v>
       </c>
-      <c r="E34" s="220"/>
+      <c r="E34" s="219"/>
       <c r="F34" s="78" t="s">
         <v>213</v>
       </c>
@@ -7877,7 +7909,7 @@
       <c r="N34" s="66"/>
       <c r="O34" s="66"/>
     </row>
-    <row r="35" spans="1:15" ht="20" customHeight="1">
+    <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="66"/>
       <c r="B35" s="92"/>
       <c r="C35" s="95" t="s">
@@ -7910,14 +7942,14 @@
       <c r="N35" s="66"/>
       <c r="O35" s="66"/>
     </row>
-    <row r="36" spans="1:15" ht="20" customHeight="1">
+    <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="66"/>
       <c r="B36" s="92"/>
       <c r="C36" s="102"/>
-      <c r="D36" s="218" t="s">
+      <c r="D36" s="220" t="s">
         <v>215</v>
       </c>
-      <c r="E36" s="220"/>
+      <c r="E36" s="219"/>
       <c r="F36" s="78" t="s">
         <v>217</v>
       </c>
@@ -7943,14 +7975,14 @@
       <c r="N36" s="66"/>
       <c r="O36" s="66"/>
     </row>
-    <row r="37" spans="1:15" ht="20" customHeight="1">
+    <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="66"/>
       <c r="B37" s="92"/>
       <c r="C37" s="102"/>
-      <c r="D37" s="222" t="s">
+      <c r="D37" s="221" t="s">
         <v>181</v>
       </c>
-      <c r="E37" s="223"/>
+      <c r="E37" s="222"/>
       <c r="F37" s="78" t="s">
         <v>182</v>
       </c>
@@ -7976,14 +8008,14 @@
       <c r="N37" s="66"/>
       <c r="O37" s="66"/>
     </row>
-    <row r="38" spans="1:15" ht="20" customHeight="1">
+    <row r="38" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="66"/>
       <c r="B38" s="92"/>
       <c r="C38" s="97"/>
-      <c r="D38" s="218" t="s">
+      <c r="D38" s="220" t="s">
         <v>201</v>
       </c>
-      <c r="E38" s="220"/>
+      <c r="E38" s="219"/>
       <c r="F38" s="78" t="s">
         <v>194</v>
       </c>
@@ -8009,7 +8041,7 @@
       <c r="N38" s="66"/>
       <c r="O38" s="66"/>
     </row>
-    <row r="39" spans="1:15" ht="20" customHeight="1">
+    <row r="39" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="66"/>
       <c r="B39" s="92"/>
       <c r="C39" s="97"/>
@@ -8042,7 +8074,7 @@
       <c r="N39" s="66"/>
       <c r="O39" s="66"/>
     </row>
-    <row r="40" spans="1:15" ht="20" customHeight="1">
+    <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="66"/>
       <c r="B40" s="92"/>
       <c r="C40" s="97"/>
@@ -8075,14 +8107,14 @@
       <c r="N40" s="66"/>
       <c r="O40" s="66"/>
     </row>
-    <row r="41" spans="1:15" ht="20" customHeight="1">
+    <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="66"/>
       <c r="B41" s="98"/>
       <c r="C41" s="99"/>
-      <c r="D41" s="218" t="s">
+      <c r="D41" s="220" t="s">
         <v>149</v>
       </c>
-      <c r="E41" s="220"/>
+      <c r="E41" s="219"/>
       <c r="F41" s="78" t="s">
         <v>150</v>
       </c>
@@ -8108,7 +8140,7 @@
       <c r="N41" s="66"/>
       <c r="O41" s="66"/>
     </row>
-    <row r="42" spans="1:15" ht="20" customHeight="1">
+    <row r="42" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="66"/>
       <c r="B42" s="84"/>
       <c r="C42" s="93"/>
@@ -8125,7 +8157,7 @@
       <c r="N42" s="66"/>
       <c r="O42" s="66"/>
     </row>
-    <row r="43" spans="1:15" ht="20" customHeight="1">
+    <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="66"/>
       <c r="B43" s="33" t="s">
         <v>228</v>
@@ -8144,7 +8176,7 @@
       <c r="N43" s="66"/>
       <c r="O43" s="66"/>
     </row>
-    <row r="44" spans="1:15" ht="20" customHeight="1">
+    <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="66"/>
       <c r="B44" s="84"/>
       <c r="C44" s="93"/>
@@ -8161,7 +8193,7 @@
       <c r="N44" s="66"/>
       <c r="O44" s="66"/>
     </row>
-    <row r="45" spans="1:15" ht="20" customHeight="1">
+    <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="66"/>
       <c r="B45" s="84"/>
       <c r="C45" s="93"/>
@@ -8178,7 +8210,7 @@
       <c r="N45" s="66"/>
       <c r="O45" s="66"/>
     </row>
-    <row r="46" spans="1:15" ht="20" customHeight="1">
+    <row r="46" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="66"/>
       <c r="B46" s="84"/>
       <c r="C46" s="93"/>
@@ -8195,7 +8227,7 @@
       <c r="N46" s="66"/>
       <c r="O46" s="66"/>
     </row>
-    <row r="47" spans="1:15" ht="20" customHeight="1">
+    <row r="47" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="66"/>
       <c r="B47" s="84"/>
       <c r="C47" s="93"/>
@@ -8212,7 +8244,7 @@
       <c r="N47" s="66"/>
       <c r="O47" s="66"/>
     </row>
-    <row r="48" spans="1:15" ht="20" customHeight="1">
+    <row r="48" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="66"/>
       <c r="B48" s="84"/>
       <c r="C48" s="93"/>
@@ -8229,7 +8261,7 @@
       <c r="N48" s="66"/>
       <c r="O48" s="66"/>
     </row>
-    <row r="49" spans="1:15" ht="20" customHeight="1">
+    <row r="49" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="66"/>
       <c r="B49" s="84"/>
       <c r="C49" s="93"/>
@@ -8246,7 +8278,7 @@
       <c r="N49" s="66"/>
       <c r="O49" s="66"/>
     </row>
-    <row r="50" spans="1:15" ht="20" customHeight="1">
+    <row r="50" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="66"/>
       <c r="B50" s="84"/>
       <c r="C50" s="93"/>
@@ -8263,7 +8295,7 @@
       <c r="N50" s="66"/>
       <c r="O50" s="66"/>
     </row>
-    <row r="51" spans="1:15" ht="20" customHeight="1">
+    <row r="51" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="66"/>
       <c r="B51" s="84"/>
       <c r="C51" s="93"/>
@@ -8280,7 +8312,7 @@
       <c r="N51" s="66"/>
       <c r="O51" s="66"/>
     </row>
-    <row r="52" spans="1:15" ht="20" customHeight="1">
+    <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="66"/>
       <c r="B52" s="84"/>
       <c r="C52" s="93"/>
@@ -8297,7 +8329,7 @@
       <c r="N52" s="66"/>
       <c r="O52" s="66"/>
     </row>
-    <row r="53" spans="1:15" ht="20" customHeight="1">
+    <row r="53" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="66"/>
       <c r="B53" s="84"/>
       <c r="C53" s="93"/>
@@ -8314,7 +8346,7 @@
       <c r="N53" s="66"/>
       <c r="O53" s="66"/>
     </row>
-    <row r="54" spans="1:15" ht="20" customHeight="1">
+    <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="66"/>
       <c r="B54" s="84"/>
       <c r="C54" s="93"/>
@@ -8331,7 +8363,7 @@
       <c r="N54" s="66"/>
       <c r="O54" s="66"/>
     </row>
-    <row r="55" spans="1:15" ht="20" customHeight="1">
+    <row r="55" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="66"/>
       <c r="B55" s="84"/>
       <c r="C55" s="93"/>
@@ -8348,7 +8380,7 @@
       <c r="N55" s="66"/>
       <c r="O55" s="66"/>
     </row>
-    <row r="56" spans="1:15" ht="20" customHeight="1">
+    <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="66"/>
       <c r="B56" s="84"/>
       <c r="C56" s="93"/>
@@ -8365,7 +8397,7 @@
       <c r="N56" s="66"/>
       <c r="O56" s="66"/>
     </row>
-    <row r="57" spans="1:15" ht="20" customHeight="1">
+    <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="66"/>
       <c r="B57" s="84"/>
       <c r="C57" s="93"/>
@@ -8382,7 +8414,7 @@
       <c r="N57" s="66"/>
       <c r="O57" s="66"/>
     </row>
-    <row r="58" spans="1:15" ht="20" customHeight="1">
+    <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="66"/>
       <c r="B58" s="84"/>
       <c r="C58" s="93"/>
@@ -8399,7 +8431,7 @@
       <c r="N58" s="66"/>
       <c r="O58" s="66"/>
     </row>
-    <row r="59" spans="1:15" ht="20" customHeight="1">
+    <row r="59" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="66"/>
       <c r="B59" s="66"/>
       <c r="C59" s="66"/>
@@ -8416,7 +8448,7 @@
       <c r="N59" s="66"/>
       <c r="O59" s="66"/>
     </row>
-    <row r="60" spans="1:15" ht="20" customHeight="1">
+    <row r="60" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="66"/>
       <c r="B60" s="232" t="s">
         <v>152</v>
@@ -8437,14 +8469,14 @@
       <c r="N60" s="66"/>
       <c r="O60" s="66"/>
     </row>
-    <row r="61" spans="1:15" s="91" customFormat="1" ht="20" customHeight="1">
+    <row r="61" spans="1:15" s="91" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="90"/>
-      <c r="B61" s="224" t="s">
+      <c r="B61" s="223" t="s">
         <v>133</v>
       </c>
-      <c r="C61" s="225"/>
-      <c r="D61" s="225"/>
-      <c r="E61" s="226"/>
+      <c r="C61" s="224"/>
+      <c r="D61" s="224"/>
+      <c r="E61" s="225"/>
       <c r="F61" s="76" t="s">
         <v>132</v>
       </c>
@@ -8470,7 +8502,7 @@
       <c r="N61" s="90"/>
       <c r="O61" s="90"/>
     </row>
-    <row r="62" spans="1:15" ht="20" customHeight="1">
+    <row r="62" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="66"/>
       <c r="B62" s="92" t="s">
         <v>147</v>
@@ -8501,7 +8533,7 @@
       <c r="N62" s="66"/>
       <c r="O62" s="66"/>
     </row>
-    <row r="63" spans="1:15" ht="20" customHeight="1">
+    <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="66"/>
       <c r="B63" s="92"/>
       <c r="C63" s="95" t="s">
@@ -8532,14 +8564,14 @@
       <c r="N63" s="66"/>
       <c r="O63" s="66"/>
     </row>
-    <row r="64" spans="1:15" ht="20" customHeight="1">
+    <row r="64" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="66"/>
       <c r="B64" s="92"/>
       <c r="C64" s="97"/>
-      <c r="D64" s="233" t="s">
+      <c r="D64" s="218" t="s">
         <v>211</v>
       </c>
-      <c r="E64" s="220"/>
+      <c r="E64" s="219"/>
       <c r="F64" s="78" t="s">
         <v>148</v>
       </c>
@@ -8565,14 +8597,14 @@
       <c r="N64" s="66"/>
       <c r="O64" s="66"/>
     </row>
-    <row r="65" spans="1:15" ht="20" customHeight="1">
+    <row r="65" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="66"/>
       <c r="B65" s="92"/>
       <c r="C65" s="97"/>
-      <c r="D65" s="233" t="s">
+      <c r="D65" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="E65" s="234"/>
+      <c r="E65" s="233"/>
       <c r="F65" s="151" t="s">
         <v>237</v>
       </c>
@@ -8598,14 +8630,14 @@
       <c r="N65" s="66"/>
       <c r="O65" s="66"/>
     </row>
-    <row r="66" spans="1:15" ht="20" customHeight="1">
+    <row r="66" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="66"/>
       <c r="B66" s="92"/>
       <c r="C66" s="97"/>
-      <c r="D66" s="235" t="s">
+      <c r="D66" s="234" t="s">
         <v>242</v>
       </c>
-      <c r="E66" s="234"/>
+      <c r="E66" s="233"/>
       <c r="F66" s="151" t="s">
         <v>240</v>
       </c>
@@ -8631,7 +8663,7 @@
       <c r="N66" s="66"/>
       <c r="O66" s="66"/>
     </row>
-    <row r="67" spans="1:15" ht="20" customHeight="1">
+    <row r="67" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="66"/>
       <c r="B67" s="92"/>
       <c r="C67" s="102"/>
@@ -8664,7 +8696,7 @@
       <c r="N67" s="66"/>
       <c r="O67" s="66"/>
     </row>
-    <row r="68" spans="1:15" ht="20" customHeight="1">
+    <row r="68" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="66"/>
       <c r="B68" s="92"/>
       <c r="C68" s="95" t="s">
@@ -8695,12 +8727,12 @@
       <c r="N68" s="66"/>
       <c r="O68" s="66"/>
     </row>
-    <row r="69" spans="1:15" ht="20" customHeight="1">
+    <row r="69" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="66"/>
       <c r="B69" s="98"/>
       <c r="C69" s="99"/>
-      <c r="D69" s="218"/>
-      <c r="E69" s="220"/>
+      <c r="D69" s="220"/>
+      <c r="E69" s="219"/>
       <c r="F69" s="78"/>
       <c r="G69" s="80"/>
       <c r="H69" s="80"/>
@@ -8712,7 +8744,7 @@
       <c r="N69" s="66"/>
       <c r="O69" s="66"/>
     </row>
-    <row r="70" spans="1:15" ht="20" customHeight="1">
+    <row r="70" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="66"/>
       <c r="B70" s="84"/>
       <c r="C70" s="93"/>
@@ -8729,7 +8761,7 @@
       <c r="N70" s="66"/>
       <c r="O70" s="66"/>
     </row>
-    <row r="71" spans="1:15" ht="20" customHeight="1">
+    <row r="71" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="66"/>
       <c r="B71" s="74" t="s">
         <v>224</v>
@@ -8748,7 +8780,7 @@
       <c r="N71" s="66"/>
       <c r="O71" s="66"/>
     </row>
-    <row r="72" spans="1:15" ht="20" customHeight="1">
+    <row r="72" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A72" s="66"/>
       <c r="B72" s="66"/>
       <c r="C72" s="66"/>
@@ -8765,7 +8797,7 @@
       <c r="N72" s="66"/>
       <c r="O72" s="66"/>
     </row>
-    <row r="73" spans="1:15" ht="20" customHeight="1">
+    <row r="73" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A73" s="66"/>
       <c r="B73" s="66"/>
       <c r="C73" s="66"/>
@@ -8782,7 +8814,7 @@
       <c r="N73" s="66"/>
       <c r="O73" s="66"/>
     </row>
-    <row r="74" spans="1:15" ht="20" customHeight="1">
+    <row r="74" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A74" s="66"/>
       <c r="B74" s="66"/>
       <c r="C74" s="66"/>
@@ -8799,7 +8831,7 @@
       <c r="N74" s="66"/>
       <c r="O74" s="66"/>
     </row>
-    <row r="75" spans="1:15" ht="20" customHeight="1">
+    <row r="75" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A75" s="66"/>
       <c r="B75" s="66"/>
       <c r="C75" s="66"/>
@@ -8816,7 +8848,7 @@
       <c r="N75" s="66"/>
       <c r="O75" s="66"/>
     </row>
-    <row r="76" spans="1:15" ht="20" customHeight="1">
+    <row r="76" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A76" s="66"/>
       <c r="B76" s="66"/>
       <c r="C76" s="66"/>
@@ -8833,7 +8865,7 @@
       <c r="N76" s="66"/>
       <c r="O76" s="66"/>
     </row>
-    <row r="77" spans="1:15" ht="20" customHeight="1">
+    <row r="77" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A77" s="66"/>
       <c r="B77" s="66"/>
       <c r="C77" s="66"/>
@@ -8850,7 +8882,7 @@
       <c r="N77" s="66"/>
       <c r="O77" s="66"/>
     </row>
-    <row r="78" spans="1:15" ht="20" customHeight="1">
+    <row r="78" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A78" s="66"/>
       <c r="B78" s="66"/>
       <c r="C78" s="66"/>
@@ -8867,7 +8899,7 @@
       <c r="N78" s="66"/>
       <c r="O78" s="66"/>
     </row>
-    <row r="79" spans="1:15" ht="20" customHeight="1">
+    <row r="79" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A79" s="66"/>
       <c r="B79" s="66"/>
       <c r="C79" s="66"/>
@@ -8884,7 +8916,7 @@
       <c r="N79" s="66"/>
       <c r="O79" s="66"/>
     </row>
-    <row r="80" spans="1:15" ht="20" customHeight="1">
+    <row r="80" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A80" s="66"/>
       <c r="B80" s="66"/>
       <c r="C80" s="66"/>
@@ -8901,7 +8933,7 @@
       <c r="N80" s="66"/>
       <c r="O80" s="66"/>
     </row>
-    <row r="81" spans="1:15" ht="20" customHeight="1">
+    <row r="81" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A81" s="66"/>
       <c r="B81" s="66"/>
       <c r="C81" s="66"/>
@@ -8918,7 +8950,7 @@
       <c r="N81" s="66"/>
       <c r="O81" s="66"/>
     </row>
-    <row r="82" spans="1:15" ht="20" customHeight="1">
+    <row r="82" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A82" s="66"/>
       <c r="B82" s="66"/>
       <c r="C82" s="66"/>
@@ -8935,7 +8967,7 @@
       <c r="N82" s="66"/>
       <c r="O82" s="66"/>
     </row>
-    <row r="83" spans="1:15" ht="20" customHeight="1">
+    <row r="83" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A83" s="66"/>
       <c r="B83" s="66"/>
       <c r="C83" s="66"/>
@@ -8952,7 +8984,7 @@
       <c r="N83" s="66"/>
       <c r="O83" s="66"/>
     </row>
-    <row r="84" spans="1:15" ht="20" customHeight="1">
+    <row r="84" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A84" s="66"/>
       <c r="B84" s="66"/>
       <c r="C84" s="66"/>
@@ -8969,7 +9001,7 @@
       <c r="N84" s="66"/>
       <c r="O84" s="66"/>
     </row>
-    <row r="85" spans="1:15" ht="20" customHeight="1">
+    <row r="85" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A85" s="66"/>
       <c r="B85" s="66"/>
       <c r="C85" s="66"/>
@@ -8986,7 +9018,7 @@
       <c r="N85" s="66"/>
       <c r="O85" s="66"/>
     </row>
-    <row r="86" spans="1:15" ht="20" customHeight="1">
+    <row r="86" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A86" s="66"/>
       <c r="B86" s="66"/>
       <c r="C86" s="66"/>
@@ -9003,7 +9035,7 @@
       <c r="N86" s="66"/>
       <c r="O86" s="66"/>
     </row>
-    <row r="87" spans="1:15" ht="20" customHeight="1">
+    <row r="87" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A87" s="66"/>
       <c r="B87" s="66"/>
       <c r="C87" s="66"/>
@@ -9020,7 +9052,7 @@
       <c r="N87" s="66"/>
       <c r="O87" s="66"/>
     </row>
-    <row r="88" spans="1:15" ht="20" customHeight="1">
+    <row r="88" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A88" s="66"/>
       <c r="B88" s="66"/>
       <c r="C88" s="66"/>
@@ -9037,7 +9069,7 @@
       <c r="N88" s="66"/>
       <c r="O88" s="66"/>
     </row>
-    <row r="89" spans="1:15" ht="20" customHeight="1">
+    <row r="89" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A89" s="66"/>
       <c r="B89" s="66"/>
       <c r="C89" s="66"/>
@@ -9054,7 +9086,7 @@
       <c r="N89" s="66"/>
       <c r="O89" s="66"/>
     </row>
-    <row r="90" spans="1:15" ht="20" customHeight="1">
+    <row r="90" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A90" s="66"/>
       <c r="B90" s="66"/>
       <c r="C90" s="66"/>
@@ -9071,7 +9103,7 @@
       <c r="N90" s="66"/>
       <c r="O90" s="66"/>
     </row>
-    <row r="91" spans="1:15" ht="20" customHeight="1">
+    <row r="91" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A91" s="101"/>
       <c r="B91" s="101"/>
       <c r="C91" s="101"/>
@@ -9090,12 +9122,11 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="J14:L14"/>
     <mergeCell ref="D69:E69"/>
     <mergeCell ref="B13:L13"/>
     <mergeCell ref="B30:E30"/>
@@ -9109,11 +9140,12 @@
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D65:E65"/>
     <mergeCell ref="D66:E66"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="B61:E61"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>

--- a/doc/backend/api/TRN-MiniBlog_API-Specification_TENHO.xlsx
+++ b/doc/backend/api/TRN-MiniBlog_API-Specification_TENHO.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="265">
   <si>
     <t>Description</t>
   </si>
@@ -485,14 +485,6 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>Token</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
-    <t>token</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <t>String</t>
     <phoneticPr fontId="14"/>
   </si>
@@ -505,10 +497,6 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>Number</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="14"/>
   </si>
@@ -524,18 +512,12 @@
     <t>Common JSON format</t>
   </si>
   <si>
-    <t>10/21/2014</t>
-  </si>
-  <si>
     <t>Mini Comment System</t>
   </si>
   <si>
     <t>Sample system for web training</t>
   </si>
   <si>
-    <t>PHP Training</t>
-  </si>
-  <si>
     <t>Web API Specification</t>
   </si>
   <si>
@@ -566,9 +548,6 @@
     <t>Sample URI</t>
   </si>
   <si>
-    <t>POST /v1/users</t>
-  </si>
-  <si>
     <t>Create new user account.</t>
   </si>
   <si>
@@ -578,18 +557,9 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Create user</t>
-  </si>
-  <si>
-    <t>/v1/users</t>
-  </si>
-  <si>
     <t>URL</t>
   </si>
   <si>
-    <t>http://{domain}/v1/users</t>
-  </si>
-  <si>
     <t>User name</t>
   </si>
   <si>
@@ -599,9 +569,6 @@
     <t>String</t>
   </si>
   <si>
-    <t>truong.vu</t>
-  </si>
-  <si>
     <t>Login user name.</t>
   </si>
   <si>
@@ -611,12 +578,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>abcd1234</t>
-  </si>
-  <si>
-    <t>Will be encrypted when save to database.</t>
-  </si>
-  <si>
     <t>1.2 Request parameters</t>
   </si>
   <si>
@@ -635,12 +596,6 @@
     <t>lastname</t>
   </si>
   <si>
-    <t>Vu</t>
-  </si>
-  <si>
-    <t>Truong</t>
-  </si>
-  <si>
     <t>First name.</t>
   </si>
   <si>
@@ -659,9 +614,6 @@
     <t>email</t>
   </si>
   <si>
-    <t>truong.vu@mulodo.com</t>
-  </si>
-  <si>
     <t>User email address.</t>
   </si>
   <si>
@@ -671,15 +623,9 @@
     <t>meta</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
     <t>Meta</t>
   </si>
   <si>
-    <t>Data</t>
-  </si>
-  <si>
     <t>Code</t>
   </si>
   <si>
@@ -692,30 +638,6 @@
     <t>Additional message.</t>
   </si>
   <si>
-    <t>User ID</t>
-  </si>
-  <si>
-    <t>User system ID.</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>Login username.</t>
-  </si>
-  <si>
-    <t>User's first name.</t>
-  </si>
-  <si>
-    <t>User's last name.</t>
-  </si>
-  <si>
-    <t>Access token.</t>
-  </si>
-  <si>
-    <t>Data section.</t>
-  </si>
-  <si>
     <t>Sample JSON request</t>
   </si>
   <si>
@@ -723,9 +645,6 @@
   </si>
   <si>
     <t>Encrypt</t>
-  </si>
-  <si>
-    <t>application/x-www-form-urlencoded</t>
   </si>
   <si>
     <t>Descritption</t>
@@ -745,9 +664,6 @@
     </r>
   </si>
   <si>
-    <t>GET /v1/users/search?name=xxx&amp;email=zzz</t>
-  </si>
-  <si>
     <t>GET /v1/articles/search?keyword=xxx</t>
   </si>
   <si>
@@ -794,27 +710,6 @@
   </si>
   <si>
     <t>All error messages.</t>
-  </si>
-  <si>
-    <r>
-      <t>User's e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>mail address</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -869,12 +764,154 @@
   <si>
     <t>Wrong username or password</t>
   </si>
+  <si>
+    <t>No result</t>
+  </si>
+  <si>
+    <t>No user has found</t>
+  </si>
+  <si>
+    <t>ChangePassword</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>Change current password.</t>
+  </si>
+  <si>
+    <t>/UserBlog/Register</t>
+  </si>
+  <si>
+    <t>/UserBlog/ChangePassword</t>
+  </si>
+  <si>
+    <t>POST /rest/UserBlog/Register</t>
+  </si>
+  <si>
+    <t>PUT /rest/UserBlog/ChangePassword</t>
+  </si>
+  <si>
+    <t>Update Info</t>
+  </si>
+  <si>
+    <t>/UserBlog/Update</t>
+  </si>
+  <si>
+    <t>PUT /rest/UserBlog/Update</t>
+  </si>
+  <si>
+    <t>Update new user's info</t>
+  </si>
+  <si>
+    <t>Get User's Info</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>/UserBlog/Info/{id}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GET </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/rest/UserBlog/Info/{id}</t>
+    </r>
+  </si>
+  <si>
+    <t>GET /rest/UserBlog/Info/00</t>
+  </si>
+  <si>
+    <t>Get User's info by id</t>
+  </si>
+  <si>
+    <t>Login User</t>
+  </si>
+  <si>
+    <t>Register User</t>
+  </si>
+  <si>
+    <t>/UserBlog/Login</t>
+  </si>
+  <si>
+    <t>POST /rest/UserBlog/Login</t>
+  </si>
+  <si>
+    <t>Search User by name</t>
+  </si>
+  <si>
+    <t>/UserBlog/Search/{name}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">GET </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/rest/UserBlog/Search/{name}</t>
+    </r>
+  </si>
+  <si>
+    <t>Search Users by name</t>
+  </si>
+  <si>
+    <t>Register new user account.</t>
+  </si>
+  <si>
+    <t>http://{domain}/rest/UserBlog/Register</t>
+  </si>
+  <si>
+    <t>application/json</t>
+  </si>
+  <si>
+    <t>¤</t>
+  </si>
+  <si>
+    <t>Birthday</t>
+  </si>
+  <si>
+    <t>birthaday</t>
+  </si>
+  <si>
+    <t>master</t>
+  </si>
+  <si>
+    <t>111222</t>
+  </si>
+  <si>
+    <t>Nha</t>
+  </si>
+  <si>
+    <t>Tran</t>
+  </si>
+  <si>
+    <t>mail@xyz.com</t>
+  </si>
+  <si>
+    <t>Java Training</t>
+  </si>
+  <si>
+    <t>02/27/2015</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="36">
+  <fonts count="37">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1053,13 +1090,6 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Arial"/>
@@ -1084,6 +1114,18 @@
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1742,7 +1784,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="236">
+  <cellXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1934,7 +1976,6 @@
     </xf>
     <xf numFmtId="49" fontId="29" fillId="2" borderId="1" xfId="280" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="280" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1959,10 +2000,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2011,10 +2048,10 @@
     <xf numFmtId="49" fontId="13" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2029,19 +2066,19 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2050,7 +2087,7 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2060,46 +2097,37 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="243" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="34" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2110,51 +2138,61 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -2186,16 +2224,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -2223,25 +2251,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="4" borderId="10" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -2250,37 +2259,55 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="6" borderId="10" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="12" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="243" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2313,39 +2340,28 @@
     <xf numFmtId="49" fontId="13" fillId="8" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2354,8 +2370,49 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="280" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="11" xfId="242" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="29" fillId="6" borderId="11" xfId="243" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="411">
@@ -3263,15 +3320,6 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>  "data": null</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
             <a:t>}</a:t>
           </a:r>
         </a:p>
@@ -3288,13 +3336,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>16329</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>154668</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1442811</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>86632</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3355,7 +3403,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>POST /v1/users HTTP/1.1</a:t>
+            <a:t>POST /rest/UserBlog/Register HTTP/1.1</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3380,7 +3428,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>Content-Type:  application/x-www-form-urlencoded</a:t>
+            <a:t>Content-Type:  application/json</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3404,7 +3452,25 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>username=truong.vu&amp;password=abcd1234&amp;firstname=Vu&amp;lastname=Truong&amp;email=truong.vu%40mulodo.com</a:t>
+            <a:t>{  "id" : "13",    "Username": "master",    "Firstname": "Nha",    "Lastname": "Tran", 	"Password": "111222",</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>  	"Email": "mail@xyz.com", "Gender": "Male","Birthday": "09-01-1989"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>}</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0">
             <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
@@ -3419,14 +3485,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>16329</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>61686</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1445079</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3435,8 +3501,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="841829" y="10729686"/>
-          <a:ext cx="9582150" cy="3608614"/>
+          <a:off x="845004" y="9224736"/>
+          <a:ext cx="9280071" cy="2014764"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3564,230 +3630,18 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>      "description": "User account was created successfully.",</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>      "message": "Account created success!"</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>  }</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>  "data":</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>  </a:t>
+            <a:t>      "message": "</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>{</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>      </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>"user_id":10,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
+            <a:rPr lang="en-GB" sz="1100" smtClean="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>      "username":"vutruong",</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" b="0">
-            <a:effectLst/>
-            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>      "firstname":"Vu",</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-GB" b="0">
-            <a:effectLst/>
-            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>      "lastname":"Truong",</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="sk-SK" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>      "email":"truong.vu@mulodo.com",</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0">
-            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>      "token":"xxxxxx"</a:t>
+            <a:t>New user has created!!!"</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0">
             <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
@@ -3800,7 +3654,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>  }</a:t>
+            <a:t>  </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3820,13 +3674,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2267</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>56696</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>1428749</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3836,8 +3690,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="827767" y="17328696"/>
-          <a:ext cx="9579882" cy="3727904"/>
+          <a:off x="830942" y="15658646"/>
+          <a:ext cx="9579882" cy="3886654"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3887,7 +3741,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>HTTP/1.1 200</a:t>
+            <a:t>HTTP/1.1 1001</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
@@ -3974,8 +3828,37 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>      "messages": </a:t>
+            <a:t>      "messages":</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t> "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Validate Error!!!</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t>"</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:r>
@@ -3983,109 +3866,7 @@
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
-            <a:t>      [</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>        {</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>	message:"Username is required."</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>        </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>},</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>        </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>{</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>	message:"Password is required."</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>        </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>}</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>      ]</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>  },</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0">
-              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
-            </a:rPr>
-            <a:t>  "data":null</a:t>
+            <a:t>  }</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4097,10 +3878,324 @@
             <a:t>}</a:t>
           </a:r>
         </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>HTTP/1.1 2001</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> OK</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Content-Type: application/json</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{ </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  "meta":</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      "code":2001,</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      "description":"User</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> had existed in database</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>.",</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>      "messages":</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" smtClean="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Username has already exist!!!</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>"</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>  },</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0">
+            <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1343025</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5943600" y="4843462"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4429,7 +4524,7 @@
   <dimension ref="A1:AD38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X10" sqref="X10:AC10"/>
+      <selection activeCell="B9" sqref="B9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
@@ -4440,297 +4535,297 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" s="43" customFormat="1" ht="15.75">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="154" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="191"/>
-      <c r="D1" s="192" t="s">
+      <c r="B1" s="155"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="157" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="193"/>
-      <c r="F1" s="193"/>
-      <c r="G1" s="193"/>
-      <c r="H1" s="193"/>
-      <c r="I1" s="193"/>
-      <c r="J1" s="193"/>
-      <c r="K1" s="197" t="s">
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="159" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="198"/>
-      <c r="M1" s="199"/>
-      <c r="N1" s="179" t="s">
+      <c r="L1" s="160"/>
+      <c r="M1" s="161"/>
+      <c r="N1" s="162" t="s">
+        <v>154</v>
+      </c>
+      <c r="O1" s="163"/>
+      <c r="P1" s="163"/>
+      <c r="Q1" s="163"/>
+      <c r="R1" s="163"/>
+      <c r="S1" s="163"/>
+      <c r="T1" s="163"/>
+      <c r="U1" s="164"/>
+      <c r="V1" s="165" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" s="166"/>
+      <c r="X1" s="166"/>
+      <c r="Y1" s="166"/>
+      <c r="Z1" s="166"/>
+      <c r="AA1" s="166"/>
+      <c r="AB1" s="166"/>
+      <c r="AC1" s="166"/>
+      <c r="AD1" s="167"/>
+    </row>
+    <row r="2" spans="1:30" s="43" customFormat="1" ht="15.75">
+      <c r="A2" s="154" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="155"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="157" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
+      <c r="K2" s="171" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="172"/>
+      <c r="M2" s="173"/>
+      <c r="N2" s="239" t="s">
+        <v>263</v>
+      </c>
+      <c r="O2" s="183"/>
+      <c r="P2" s="183"/>
+      <c r="Q2" s="183"/>
+      <c r="R2" s="183"/>
+      <c r="S2" s="183"/>
+      <c r="T2" s="183"/>
+      <c r="U2" s="184"/>
+      <c r="V2" s="168" t="s">
+        <v>159</v>
+      </c>
+      <c r="W2" s="169"/>
+      <c r="X2" s="170"/>
+      <c r="Y2" s="168" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="169"/>
+      <c r="AA2" s="170"/>
+      <c r="AB2" s="168" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" s="169"/>
+      <c r="AD2" s="170"/>
+    </row>
+    <row r="3" spans="1:30" s="43" customFormat="1" ht="15.75">
+      <c r="A3" s="171" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="172"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="174" t="s">
         <v>157</v>
       </c>
-      <c r="O1" s="180"/>
-      <c r="P1" s="180"/>
-      <c r="Q1" s="180"/>
-      <c r="R1" s="180"/>
-      <c r="S1" s="180"/>
-      <c r="T1" s="180"/>
-      <c r="U1" s="181"/>
-      <c r="V1" s="200" t="s">
-        <v>28</v>
-      </c>
-      <c r="W1" s="201"/>
-      <c r="X1" s="201"/>
-      <c r="Y1" s="201"/>
-      <c r="Z1" s="201"/>
-      <c r="AA1" s="201"/>
-      <c r="AB1" s="201"/>
-      <c r="AC1" s="201"/>
-      <c r="AD1" s="202"/>
-    </row>
-    <row r="2" spans="1:30" s="43" customFormat="1" ht="15.75">
-      <c r="A2" s="189" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="190"/>
-      <c r="C2" s="191"/>
-      <c r="D2" s="192" t="s">
-        <v>160</v>
-      </c>
-      <c r="E2" s="193"/>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="174" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="175"/>
-      <c r="M2" s="176"/>
-      <c r="N2" s="194" t="s">
-        <v>162</v>
-      </c>
-      <c r="O2" s="195"/>
-      <c r="P2" s="195"/>
-      <c r="Q2" s="195"/>
-      <c r="R2" s="195"/>
-      <c r="S2" s="195"/>
-      <c r="T2" s="195"/>
-      <c r="U2" s="196"/>
-      <c r="V2" s="171" t="s">
-        <v>164</v>
-      </c>
-      <c r="W2" s="172"/>
-      <c r="X2" s="173"/>
-      <c r="Y2" s="171" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z2" s="172"/>
-      <c r="AA2" s="173"/>
-      <c r="AB2" s="171" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC2" s="172"/>
-      <c r="AD2" s="173"/>
-    </row>
-    <row r="3" spans="1:30" s="43" customFormat="1" ht="15.75">
-      <c r="A3" s="174" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="177" t="s">
-        <v>161</v>
-      </c>
-      <c r="E3" s="178"/>
-      <c r="F3" s="178"/>
-      <c r="G3" s="178"/>
-      <c r="H3" s="178"/>
-      <c r="I3" s="178"/>
-      <c r="J3" s="178"/>
-      <c r="K3" s="174" t="s">
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="175"/>
+      <c r="H3" s="175"/>
+      <c r="I3" s="175"/>
+      <c r="J3" s="175"/>
+      <c r="K3" s="171" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="175"/>
-      <c r="M3" s="176"/>
-      <c r="N3" s="179" t="s">
-        <v>163</v>
-      </c>
-      <c r="O3" s="180"/>
-      <c r="P3" s="180"/>
-      <c r="Q3" s="180"/>
-      <c r="R3" s="180"/>
-      <c r="S3" s="180"/>
-      <c r="T3" s="180"/>
-      <c r="U3" s="181"/>
-      <c r="V3" s="182"/>
-      <c r="W3" s="183"/>
-      <c r="X3" s="184"/>
-      <c r="Y3" s="185"/>
-      <c r="Z3" s="186"/>
-      <c r="AA3" s="187"/>
-      <c r="AB3" s="188"/>
-      <c r="AC3" s="186"/>
-      <c r="AD3" s="187"/>
+      <c r="L3" s="172"/>
+      <c r="M3" s="173"/>
+      <c r="N3" s="162" t="s">
+        <v>158</v>
+      </c>
+      <c r="O3" s="163"/>
+      <c r="P3" s="163"/>
+      <c r="Q3" s="163"/>
+      <c r="R3" s="163"/>
+      <c r="S3" s="163"/>
+      <c r="T3" s="163"/>
+      <c r="U3" s="164"/>
+      <c r="V3" s="176"/>
+      <c r="W3" s="177"/>
+      <c r="X3" s="178"/>
+      <c r="Y3" s="179"/>
+      <c r="Z3" s="180"/>
+      <c r="AA3" s="181"/>
+      <c r="AB3" s="182"/>
+      <c r="AC3" s="180"/>
+      <c r="AD3" s="181"/>
     </row>
     <row r="7" spans="1:30" ht="15.75" thickBot="1"/>
     <row r="8" spans="1:30" ht="16.5" thickBot="1">
-      <c r="B8" s="169" t="s">
+      <c r="B8" s="196" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="169"/>
-      <c r="D8" s="169"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169" t="s">
+      <c r="C8" s="196"/>
+      <c r="D8" s="196"/>
+      <c r="E8" s="196"/>
+      <c r="F8" s="196" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="169"/>
-      <c r="H8" s="169" t="s">
+      <c r="G8" s="196"/>
+      <c r="H8" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="169"/>
-      <c r="J8" s="169"/>
-      <c r="K8" s="169" t="s">
+      <c r="I8" s="196"/>
+      <c r="J8" s="196"/>
+      <c r="K8" s="196" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="169"/>
-      <c r="M8" s="169"/>
-      <c r="N8" s="169"/>
-      <c r="O8" s="169"/>
-      <c r="P8" s="169"/>
-      <c r="Q8" s="169"/>
-      <c r="R8" s="169"/>
-      <c r="S8" s="169"/>
-      <c r="T8" s="169"/>
-      <c r="U8" s="169"/>
-      <c r="V8" s="169"/>
-      <c r="W8" s="169"/>
-      <c r="X8" s="169" t="s">
+      <c r="L8" s="196"/>
+      <c r="M8" s="196"/>
+      <c r="N8" s="196"/>
+      <c r="O8" s="196"/>
+      <c r="P8" s="196"/>
+      <c r="Q8" s="196"/>
+      <c r="R8" s="196"/>
+      <c r="S8" s="196"/>
+      <c r="T8" s="196"/>
+      <c r="U8" s="196"/>
+      <c r="V8" s="196"/>
+      <c r="W8" s="196"/>
+      <c r="X8" s="196" t="s">
         <v>36</v>
       </c>
-      <c r="Y8" s="169"/>
-      <c r="Z8" s="169"/>
-      <c r="AA8" s="169"/>
-      <c r="AB8" s="169"/>
-      <c r="AC8" s="169"/>
+      <c r="Y8" s="196"/>
+      <c r="Z8" s="196"/>
+      <c r="AA8" s="196"/>
+      <c r="AB8" s="196"/>
+      <c r="AC8" s="196"/>
     </row>
     <row r="9" spans="1:30">
-      <c r="B9" s="170" t="s">
-        <v>159</v>
-      </c>
-      <c r="C9" s="159"/>
-      <c r="D9" s="159"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="161" t="s">
-        <v>156</v>
-      </c>
-      <c r="G9" s="162"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="159"/>
-      <c r="J9" s="160"/>
-      <c r="K9" s="163"/>
-      <c r="L9" s="164"/>
-      <c r="M9" s="164"/>
-      <c r="N9" s="164"/>
-      <c r="O9" s="164"/>
-      <c r="P9" s="164"/>
-      <c r="Q9" s="164"/>
-      <c r="R9" s="164"/>
-      <c r="S9" s="164"/>
-      <c r="T9" s="164"/>
-      <c r="U9" s="164"/>
-      <c r="V9" s="164"/>
-      <c r="W9" s="165"/>
-      <c r="X9" s="166"/>
-      <c r="Y9" s="167"/>
-      <c r="Z9" s="167"/>
-      <c r="AA9" s="167"/>
-      <c r="AB9" s="167"/>
-      <c r="AC9" s="168"/>
+      <c r="B9" s="240" t="s">
+        <v>264</v>
+      </c>
+      <c r="C9" s="185"/>
+      <c r="D9" s="185"/>
+      <c r="E9" s="186"/>
+      <c r="F9" s="187" t="s">
+        <v>153</v>
+      </c>
+      <c r="G9" s="188"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="185"/>
+      <c r="J9" s="186"/>
+      <c r="K9" s="190"/>
+      <c r="L9" s="191"/>
+      <c r="M9" s="191"/>
+      <c r="N9" s="191"/>
+      <c r="O9" s="191"/>
+      <c r="P9" s="191"/>
+      <c r="Q9" s="191"/>
+      <c r="R9" s="191"/>
+      <c r="S9" s="191"/>
+      <c r="T9" s="191"/>
+      <c r="U9" s="191"/>
+      <c r="V9" s="191"/>
+      <c r="W9" s="192"/>
+      <c r="X9" s="193"/>
+      <c r="Y9" s="194"/>
+      <c r="Z9" s="194"/>
+      <c r="AA9" s="194"/>
+      <c r="AB9" s="194"/>
+      <c r="AC9" s="195"/>
     </row>
     <row r="10" spans="1:30">
-      <c r="B10" s="158"/>
-      <c r="C10" s="159"/>
-      <c r="D10" s="159"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="162"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="159"/>
-      <c r="J10" s="160"/>
-      <c r="K10" s="163"/>
-      <c r="L10" s="164"/>
-      <c r="M10" s="164"/>
-      <c r="N10" s="164"/>
-      <c r="O10" s="164"/>
-      <c r="P10" s="164"/>
-      <c r="Q10" s="164"/>
-      <c r="R10" s="164"/>
-      <c r="S10" s="164"/>
-      <c r="T10" s="164"/>
-      <c r="U10" s="164"/>
-      <c r="V10" s="164"/>
-      <c r="W10" s="165"/>
-      <c r="X10" s="166"/>
-      <c r="Y10" s="167"/>
-      <c r="Z10" s="167"/>
-      <c r="AA10" s="167"/>
-      <c r="AB10" s="167"/>
-      <c r="AC10" s="168"/>
+      <c r="B10" s="189"/>
+      <c r="C10" s="185"/>
+      <c r="D10" s="185"/>
+      <c r="E10" s="186"/>
+      <c r="F10" s="187"/>
+      <c r="G10" s="188"/>
+      <c r="H10" s="189"/>
+      <c r="I10" s="185"/>
+      <c r="J10" s="186"/>
+      <c r="K10" s="190"/>
+      <c r="L10" s="191"/>
+      <c r="M10" s="191"/>
+      <c r="N10" s="191"/>
+      <c r="O10" s="191"/>
+      <c r="P10" s="191"/>
+      <c r="Q10" s="191"/>
+      <c r="R10" s="191"/>
+      <c r="S10" s="191"/>
+      <c r="T10" s="191"/>
+      <c r="U10" s="191"/>
+      <c r="V10" s="191"/>
+      <c r="W10" s="192"/>
+      <c r="X10" s="193"/>
+      <c r="Y10" s="194"/>
+      <c r="Z10" s="194"/>
+      <c r="AA10" s="194"/>
+      <c r="AB10" s="194"/>
+      <c r="AC10" s="195"/>
     </row>
     <row r="11" spans="1:30">
-      <c r="B11" s="158"/>
-      <c r="C11" s="159"/>
-      <c r="D11" s="159"/>
-      <c r="E11" s="160"/>
-      <c r="F11" s="161"/>
-      <c r="G11" s="162"/>
-      <c r="H11" s="158"/>
-      <c r="I11" s="159"/>
-      <c r="J11" s="160"/>
-      <c r="K11" s="163"/>
-      <c r="L11" s="164"/>
-      <c r="M11" s="164"/>
-      <c r="N11" s="164"/>
-      <c r="O11" s="164"/>
-      <c r="P11" s="164"/>
-      <c r="Q11" s="164"/>
-      <c r="R11" s="164"/>
-      <c r="S11" s="164"/>
-      <c r="T11" s="164"/>
-      <c r="U11" s="164"/>
-      <c r="V11" s="164"/>
-      <c r="W11" s="165"/>
-      <c r="X11" s="166"/>
-      <c r="Y11" s="167"/>
-      <c r="Z11" s="167"/>
-      <c r="AA11" s="167"/>
-      <c r="AB11" s="167"/>
-      <c r="AC11" s="168"/>
+      <c r="B11" s="189"/>
+      <c r="C11" s="185"/>
+      <c r="D11" s="185"/>
+      <c r="E11" s="186"/>
+      <c r="F11" s="187"/>
+      <c r="G11" s="188"/>
+      <c r="H11" s="189"/>
+      <c r="I11" s="185"/>
+      <c r="J11" s="186"/>
+      <c r="K11" s="190"/>
+      <c r="L11" s="191"/>
+      <c r="M11" s="191"/>
+      <c r="N11" s="191"/>
+      <c r="O11" s="191"/>
+      <c r="P11" s="191"/>
+      <c r="Q11" s="191"/>
+      <c r="R11" s="191"/>
+      <c r="S11" s="191"/>
+      <c r="T11" s="191"/>
+      <c r="U11" s="191"/>
+      <c r="V11" s="191"/>
+      <c r="W11" s="192"/>
+      <c r="X11" s="193"/>
+      <c r="Y11" s="194"/>
+      <c r="Z11" s="194"/>
+      <c r="AA11" s="194"/>
+      <c r="AB11" s="194"/>
+      <c r="AC11" s="195"/>
     </row>
     <row r="12" spans="1:30">
-      <c r="B12" s="158"/>
-      <c r="C12" s="159"/>
-      <c r="D12" s="159"/>
-      <c r="E12" s="160"/>
-      <c r="F12" s="161"/>
-      <c r="G12" s="162"/>
-      <c r="H12" s="158"/>
-      <c r="I12" s="159"/>
-      <c r="J12" s="160"/>
-      <c r="K12" s="163"/>
-      <c r="L12" s="164"/>
-      <c r="M12" s="164"/>
-      <c r="N12" s="164"/>
-      <c r="O12" s="164"/>
-      <c r="P12" s="164"/>
-      <c r="Q12" s="164"/>
-      <c r="R12" s="164"/>
-      <c r="S12" s="164"/>
-      <c r="T12" s="164"/>
-      <c r="U12" s="164"/>
-      <c r="V12" s="164"/>
-      <c r="W12" s="165"/>
-      <c r="X12" s="166"/>
-      <c r="Y12" s="167"/>
-      <c r="Z12" s="167"/>
-      <c r="AA12" s="167"/>
-      <c r="AB12" s="167"/>
-      <c r="AC12" s="168"/>
+      <c r="B12" s="189"/>
+      <c r="C12" s="185"/>
+      <c r="D12" s="185"/>
+      <c r="E12" s="186"/>
+      <c r="F12" s="187"/>
+      <c r="G12" s="188"/>
+      <c r="H12" s="189"/>
+      <c r="I12" s="185"/>
+      <c r="J12" s="186"/>
+      <c r="K12" s="190"/>
+      <c r="L12" s="191"/>
+      <c r="M12" s="191"/>
+      <c r="N12" s="191"/>
+      <c r="O12" s="191"/>
+      <c r="P12" s="191"/>
+      <c r="Q12" s="191"/>
+      <c r="R12" s="191"/>
+      <c r="S12" s="191"/>
+      <c r="T12" s="191"/>
+      <c r="U12" s="191"/>
+      <c r="V12" s="191"/>
+      <c r="W12" s="192"/>
+      <c r="X12" s="193"/>
+      <c r="Y12" s="194"/>
+      <c r="Z12" s="194"/>
+      <c r="AA12" s="194"/>
+      <c r="AB12" s="194"/>
+      <c r="AC12" s="195"/>
     </row>
     <row r="13" spans="1:30" ht="18" customHeight="1"/>
     <row r="14" spans="1:30" ht="18" customHeight="1"/>
@@ -4760,11 +4855,31 @@
     <row r="38" ht="18" customHeight="1"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:AD1"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:W12"/>
+    <mergeCell ref="X12:AC12"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:W10"/>
+    <mergeCell ref="X10:AC10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:W11"/>
+    <mergeCell ref="X11:AC11"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:W8"/>
+    <mergeCell ref="X8:AC8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:W9"/>
+    <mergeCell ref="X9:AC9"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="A3:C3"/>
@@ -4779,31 +4894,11 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:U2"/>
     <mergeCell ref="V2:X2"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K9:W9"/>
-    <mergeCell ref="X9:AC9"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:W8"/>
-    <mergeCell ref="X8:AC8"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:W11"/>
-    <mergeCell ref="X11:AC11"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:W10"/>
-    <mergeCell ref="X10:AC10"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:W12"/>
-    <mergeCell ref="X12:AC12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:AD1"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5418,7 +5513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N35"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -5429,11 +5524,11 @@
     <col min="4" max="16384" width="10.875" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" s="135" customFormat="1" ht="26.1" customHeight="1">
+    <row r="1" spans="2:11" s="132" customFormat="1" ht="26.1" customHeight="1">
       <c r="B1" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="C1" s="134"/>
+        <v>155</v>
+      </c>
+      <c r="C1" s="131"/>
     </row>
     <row r="3" spans="2:11">
       <c r="B3" s="45"/>
@@ -5449,8 +5544,8 @@
     </row>
     <row r="4" spans="2:11" ht="15.75">
       <c r="B4" s="48"/>
-      <c r="C4" s="136" t="s">
-        <v>165</v>
+      <c r="C4" s="133" t="s">
+        <v>160</v>
       </c>
       <c r="D4" s="49"/>
       <c r="E4" s="49"/>
@@ -5655,8 +5750,8 @@
     </row>
     <row r="21" spans="2:14" ht="15.75">
       <c r="B21" s="48"/>
-      <c r="C21" s="136" t="s">
-        <v>166</v>
+      <c r="C21" s="133" t="s">
+        <v>161</v>
       </c>
       <c r="D21" s="49"/>
       <c r="E21" s="49"/>
@@ -5853,8 +5948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
@@ -5869,713 +5964,747 @@
     <col min="8" max="16384" width="10.875" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" s="120" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B1" s="133" t="s">
+    <row r="1" spans="2:12" s="117" customFormat="1" ht="26.1" customHeight="1">
+      <c r="B1" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="121"/>
+      <c r="C1" s="118"/>
     </row>
     <row r="2" spans="2:12">
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
     </row>
     <row r="3" spans="2:12" ht="15.75">
-      <c r="B3" s="123" t="s">
+      <c r="B3" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
     </row>
     <row r="4" spans="2:12" ht="15.75">
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="104" t="s">
-        <v>231</v>
-      </c>
-      <c r="D4" s="205" t="s">
-        <v>234</v>
-      </c>
-      <c r="E4" s="205"/>
-      <c r="F4" s="144" t="s">
-        <v>232</v>
-      </c>
-      <c r="G4" s="125"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="122"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="122"/>
+      <c r="C4" s="101" t="s">
+        <v>204</v>
+      </c>
+      <c r="D4" s="198" t="s">
+        <v>207</v>
+      </c>
+      <c r="E4" s="198"/>
+      <c r="F4" s="139" t="s">
+        <v>205</v>
+      </c>
+      <c r="G4" s="122"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="147">
+      <c r="B5" s="141">
         <v>1</v>
       </c>
-      <c r="C5" s="148" t="s">
+      <c r="C5" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="204" t="s">
-        <v>236</v>
-      </c>
-      <c r="E5" s="204"/>
-      <c r="F5" s="149" t="s">
-        <v>235</v>
-      </c>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
+      <c r="D5" s="199" t="s">
+        <v>209</v>
+      </c>
+      <c r="E5" s="199"/>
+      <c r="F5" s="143" t="s">
+        <v>208</v>
+      </c>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
     </row>
     <row r="6" spans="2:12">
-      <c r="B6" s="128"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="131"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="122"/>
-      <c r="K6" s="122"/>
-      <c r="L6" s="122"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
     </row>
     <row r="7" spans="2:12">
-      <c r="B7" s="128"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="125"/>
-      <c r="H7" s="122"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="122"/>
-      <c r="K7" s="122"/>
-      <c r="L7" s="122"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
     </row>
     <row r="8" spans="2:12" ht="15.75">
-      <c r="B8" s="123" t="s">
+      <c r="B8" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="122"/>
-      <c r="H8" s="122"/>
-      <c r="I8" s="122"/>
-      <c r="J8" s="122"/>
-      <c r="K8" s="122"/>
-      <c r="L8" s="122"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="119"/>
+      <c r="K8" s="119"/>
+      <c r="L8" s="119"/>
     </row>
     <row r="9" spans="2:12" ht="15.75">
-      <c r="B9" s="104" t="s">
+      <c r="B9" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="144" t="s">
-        <v>231</v>
-      </c>
-      <c r="D9" s="205" t="s">
-        <v>234</v>
-      </c>
-      <c r="E9" s="205"/>
-      <c r="F9" s="144" t="s">
-        <v>232</v>
+      <c r="C9" s="139" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9" s="198" t="s">
+        <v>207</v>
+      </c>
+      <c r="E9" s="198"/>
+      <c r="F9" s="139" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="126">
+      <c r="B10" s="123">
         <v>1</v>
       </c>
-      <c r="C10" s="127" t="s">
+      <c r="C10" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="203"/>
-      <c r="E10" s="203"/>
-      <c r="F10" s="143"/>
-      <c r="G10" s="125"/>
-      <c r="H10" s="125"/>
+      <c r="D10" s="197"/>
+      <c r="E10" s="197"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="126">
+      <c r="B11" s="123">
         <v>2</v>
       </c>
-      <c r="C11" s="127" t="s">
+      <c r="C11" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="203"/>
-      <c r="E11" s="203"/>
-      <c r="F11" s="143"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="125"/>
+      <c r="D11" s="197"/>
+      <c r="E11" s="197"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
     </row>
     <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="126">
+      <c r="B12" s="123">
         <v>3</v>
       </c>
-      <c r="C12" s="127" t="s">
+      <c r="C12" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="203"/>
-      <c r="E12" s="203"/>
-      <c r="F12" s="143"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="125"/>
+      <c r="D12" s="197"/>
+      <c r="E12" s="197"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
     </row>
     <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="126">
+      <c r="B13" s="123">
         <v>4</v>
       </c>
-      <c r="C13" s="127" t="s">
+      <c r="C13" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="203"/>
-      <c r="E13" s="203"/>
-      <c r="F13" s="143"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
+      <c r="D13" s="197"/>
+      <c r="E13" s="197"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
     </row>
     <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="126">
+      <c r="B14" s="123">
         <v>5</v>
       </c>
-      <c r="C14" s="127" t="s">
+      <c r="C14" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="203"/>
-      <c r="E14" s="203"/>
-      <c r="F14" s="143"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="125"/>
+      <c r="D14" s="197"/>
+      <c r="E14" s="197"/>
+      <c r="F14" s="138"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
     </row>
     <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="126">
+      <c r="B15" s="123">
         <v>6</v>
       </c>
-      <c r="C15" s="127" t="s">
+      <c r="C15" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="203"/>
-      <c r="E15" s="203"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="125"/>
+      <c r="D15" s="197"/>
+      <c r="E15" s="197"/>
+      <c r="F15" s="138"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
     </row>
     <row r="17" spans="2:8" ht="15.75">
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="132"/>
-      <c r="D17" s="132"/>
-      <c r="E17" s="122"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="119"/>
     </row>
     <row r="18" spans="2:8" ht="15.75">
-      <c r="B18" s="104" t="s">
+      <c r="B18" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="144" t="s">
-        <v>231</v>
-      </c>
-      <c r="D18" s="205" t="s">
-        <v>234</v>
-      </c>
-      <c r="E18" s="205"/>
-      <c r="F18" s="144" t="s">
-        <v>232</v>
+      <c r="C18" s="139" t="s">
+        <v>204</v>
+      </c>
+      <c r="D18" s="198" t="s">
+        <v>207</v>
+      </c>
+      <c r="E18" s="198"/>
+      <c r="F18" s="139" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="126">
+      <c r="B19" s="123">
         <v>1</v>
       </c>
-      <c r="C19" s="127" t="s">
+      <c r="C19" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="203"/>
-      <c r="E19" s="203"/>
-      <c r="F19" s="146"/>
-      <c r="G19" s="125"/>
-      <c r="H19" s="125"/>
+      <c r="D19" s="197"/>
+      <c r="E19" s="197"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="122"/>
     </row>
     <row r="20" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="126">
+      <c r="B20" s="123">
         <v>2</v>
       </c>
-      <c r="C20" s="127" t="s">
+      <c r="C20" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="203"/>
-      <c r="E20" s="203"/>
-      <c r="F20" s="146"/>
-      <c r="G20" s="125"/>
-      <c r="H20" s="125"/>
+      <c r="D20" s="197"/>
+      <c r="E20" s="197"/>
+      <c r="F20" s="140"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="122"/>
     </row>
     <row r="21" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="126">
+      <c r="B21" s="123">
         <v>3</v>
       </c>
-      <c r="C21" s="127" t="s">
+      <c r="C21" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="203"/>
-      <c r="E21" s="203"/>
-      <c r="F21" s="146"/>
-      <c r="G21" s="125"/>
-      <c r="H21" s="125"/>
+      <c r="D21" s="197"/>
+      <c r="E21" s="197"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="122"/>
     </row>
     <row r="22" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B22" s="126">
+      <c r="B22" s="123">
         <v>4</v>
       </c>
-      <c r="C22" s="127" t="s">
+      <c r="C22" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="203"/>
-      <c r="E22" s="203"/>
-      <c r="F22" s="146"/>
-      <c r="G22" s="125"/>
-      <c r="H22" s="125"/>
+      <c r="D22" s="197"/>
+      <c r="E22" s="197"/>
+      <c r="F22" s="140"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="122"/>
     </row>
     <row r="23" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B23" s="126">
+      <c r="B23" s="123">
         <v>5</v>
       </c>
-      <c r="C23" s="127" t="s">
+      <c r="C23" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="203"/>
-      <c r="E23" s="203"/>
-      <c r="F23" s="146"/>
-      <c r="G23" s="125"/>
-      <c r="H23" s="125"/>
+      <c r="D23" s="197"/>
+      <c r="E23" s="197"/>
+      <c r="F23" s="140"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="122"/>
     </row>
     <row r="24" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B24" s="126">
+      <c r="B24" s="123">
         <v>6</v>
       </c>
-      <c r="C24" s="127" t="s">
+      <c r="C24" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="203"/>
-      <c r="E24" s="203"/>
-      <c r="F24" s="146"/>
-      <c r="G24" s="125"/>
-      <c r="H24" s="125"/>
+      <c r="D24" s="197"/>
+      <c r="E24" s="197"/>
+      <c r="F24" s="140"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="122"/>
     </row>
     <row r="26" spans="2:8" ht="15.75">
-      <c r="B26" s="123" t="s">
-        <v>233</v>
-      </c>
-      <c r="C26" s="132"/>
-      <c r="D26" s="132"/>
-      <c r="E26" s="122"/>
+      <c r="B26" s="120" t="s">
+        <v>206</v>
+      </c>
+      <c r="C26" s="129"/>
+      <c r="D26" s="129"/>
+      <c r="E26" s="119"/>
     </row>
     <row r="27" spans="2:8" ht="15.75">
-      <c r="B27" s="104" t="s">
+      <c r="B27" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="C27" s="144" t="s">
-        <v>231</v>
-      </c>
-      <c r="D27" s="205" t="s">
-        <v>234</v>
-      </c>
-      <c r="E27" s="205"/>
-      <c r="F27" s="144" t="s">
-        <v>232</v>
+      <c r="C27" s="139" t="s">
+        <v>204</v>
+      </c>
+      <c r="D27" s="198" t="s">
+        <v>207</v>
+      </c>
+      <c r="E27" s="198"/>
+      <c r="F27" s="139" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B28" s="147">
+      <c r="B28" s="141">
         <v>1</v>
       </c>
-      <c r="C28" s="148" t="s">
+      <c r="C28" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="204" t="s">
-        <v>248</v>
-      </c>
-      <c r="E28" s="204"/>
-      <c r="F28" s="150" t="s">
-        <v>251</v>
-      </c>
-      <c r="G28" s="125"/>
-      <c r="H28" s="125"/>
+      <c r="D28" s="199" t="s">
+        <v>220</v>
+      </c>
+      <c r="E28" s="199"/>
+      <c r="F28" s="144" t="s">
+        <v>223</v>
+      </c>
+      <c r="G28" s="122"/>
+      <c r="H28" s="122"/>
     </row>
     <row r="29" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B29" s="126">
+      <c r="B29" s="123">
         <v>2</v>
       </c>
-      <c r="C29" s="127" t="s">
+      <c r="C29" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="203" t="s">
-        <v>249</v>
-      </c>
-      <c r="E29" s="203"/>
-      <c r="F29" s="146" t="s">
-        <v>252</v>
-      </c>
-      <c r="G29" s="125"/>
-      <c r="H29" s="125"/>
+      <c r="D29" s="197" t="s">
+        <v>221</v>
+      </c>
+      <c r="E29" s="197"/>
+      <c r="F29" s="140" t="s">
+        <v>224</v>
+      </c>
+      <c r="G29" s="122"/>
+      <c r="H29" s="122"/>
     </row>
     <row r="30" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B30" s="126">
+      <c r="B30" s="123">
         <v>3</v>
       </c>
-      <c r="C30" s="127" t="s">
+      <c r="C30" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="203" t="s">
-        <v>250</v>
-      </c>
-      <c r="E30" s="203"/>
-      <c r="F30" s="146" t="s">
-        <v>250</v>
-      </c>
-      <c r="G30" s="125"/>
-      <c r="H30" s="125"/>
+      <c r="D30" s="197" t="s">
+        <v>222</v>
+      </c>
+      <c r="E30" s="197"/>
+      <c r="F30" s="140" t="s">
+        <v>222</v>
+      </c>
+      <c r="G30" s="122"/>
+      <c r="H30" s="122"/>
     </row>
     <row r="31" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B31" s="126">
+      <c r="B31" s="123">
         <v>4</v>
       </c>
-      <c r="C31" s="127" t="s">
+      <c r="C31" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="203"/>
-      <c r="E31" s="203"/>
-      <c r="F31" s="146"/>
-      <c r="G31" s="125"/>
-      <c r="H31" s="125"/>
+      <c r="D31" s="197" t="s">
+        <v>225</v>
+      </c>
+      <c r="E31" s="197"/>
+      <c r="F31" s="140" t="s">
+        <v>226</v>
+      </c>
+      <c r="G31" s="122"/>
+      <c r="H31" s="122"/>
     </row>
     <row r="32" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B32" s="126">
+      <c r="B32" s="123">
         <v>5</v>
       </c>
-      <c r="C32" s="127" t="s">
+      <c r="C32" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="203"/>
-      <c r="E32" s="203"/>
-      <c r="F32" s="146"/>
-      <c r="G32" s="125"/>
-      <c r="H32" s="125"/>
+      <c r="D32" s="197"/>
+      <c r="E32" s="197"/>
+      <c r="F32" s="140"/>
+      <c r="G32" s="122"/>
+      <c r="H32" s="122"/>
     </row>
     <row r="33" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B33" s="126">
+      <c r="B33" s="123">
         <v>6</v>
       </c>
-      <c r="C33" s="127" t="s">
+      <c r="C33" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="203"/>
-      <c r="E33" s="203"/>
-      <c r="F33" s="146"/>
-      <c r="G33" s="125"/>
-      <c r="H33" s="125"/>
+      <c r="D33" s="197"/>
+      <c r="E33" s="197"/>
+      <c r="F33" s="140"/>
+      <c r="G33" s="122"/>
+      <c r="H33" s="122"/>
     </row>
     <row r="34" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B34" s="126">
+      <c r="B34" s="123">
         <v>7</v>
       </c>
-      <c r="C34" s="127" t="s">
+      <c r="C34" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="203"/>
-      <c r="E34" s="203"/>
-      <c r="F34" s="146"/>
-      <c r="G34" s="125"/>
-      <c r="H34" s="125"/>
+      <c r="D34" s="197"/>
+      <c r="E34" s="197"/>
+      <c r="F34" s="140"/>
+      <c r="G34" s="122"/>
+      <c r="H34" s="122"/>
     </row>
     <row r="35" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B35" s="126">
+      <c r="B35" s="123">
         <v>8</v>
       </c>
-      <c r="C35" s="127" t="s">
+      <c r="C35" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="D35" s="203"/>
-      <c r="E35" s="203"/>
-      <c r="F35" s="146"/>
-      <c r="G35" s="125"/>
-      <c r="H35" s="125"/>
+      <c r="D35" s="197"/>
+      <c r="E35" s="197"/>
+      <c r="F35" s="140"/>
+      <c r="G35" s="122"/>
+      <c r="H35" s="122"/>
     </row>
     <row r="36" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B36" s="126">
+      <c r="B36" s="123">
         <v>9</v>
       </c>
-      <c r="C36" s="127" t="s">
+      <c r="C36" s="124" t="s">
         <v>88</v>
       </c>
-      <c r="D36" s="203"/>
-      <c r="E36" s="203"/>
-      <c r="F36" s="146"/>
-      <c r="G36" s="125"/>
-      <c r="H36" s="125"/>
+      <c r="D36" s="197"/>
+      <c r="E36" s="197"/>
+      <c r="F36" s="140"/>
+      <c r="G36" s="122"/>
+      <c r="H36" s="122"/>
     </row>
     <row r="39" spans="2:8" ht="15.75">
-      <c r="B39" s="123" t="s">
+      <c r="B39" s="120" t="s">
         <v>114</v>
       </c>
-      <c r="C39" s="132"/>
-      <c r="D39" s="132"/>
-      <c r="E39" s="122"/>
+      <c r="C39" s="129"/>
+      <c r="D39" s="129"/>
+      <c r="E39" s="119"/>
     </row>
     <row r="40" spans="2:8" ht="15.75">
-      <c r="B40" s="124"/>
-      <c r="C40" s="157" t="s">
-        <v>231</v>
-      </c>
-      <c r="D40" s="205" t="s">
-        <v>234</v>
-      </c>
-      <c r="E40" s="205"/>
-      <c r="F40" s="157" t="s">
-        <v>232</v>
+      <c r="B40" s="121"/>
+      <c r="C40" s="150" t="s">
+        <v>204</v>
+      </c>
+      <c r="D40" s="198" t="s">
+        <v>207</v>
+      </c>
+      <c r="E40" s="198"/>
+      <c r="F40" s="150" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="15" customHeight="1">
-      <c r="B41" s="126">
+      <c r="B41" s="123">
         <v>1</v>
       </c>
-      <c r="C41" s="127"/>
-      <c r="D41" s="203"/>
-      <c r="E41" s="203"/>
-      <c r="F41" s="146"/>
+      <c r="C41" s="124"/>
+      <c r="D41" s="197"/>
+      <c r="E41" s="197"/>
+      <c r="F41" s="140"/>
     </row>
     <row r="42" spans="2:8" ht="15" customHeight="1">
-      <c r="B42" s="126">
+      <c r="B42" s="123">
         <v>2</v>
       </c>
-      <c r="C42" s="127" t="s">
+      <c r="C42" s="124" t="s">
         <v>115</v>
       </c>
-      <c r="D42" s="203"/>
-      <c r="E42" s="203"/>
-      <c r="F42" s="146"/>
+      <c r="D42" s="197"/>
+      <c r="E42" s="197"/>
+      <c r="F42" s="140"/>
     </row>
     <row r="43" spans="2:8">
-      <c r="B43" s="126">
+      <c r="B43" s="123">
         <v>3</v>
       </c>
-      <c r="C43" s="127" t="s">
+      <c r="C43" s="124" t="s">
         <v>116</v>
       </c>
-      <c r="D43" s="203"/>
-      <c r="E43" s="203"/>
-      <c r="F43" s="146"/>
+      <c r="D43" s="197"/>
+      <c r="E43" s="197"/>
+      <c r="F43" s="140"/>
     </row>
     <row r="44" spans="2:8">
-      <c r="B44" s="126">
+      <c r="B44" s="123">
         <v>4</v>
       </c>
-      <c r="C44" s="127" t="s">
+      <c r="C44" s="124" t="s">
         <v>117</v>
       </c>
-      <c r="D44" s="203"/>
-      <c r="E44" s="203"/>
-      <c r="F44" s="146"/>
+      <c r="D44" s="197"/>
+      <c r="E44" s="197"/>
+      <c r="F44" s="140"/>
     </row>
     <row r="45" spans="2:8">
-      <c r="B45" s="126">
+      <c r="B45" s="123">
         <v>5</v>
       </c>
-      <c r="C45" s="127" t="s">
+      <c r="C45" s="124" t="s">
         <v>118</v>
       </c>
-      <c r="D45" s="203"/>
-      <c r="E45" s="203"/>
-      <c r="F45" s="146"/>
+      <c r="D45" s="197"/>
+      <c r="E45" s="197"/>
+      <c r="F45" s="140"/>
     </row>
     <row r="48" spans="2:8" ht="15.75">
-      <c r="B48" s="123" t="s">
+      <c r="B48" s="120" t="s">
         <v>94</v>
       </c>
-      <c r="C48" s="132"/>
-      <c r="D48" s="132"/>
-      <c r="E48" s="122"/>
+      <c r="C48" s="129"/>
+      <c r="D48" s="129"/>
+      <c r="E48" s="119"/>
     </row>
     <row r="49" spans="2:6" ht="15.75">
-      <c r="B49" s="124"/>
-      <c r="C49" s="144" t="s">
-        <v>231</v>
-      </c>
-      <c r="D49" s="205" t="s">
-        <v>234</v>
-      </c>
-      <c r="E49" s="205"/>
-      <c r="F49" s="144" t="s">
-        <v>232</v>
+      <c r="B49" s="121"/>
+      <c r="C49" s="139" t="s">
+        <v>204</v>
+      </c>
+      <c r="D49" s="198" t="s">
+        <v>207</v>
+      </c>
+      <c r="E49" s="198"/>
+      <c r="F49" s="139" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="50" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B50" s="126">
+      <c r="B50" s="123">
         <v>1</v>
       </c>
-      <c r="C50" s="127" t="s">
+      <c r="C50" s="124" t="s">
         <v>95</v>
       </c>
-      <c r="D50" s="203"/>
-      <c r="E50" s="203"/>
-      <c r="F50" s="146"/>
+      <c r="D50" s="197"/>
+      <c r="E50" s="197"/>
+      <c r="F50" s="140"/>
     </row>
     <row r="51" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B51" s="126">
+      <c r="B51" s="123">
         <v>2</v>
       </c>
-      <c r="C51" s="127" t="s">
+      <c r="C51" s="124" t="s">
         <v>96</v>
       </c>
-      <c r="D51" s="203"/>
-      <c r="E51" s="203"/>
-      <c r="F51" s="146"/>
+      <c r="D51" s="197"/>
+      <c r="E51" s="197"/>
+      <c r="F51" s="140"/>
     </row>
     <row r="52" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B52" s="126">
+      <c r="B52" s="123">
         <v>3</v>
       </c>
-      <c r="C52" s="127" t="s">
+      <c r="C52" s="124" t="s">
         <v>97</v>
       </c>
-      <c r="D52" s="203"/>
-      <c r="E52" s="203"/>
-      <c r="F52" s="146"/>
+      <c r="D52" s="197"/>
+      <c r="E52" s="197"/>
+      <c r="F52" s="140"/>
     </row>
     <row r="53" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B53" s="126">
+      <c r="B53" s="123">
         <v>4</v>
       </c>
-      <c r="C53" s="127" t="s">
+      <c r="C53" s="124" t="s">
         <v>98</v>
       </c>
-      <c r="D53" s="203"/>
-      <c r="E53" s="203"/>
-      <c r="F53" s="146"/>
+      <c r="D53" s="197"/>
+      <c r="E53" s="197"/>
+      <c r="F53" s="140"/>
     </row>
     <row r="54" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B54" s="126">
+      <c r="B54" s="123">
         <v>5</v>
       </c>
-      <c r="C54" s="127" t="s">
+      <c r="C54" s="124" t="s">
         <v>99</v>
       </c>
-      <c r="D54" s="203"/>
-      <c r="E54" s="203"/>
-      <c r="F54" s="146"/>
+      <c r="D54" s="197"/>
+      <c r="E54" s="197"/>
+      <c r="F54" s="140"/>
     </row>
     <row r="55" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B55" s="126">
+      <c r="B55" s="123">
         <v>6</v>
       </c>
-      <c r="C55" s="127" t="s">
+      <c r="C55" s="124" t="s">
         <v>100</v>
       </c>
-      <c r="D55" s="203"/>
-      <c r="E55" s="203"/>
-      <c r="F55" s="146"/>
+      <c r="D55" s="197"/>
+      <c r="E55" s="197"/>
+      <c r="F55" s="140"/>
     </row>
     <row r="56" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B56" s="126">
+      <c r="B56" s="123">
         <v>7</v>
       </c>
-      <c r="C56" s="127" t="s">
+      <c r="C56" s="124" t="s">
         <v>101</v>
       </c>
-      <c r="D56" s="203"/>
-      <c r="E56" s="203"/>
-      <c r="F56" s="146"/>
+      <c r="D56" s="197"/>
+      <c r="E56" s="197"/>
+      <c r="F56" s="140"/>
     </row>
     <row r="59" spans="2:6" ht="15.75">
-      <c r="B59" s="123" t="s">
+      <c r="B59" s="120" t="s">
         <v>102</v>
       </c>
-      <c r="C59" s="132"/>
-      <c r="D59" s="132"/>
-      <c r="E59" s="122"/>
+      <c r="C59" s="129"/>
+      <c r="D59" s="129"/>
+      <c r="E59" s="119"/>
     </row>
     <row r="60" spans="2:6" ht="15.75">
-      <c r="B60" s="124"/>
-      <c r="C60" s="144" t="s">
-        <v>231</v>
-      </c>
-      <c r="D60" s="205" t="s">
-        <v>234</v>
-      </c>
-      <c r="E60" s="205"/>
-      <c r="F60" s="144" t="s">
-        <v>232</v>
+      <c r="B60" s="121"/>
+      <c r="C60" s="139" t="s">
+        <v>204</v>
+      </c>
+      <c r="D60" s="198" t="s">
+        <v>207</v>
+      </c>
+      <c r="E60" s="198"/>
+      <c r="F60" s="139" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="61" spans="2:6" ht="15" customHeight="1">
-      <c r="B61" s="126">
+      <c r="B61" s="123">
         <v>1</v>
       </c>
-      <c r="C61" s="127" t="s">
+      <c r="C61" s="124" t="s">
         <v>103</v>
       </c>
-      <c r="D61" s="206"/>
-      <c r="E61" s="207"/>
-      <c r="F61" s="146"/>
+      <c r="D61" s="200"/>
+      <c r="E61" s="201"/>
+      <c r="F61" s="140"/>
     </row>
     <row r="62" spans="2:6" ht="15" customHeight="1">
-      <c r="B62" s="126">
+      <c r="B62" s="123">
         <v>2</v>
       </c>
-      <c r="C62" s="127" t="s">
+      <c r="C62" s="124" t="s">
         <v>104</v>
       </c>
-      <c r="D62" s="206"/>
-      <c r="E62" s="207"/>
-      <c r="F62" s="146"/>
+      <c r="D62" s="200"/>
+      <c r="E62" s="201"/>
+      <c r="F62" s="140"/>
     </row>
     <row r="63" spans="2:6" ht="15" customHeight="1">
-      <c r="B63" s="126">
+      <c r="B63" s="123">
         <v>3</v>
       </c>
-      <c r="C63" s="127" t="s">
+      <c r="C63" s="124" t="s">
         <v>105</v>
       </c>
-      <c r="D63" s="206"/>
-      <c r="E63" s="207"/>
-      <c r="F63" s="146"/>
+      <c r="D63" s="200"/>
+      <c r="E63" s="201"/>
+      <c r="F63" s="140"/>
     </row>
     <row r="64" spans="2:6" ht="15" customHeight="1">
-      <c r="B64" s="126">
+      <c r="B64" s="123">
         <v>4</v>
       </c>
-      <c r="C64" s="127" t="s">
+      <c r="C64" s="124" t="s">
         <v>106</v>
       </c>
-      <c r="D64" s="206"/>
-      <c r="E64" s="207"/>
-      <c r="F64" s="146"/>
+      <c r="D64" s="200"/>
+      <c r="E64" s="201"/>
+      <c r="F64" s="140"/>
     </row>
     <row r="65" spans="2:6">
-      <c r="B65" s="126">
+      <c r="B65" s="123">
         <v>5</v>
       </c>
-      <c r="C65" s="127" t="s">
+      <c r="C65" s="124" t="s">
         <v>107</v>
       </c>
-      <c r="D65" s="206"/>
-      <c r="E65" s="207"/>
-      <c r="F65" s="146"/>
+      <c r="D65" s="200"/>
+      <c r="E65" s="201"/>
+      <c r="F65" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
     <mergeCell ref="D55:E55"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
@@ -6592,36 +6721,6 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D32:E32"/>
     <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6638,8 +6737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
@@ -6657,8 +6756,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" s="34" customFormat="1" ht="26.1" customHeight="1">
-      <c r="B1" s="133" t="s">
-        <v>167</v>
+      <c r="B1" s="130" t="s">
+        <v>162</v>
       </c>
       <c r="C1" s="57"/>
       <c r="D1" s="35"/>
@@ -6693,356 +6792,406 @@
       <c r="N3" s="37"/>
     </row>
     <row r="4" spans="2:14" ht="19.5" customHeight="1">
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="101" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="101" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="104" t="s">
-        <v>176</v>
-      </c>
-      <c r="E4" s="208" t="s">
-        <v>175</v>
-      </c>
-      <c r="F4" s="209"/>
-      <c r="G4" s="104" t="s">
-        <v>172</v>
-      </c>
-      <c r="H4" s="104" t="s">
+      <c r="D4" s="101" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" s="202" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" s="203"/>
+      <c r="G4" s="101" t="s">
+        <v>167</v>
+      </c>
+      <c r="H4" s="101" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="105">
+      <c r="B5" s="102">
         <v>1</v>
       </c>
-      <c r="C5" s="106" t="s">
-        <v>177</v>
-      </c>
-      <c r="D5" s="210" t="s">
+      <c r="C5" s="228" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" s="204" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="104" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" s="224" t="s">
+        <v>230</v>
+      </c>
+      <c r="G5" s="224" t="s">
+        <v>232</v>
+      </c>
+      <c r="H5" s="106" t="s">
         <v>168</v>
       </c>
-      <c r="E5" s="107" t="s">
-        <v>171</v>
-      </c>
-      <c r="F5" s="108" t="s">
-        <v>178</v>
-      </c>
-      <c r="G5" s="108" t="s">
-        <v>173</v>
-      </c>
-      <c r="H5" s="109" t="s">
-        <v>174</v>
-      </c>
-      <c r="I5" s="110"/>
+      <c r="I5" s="107"/>
       <c r="J5" s="38"/>
     </row>
     <row r="6" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="105">
+      <c r="B6" s="102">
         <v>2</v>
       </c>
-      <c r="C6" s="106"/>
-      <c r="D6" s="211"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="110"/>
+      <c r="C6" s="103" t="s">
+        <v>227</v>
+      </c>
+      <c r="D6" s="205"/>
+      <c r="E6" s="104" t="s">
+        <v>228</v>
+      </c>
+      <c r="F6" s="105" t="s">
+        <v>231</v>
+      </c>
+      <c r="G6" s="105" t="s">
+        <v>233</v>
+      </c>
+      <c r="H6" s="106" t="s">
+        <v>229</v>
+      </c>
+      <c r="I6" s="107"/>
       <c r="J6" s="38"/>
     </row>
     <row r="7" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="105">
+      <c r="B7" s="102">
         <v>3</v>
       </c>
-      <c r="C7" s="106"/>
-      <c r="D7" s="211"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="110"/>
+      <c r="C7" s="103" t="s">
+        <v>234</v>
+      </c>
+      <c r="D7" s="205"/>
+      <c r="E7" s="104" t="s">
+        <v>228</v>
+      </c>
+      <c r="F7" s="105" t="s">
+        <v>235</v>
+      </c>
+      <c r="G7" s="105" t="s">
+        <v>236</v>
+      </c>
+      <c r="H7" s="106" t="s">
+        <v>237</v>
+      </c>
+      <c r="I7" s="107"/>
       <c r="J7" s="38"/>
     </row>
     <row r="8" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="105">
+      <c r="B8" s="102">
         <v>4</v>
       </c>
-      <c r="C8" s="106"/>
-      <c r="D8" s="211"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="138"/>
-      <c r="H8" s="139"/>
-      <c r="I8" s="110"/>
+      <c r="C8" s="103" t="s">
+        <v>238</v>
+      </c>
+      <c r="D8" s="205"/>
+      <c r="E8" s="134" t="s">
+        <v>239</v>
+      </c>
+      <c r="F8" s="224" t="s">
+        <v>240</v>
+      </c>
+      <c r="G8" s="225" t="s">
+        <v>241</v>
+      </c>
+      <c r="H8" s="227" t="s">
+        <v>243</v>
+      </c>
+      <c r="I8" s="107"/>
       <c r="J8" s="38"/>
     </row>
     <row r="9" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="105">
+      <c r="B9" s="102">
         <v>5</v>
       </c>
-      <c r="C9" s="106"/>
-      <c r="D9" s="211"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="108"/>
-      <c r="G9" s="108"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="110"/>
+      <c r="C9" s="228" t="s">
+        <v>244</v>
+      </c>
+      <c r="D9" s="205"/>
+      <c r="E9" s="229" t="s">
+        <v>166</v>
+      </c>
+      <c r="F9" s="224" t="s">
+        <v>246</v>
+      </c>
+      <c r="G9" s="224" t="s">
+        <v>247</v>
+      </c>
+      <c r="H9" s="227" t="s">
+        <v>244</v>
+      </c>
+      <c r="I9" s="107"/>
       <c r="J9" s="38"/>
     </row>
     <row r="10" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="105">
+      <c r="B10" s="102">
         <v>6</v>
       </c>
-      <c r="C10" s="106"/>
-      <c r="D10" s="211"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="138"/>
-      <c r="H10" s="139"/>
-      <c r="I10" s="110" t="s">
-        <v>229</v>
+      <c r="C10" s="228" t="s">
+        <v>248</v>
+      </c>
+      <c r="D10" s="205"/>
+      <c r="E10" s="230" t="s">
+        <v>239</v>
+      </c>
+      <c r="F10" s="224" t="s">
+        <v>249</v>
+      </c>
+      <c r="G10" s="225" t="s">
+        <v>250</v>
+      </c>
+      <c r="H10" s="227" t="s">
+        <v>251</v>
+      </c>
+      <c r="I10" s="226" t="s">
+        <v>242</v>
       </c>
       <c r="J10" s="38"/>
     </row>
     <row r="11" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="105">
+      <c r="B11" s="102">
         <v>7</v>
       </c>
-      <c r="C11" s="106"/>
-      <c r="D11" s="212"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="110"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="206"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="107"/>
       <c r="J11" s="38"/>
     </row>
     <row r="12" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="105">
+      <c r="B12" s="102">
         <v>8</v>
       </c>
-      <c r="C12" s="111"/>
-      <c r="D12" s="213" t="s">
-        <v>169</v>
-      </c>
-      <c r="E12" s="112"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="110"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="207" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12" s="109"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="107"/>
       <c r="J12" s="38"/>
     </row>
     <row r="13" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="105">
+      <c r="B13" s="102">
         <v>9</v>
       </c>
-      <c r="C13" s="111"/>
-      <c r="D13" s="214"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="142"/>
-      <c r="I13" s="110" t="s">
-        <v>230</v>
+      <c r="C13" s="108"/>
+      <c r="D13" s="208"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="136"/>
+      <c r="G13" s="136"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="107" t="s">
+        <v>203</v>
       </c>
       <c r="J13" s="38"/>
     </row>
     <row r="14" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="105">
+      <c r="B14" s="102">
         <v>10</v>
       </c>
-      <c r="C14" s="111"/>
-      <c r="D14" s="214"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="110"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="208"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="107"/>
       <c r="J14" s="38"/>
     </row>
     <row r="15" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="105">
+      <c r="B15" s="102">
         <v>11</v>
       </c>
-      <c r="C15" s="111"/>
-      <c r="D15" s="214"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="110"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="208"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="107"/>
       <c r="J15" s="38"/>
     </row>
     <row r="16" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="105">
+      <c r="B16" s="102">
         <v>12</v>
       </c>
-      <c r="C16" s="111"/>
-      <c r="D16" s="214"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="110"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="208"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="107"/>
       <c r="J16" s="38"/>
     </row>
     <row r="17" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="105">
+      <c r="B17" s="102">
         <v>13</v>
       </c>
-      <c r="C17" s="111"/>
-      <c r="D17" s="214"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="110"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="208"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="107"/>
       <c r="J17" s="38"/>
     </row>
     <row r="18" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="105">
+      <c r="B18" s="102">
         <v>14</v>
       </c>
-      <c r="C18" s="111"/>
-      <c r="D18" s="214"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="114"/>
-      <c r="I18" s="110"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="208"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="107"/>
       <c r="J18" s="38"/>
     </row>
     <row r="19" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="105">
+      <c r="B19" s="102">
         <v>15</v>
       </c>
-      <c r="C19" s="111"/>
-      <c r="D19" s="214"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="110"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="208"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="111"/>
+      <c r="I19" s="107"/>
       <c r="J19" s="38"/>
     </row>
     <row r="20" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="105">
+      <c r="B20" s="102">
         <v>16</v>
       </c>
-      <c r="C20" s="115"/>
-      <c r="D20" s="215" t="s">
-        <v>170</v>
-      </c>
-      <c r="E20" s="116"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="110"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="209" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" s="113"/>
+      <c r="F20" s="114"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="107"/>
       <c r="J20" s="38"/>
     </row>
     <row r="21" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="105">
+      <c r="B21" s="102">
         <v>17</v>
       </c>
-      <c r="C21" s="115"/>
-      <c r="D21" s="216"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="110"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="210"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="115"/>
+      <c r="I21" s="107"/>
       <c r="J21" s="38"/>
     </row>
     <row r="22" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B22" s="105">
+      <c r="B22" s="102">
         <v>18</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="216"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="110"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="210"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="114"/>
+      <c r="G22" s="114"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="107"/>
       <c r="J22" s="38"/>
     </row>
     <row r="23" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B23" s="105">
+      <c r="B23" s="102">
         <v>19</v>
       </c>
-      <c r="C23" s="115"/>
-      <c r="D23" s="216"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="110"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="210"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="107"/>
       <c r="J23" s="38"/>
     </row>
     <row r="24" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B24" s="105">
+      <c r="B24" s="102">
         <v>20</v>
       </c>
-      <c r="C24" s="115"/>
-      <c r="D24" s="216"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="118"/>
-      <c r="I24" s="110"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="210"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="114"/>
+      <c r="H24" s="115"/>
+      <c r="I24" s="107"/>
       <c r="J24" s="38"/>
     </row>
     <row r="25" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B25" s="105">
+      <c r="B25" s="102">
         <v>21</v>
       </c>
-      <c r="C25" s="115"/>
-      <c r="D25" s="217"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="118"/>
-      <c r="I25" s="110"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="211"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="107"/>
       <c r="J25" s="38"/>
     </row>
     <row r="26" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B26" s="105">
+      <c r="B26" s="102">
         <v>22</v>
       </c>
-      <c r="C26" s="106"/>
-      <c r="D26" s="119"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="109"/>
-      <c r="I26" s="110"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="107"/>
       <c r="J26" s="38"/>
     </row>
     <row r="27" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B27" s="105">
+      <c r="B27" s="102">
         <v>23</v>
       </c>
-      <c r="C27" s="106"/>
-      <c r="D27" s="119"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="108"/>
-      <c r="G27" s="108"/>
-      <c r="H27" s="109"/>
-      <c r="I27" s="110"/>
+      <c r="C27" s="103"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="107"/>
       <c r="J27" s="38"/>
     </row>
     <row r="28" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B28" s="105">
+      <c r="B28" s="102">
         <v>24</v>
       </c>
-      <c r="C28" s="106"/>
-      <c r="D28" s="119"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="108"/>
-      <c r="H28" s="109"/>
-      <c r="I28" s="110"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="106"/>
+      <c r="I28" s="107"/>
       <c r="J28" s="38"/>
     </row>
     <row r="29" spans="2:10" ht="20.100000000000001" customHeight="1">
@@ -7087,7 +7236,7 @@
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7098,10 +7247,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O91"/>
+  <dimension ref="A1:O92"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="L68" sqref="L68"/>
+    <sheetView showGridLines="0" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -7142,8 +7291,8 @@
       <c r="A2" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="156" t="s">
-        <v>247</v>
+      <c r="B2" s="149" t="s">
+        <v>219</v>
       </c>
       <c r="C2" s="66"/>
       <c r="D2" s="66"/>
@@ -7183,15 +7332,15 @@
       <c r="B4" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="220" t="s">
-        <v>177</v>
-      </c>
-      <c r="D4" s="230"/>
-      <c r="E4" s="230"/>
-      <c r="F4" s="230"/>
-      <c r="G4" s="230"/>
-      <c r="H4" s="230"/>
-      <c r="I4" s="219"/>
+      <c r="C4" s="212" t="s">
+        <v>245</v>
+      </c>
+      <c r="D4" s="213"/>
+      <c r="E4" s="213"/>
+      <c r="F4" s="213"/>
+      <c r="G4" s="213"/>
+      <c r="H4" s="213"/>
+      <c r="I4" s="214"/>
       <c r="J4" s="66"/>
       <c r="K4" s="66"/>
       <c r="L4" s="66"/>
@@ -7204,15 +7353,15 @@
       <c r="B5" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="220" t="s">
-        <v>174</v>
-      </c>
-      <c r="D5" s="230"/>
-      <c r="E5" s="230"/>
-      <c r="F5" s="230"/>
-      <c r="G5" s="230"/>
-      <c r="H5" s="230"/>
-      <c r="I5" s="219"/>
+      <c r="C5" s="212" t="s">
+        <v>252</v>
+      </c>
+      <c r="D5" s="213"/>
+      <c r="E5" s="213"/>
+      <c r="F5" s="213"/>
+      <c r="G5" s="213"/>
+      <c r="H5" s="213"/>
+      <c r="I5" s="214"/>
       <c r="J5" s="66"/>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -7223,10 +7372,10 @@
     <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="66"/>
       <c r="B6" s="70" t="s">
-        <v>179</v>
-      </c>
-      <c r="C6" s="103" t="s">
-        <v>180</v>
+        <v>171</v>
+      </c>
+      <c r="C6" s="152" t="s">
+        <v>253</v>
       </c>
       <c r="D6" s="72"/>
       <c r="E6" s="72"/>
@@ -7244,17 +7393,17 @@
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="66"/>
       <c r="B7" s="70" t="s">
-        <v>191</v>
-      </c>
-      <c r="C7" s="220" t="s">
-        <v>171</v>
-      </c>
-      <c r="D7" s="230"/>
-      <c r="E7" s="230"/>
-      <c r="F7" s="230"/>
-      <c r="G7" s="230"/>
-      <c r="H7" s="230"/>
-      <c r="I7" s="219"/>
+        <v>179</v>
+      </c>
+      <c r="C7" s="212" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" s="213"/>
+      <c r="E7" s="213"/>
+      <c r="F7" s="213"/>
+      <c r="G7" s="213"/>
+      <c r="H7" s="213"/>
+      <c r="I7" s="214"/>
       <c r="J7" s="66"/>
       <c r="K7" s="66"/>
       <c r="L7" s="66"/>
@@ -7265,7 +7414,7 @@
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="66"/>
       <c r="B8" s="70" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C8" s="71" t="s">
         <v>24</v>
@@ -7286,17 +7435,17 @@
     <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="66"/>
       <c r="B9" s="70" t="s">
-        <v>225</v>
-      </c>
-      <c r="C9" s="220" t="s">
-        <v>226</v>
-      </c>
-      <c r="D9" s="230"/>
-      <c r="E9" s="230"/>
-      <c r="F9" s="230"/>
-      <c r="G9" s="230"/>
-      <c r="H9" s="230"/>
-      <c r="I9" s="219"/>
+        <v>200</v>
+      </c>
+      <c r="C9" s="212" t="s">
+        <v>254</v>
+      </c>
+      <c r="D9" s="213"/>
+      <c r="E9" s="213"/>
+      <c r="F9" s="213"/>
+      <c r="G9" s="213"/>
+      <c r="H9" s="213"/>
+      <c r="I9" s="214"/>
       <c r="J9" s="66"/>
       <c r="K9" s="66"/>
       <c r="L9" s="66"/>
@@ -7324,7 +7473,7 @@
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="66"/>
       <c r="B11" s="74" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C11" s="74"/>
       <c r="D11" s="66"/>
@@ -7359,19 +7508,19 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="66"/>
-      <c r="B13" s="226" t="s">
+      <c r="B13" s="215" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="227"/>
-      <c r="D13" s="227"/>
-      <c r="E13" s="227"/>
-      <c r="F13" s="227"/>
-      <c r="G13" s="227"/>
-      <c r="H13" s="227"/>
-      <c r="I13" s="227"/>
-      <c r="J13" s="227"/>
-      <c r="K13" s="227"/>
-      <c r="L13" s="228"/>
+      <c r="C13" s="216"/>
+      <c r="D13" s="216"/>
+      <c r="E13" s="216"/>
+      <c r="F13" s="216"/>
+      <c r="G13" s="216"/>
+      <c r="H13" s="216"/>
+      <c r="I13" s="216"/>
+      <c r="J13" s="216"/>
+      <c r="K13" s="216"/>
+      <c r="L13" s="217"/>
       <c r="M13" s="66"/>
       <c r="N13" s="66"/>
       <c r="O13" s="66"/>
@@ -7400,11 +7549,11 @@
       <c r="I14" s="76" t="s">
         <v>138</v>
       </c>
-      <c r="J14" s="235" t="s">
+      <c r="J14" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="235"/>
-      <c r="L14" s="235"/>
+      <c r="K14" s="219"/>
+      <c r="L14" s="220"/>
       <c r="M14" s="66"/>
       <c r="N14" s="66"/>
       <c r="O14" s="66"/>
@@ -7413,31 +7562,31 @@
       <c r="A15" s="66"/>
       <c r="B15" s="77"/>
       <c r="C15" s="78" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D15" s="79" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E15" s="80" t="s">
-        <v>183</v>
-      </c>
-      <c r="F15" s="80" t="s">
-        <v>206</v>
+        <v>174</v>
+      </c>
+      <c r="F15" s="231" t="s">
+        <v>255</v>
       </c>
       <c r="G15" s="80">
         <v>4</v>
       </c>
       <c r="H15" s="80">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I15" s="81" t="s">
-        <v>184</v>
-      </c>
-      <c r="J15" s="229" t="s">
-        <v>185</v>
-      </c>
-      <c r="K15" s="229"/>
-      <c r="L15" s="229"/>
+        <v>258</v>
+      </c>
+      <c r="J15" s="212" t="s">
+        <v>175</v>
+      </c>
+      <c r="K15" s="213"/>
+      <c r="L15" s="214"/>
       <c r="M15" s="66"/>
       <c r="N15" s="66"/>
       <c r="O15" s="66"/>
@@ -7446,31 +7595,31 @@
       <c r="A16" s="66"/>
       <c r="B16" s="77"/>
       <c r="C16" s="78" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D16" s="79" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="E16" s="80" t="s">
         <v>143</v>
       </c>
-      <c r="F16" s="80" t="s">
-        <v>206</v>
+      <c r="F16" s="231" t="s">
+        <v>255</v>
       </c>
       <c r="G16" s="80">
         <v>4</v>
       </c>
       <c r="H16" s="80">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I16" s="81" t="s">
-        <v>188</v>
-      </c>
-      <c r="J16" s="229" t="s">
-        <v>189</v>
-      </c>
-      <c r="K16" s="229"/>
-      <c r="L16" s="229"/>
+        <v>259</v>
+      </c>
+      <c r="J16" s="212" t="s">
+        <v>177</v>
+      </c>
+      <c r="K16" s="213"/>
+      <c r="L16" s="214"/>
       <c r="M16" s="66"/>
       <c r="N16" s="66"/>
       <c r="O16" s="66"/>
@@ -7479,28 +7628,28 @@
       <c r="A17" s="66"/>
       <c r="B17" s="77"/>
       <c r="C17" s="78" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="D17" s="79" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="E17" s="80" t="s">
-        <v>183</v>
-      </c>
-      <c r="F17" s="80" t="s">
-        <v>206</v>
+        <v>174</v>
+      </c>
+      <c r="F17" s="231" t="s">
+        <v>255</v>
       </c>
       <c r="G17" s="80" t="s">
         <v>140</v>
       </c>
       <c r="H17" s="80">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I17" s="81" t="s">
-        <v>196</v>
+        <v>260</v>
       </c>
       <c r="J17" s="71" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="K17" s="72"/>
       <c r="L17" s="73"/>
@@ -7512,331 +7661,333 @@
       <c r="A18" s="66"/>
       <c r="B18" s="77"/>
       <c r="C18" s="78" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="D18" s="79" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="E18" s="80" t="s">
         <v>144</v>
       </c>
-      <c r="F18" s="80" t="s">
-        <v>206</v>
+      <c r="F18" s="231" t="s">
+        <v>255</v>
       </c>
       <c r="G18" s="80" t="s">
         <v>140</v>
       </c>
       <c r="H18" s="80">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I18" s="79" t="s">
-        <v>197</v>
-      </c>
-      <c r="J18" s="220" t="s">
-        <v>200</v>
-      </c>
-      <c r="K18" s="230"/>
-      <c r="L18" s="219"/>
+        <v>261</v>
+      </c>
+      <c r="J18" s="212" t="s">
+        <v>186</v>
+      </c>
+      <c r="K18" s="213"/>
+      <c r="L18" s="214"/>
       <c r="M18" s="66"/>
       <c r="N18" s="66"/>
       <c r="O18" s="66"/>
     </row>
     <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="66"/>
-      <c r="B19" s="82"/>
+      <c r="B19" s="77"/>
       <c r="C19" s="78" t="s">
-        <v>202</v>
+        <v>256</v>
       </c>
       <c r="D19" s="79" t="s">
-        <v>203</v>
+        <v>257</v>
       </c>
       <c r="E19" s="80" t="s">
-        <v>144</v>
-      </c>
-      <c r="F19" s="80" t="s">
-        <v>206</v>
+        <v>174</v>
+      </c>
+      <c r="F19" s="231" t="s">
+        <v>255</v>
       </c>
       <c r="G19" s="80" t="s">
         <v>140</v>
       </c>
       <c r="H19" s="80">
-        <v>255</v>
-      </c>
-      <c r="I19" s="83" t="s">
-        <v>204</v>
-      </c>
-      <c r="J19" s="220" t="s">
-        <v>205</v>
-      </c>
-      <c r="K19" s="230"/>
-      <c r="L19" s="219"/>
+        <v>10</v>
+      </c>
+      <c r="I19" s="232">
+        <v>32517</v>
+      </c>
+      <c r="J19" s="152" t="s">
+        <v>256</v>
+      </c>
+      <c r="K19" s="153"/>
+      <c r="L19" s="151"/>
       <c r="M19" s="66"/>
       <c r="N19" s="66"/>
       <c r="O19" s="66"/>
     </row>
     <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="66"/>
-      <c r="B20" s="84"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="86"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="78" t="s">
+        <v>188</v>
+      </c>
+      <c r="D20" s="79" t="s">
+        <v>189</v>
+      </c>
+      <c r="E20" s="80" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" s="231" t="s">
+        <v>255</v>
+      </c>
+      <c r="G20" s="80" t="s">
+        <v>140</v>
+      </c>
+      <c r="H20" s="80">
+        <v>50</v>
+      </c>
+      <c r="I20" s="233" t="s">
+        <v>262</v>
+      </c>
+      <c r="J20" s="212" t="s">
+        <v>190</v>
+      </c>
+      <c r="K20" s="213"/>
+      <c r="L20" s="214"/>
       <c r="M20" s="66"/>
       <c r="N20" s="66"/>
       <c r="O20" s="66"/>
     </row>
     <row r="21" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="66"/>
-      <c r="B21" s="74" t="s">
-        <v>223</v>
-      </c>
+      <c r="B21" s="83"/>
       <c r="C21" s="84"/>
       <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="86"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="85"/>
       <c r="M21" s="66"/>
       <c r="N21" s="66"/>
       <c r="O21" s="66"/>
     </row>
     <row r="22" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="66"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="86"/>
+      <c r="B22" s="74" t="s">
+        <v>198</v>
+      </c>
+      <c r="C22" s="83"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="85"/>
       <c r="M22" s="66"/>
       <c r="N22" s="66"/>
       <c r="O22" s="66"/>
     </row>
     <row r="23" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="66"/>
-      <c r="B23" s="84"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="86"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="85"/>
       <c r="M23" s="66"/>
       <c r="N23" s="66"/>
       <c r="O23" s="66"/>
     </row>
     <row r="24" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="66"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="86"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="85"/>
       <c r="M24" s="66"/>
       <c r="N24" s="66"/>
       <c r="O24" s="66"/>
     </row>
     <row r="25" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="66"/>
-      <c r="B25" s="84"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="86"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="85"/>
       <c r="M25" s="66"/>
       <c r="N25" s="66"/>
       <c r="O25" s="66"/>
     </row>
     <row r="26" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="66"/>
-      <c r="B26" s="84"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="86"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="85"/>
       <c r="M26" s="66"/>
       <c r="N26" s="66"/>
       <c r="O26" s="66"/>
     </row>
     <row r="27" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="66"/>
-      <c r="B27" s="84"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="86"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="85"/>
       <c r="M27" s="66"/>
       <c r="N27" s="66"/>
       <c r="O27" s="66"/>
     </row>
     <row r="28" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="66"/>
-      <c r="B28" s="84"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="86"/>
-      <c r="K28" s="86"/>
-      <c r="L28" s="86"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="85"/>
       <c r="M28" s="66"/>
       <c r="N28" s="66"/>
       <c r="O28" s="66"/>
     </row>
-    <row r="29" spans="1:15" s="89" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="69"/>
-      <c r="B29" s="231" t="s">
-        <v>193</v>
-      </c>
-      <c r="C29" s="231"/>
-      <c r="D29" s="231"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
-      <c r="K29" s="87"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="69"/>
-      <c r="N29" s="69"/>
-      <c r="O29" s="69"/>
-    </row>
-    <row r="30" spans="1:15" s="91" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="90"/>
-      <c r="B30" s="223" t="s">
+    <row r="29" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="66"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="83"/>
+      <c r="E29" s="83"/>
+      <c r="F29" s="83"/>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="85"/>
+      <c r="L29" s="85"/>
+      <c r="M29" s="66"/>
+      <c r="N29" s="66"/>
+      <c r="O29" s="66"/>
+    </row>
+    <row r="30" spans="1:15" s="88" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="69"/>
+      <c r="B30" s="235" t="s">
+        <v>181</v>
+      </c>
+      <c r="C30" s="235"/>
+      <c r="D30" s="235"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="86"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="69"/>
+      <c r="N30" s="69"/>
+      <c r="O30" s="69"/>
+    </row>
+    <row r="31" spans="1:15" s="90" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="89"/>
+      <c r="B31" s="218" t="s">
         <v>133</v>
       </c>
-      <c r="C30" s="224"/>
-      <c r="D30" s="224"/>
-      <c r="E30" s="225"/>
-      <c r="F30" s="76" t="s">
+      <c r="C31" s="219"/>
+      <c r="D31" s="219"/>
+      <c r="E31" s="220"/>
+      <c r="F31" s="76" t="s">
         <v>132</v>
       </c>
-      <c r="G30" s="76" t="s">
+      <c r="G31" s="76" t="s">
         <v>134</v>
       </c>
-      <c r="H30" s="76" t="s">
+      <c r="H31" s="76" t="s">
         <v>135</v>
       </c>
-      <c r="I30" s="76" t="s">
+      <c r="I31" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="J30" s="76" t="s">
+      <c r="J31" s="76" t="s">
         <v>136</v>
       </c>
-      <c r="K30" s="76" t="s">
+      <c r="K31" s="76" t="s">
         <v>137</v>
       </c>
-      <c r="L30" s="76" t="s">
-        <v>227</v>
-      </c>
-      <c r="M30" s="90"/>
-      <c r="N30" s="90"/>
-      <c r="O30" s="90"/>
-    </row>
-    <row r="31" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="66"/>
-      <c r="B31" s="92" t="s">
-        <v>147</v>
-      </c>
-      <c r="C31" s="93"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="G31" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="H31" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="I31" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="J31" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="K31" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="L31" s="79"/>
-      <c r="M31" s="66"/>
-      <c r="N31" s="66"/>
-      <c r="O31" s="66"/>
+      <c r="L31" s="76" t="s">
+        <v>201</v>
+      </c>
+      <c r="M31" s="89"/>
+      <c r="N31" s="89"/>
+      <c r="O31" s="89"/>
     </row>
     <row r="32" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="66"/>
-      <c r="B32" s="92"/>
-      <c r="C32" s="95" t="s">
-        <v>209</v>
-      </c>
-      <c r="D32" s="96"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="78" t="s">
-        <v>207</v>
+      <c r="B32" s="91" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32" s="92"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="80" t="s">
+        <v>145</v>
       </c>
       <c r="G32" s="80" t="s">
         <v>145</v>
       </c>
       <c r="H32" s="80" t="s">
-        <v>206</v>
-      </c>
-      <c r="I32" s="80">
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="I32" s="80" t="s">
+        <v>145</v>
       </c>
       <c r="J32" s="80" t="s">
         <v>145</v>
       </c>
       <c r="K32" s="80" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="L32" s="79"/>
       <c r="M32" s="66"/>
@@ -7845,20 +7996,20 @@
     </row>
     <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="66"/>
-      <c r="B33" s="92"/>
-      <c r="C33" s="97"/>
-      <c r="D33" s="220" t="s">
-        <v>211</v>
-      </c>
-      <c r="E33" s="219"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="94" t="s">
+        <v>193</v>
+      </c>
+      <c r="D33" s="95"/>
+      <c r="E33" s="93"/>
       <c r="F33" s="78" t="s">
-        <v>148</v>
+        <v>192</v>
       </c>
       <c r="G33" s="80" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H33" s="80" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="I33" s="80">
         <v>1</v>
@@ -7867,31 +8018,29 @@
         <v>145</v>
       </c>
       <c r="K33" s="80" t="s">
-        <v>153</v>
-      </c>
-      <c r="L33" s="79" t="s">
-        <v>139</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="L33" s="79"/>
       <c r="M33" s="66"/>
       <c r="N33" s="66"/>
       <c r="O33" s="66"/>
     </row>
     <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="66"/>
-      <c r="B34" s="92"/>
-      <c r="C34" s="99"/>
-      <c r="D34" s="220" t="s">
-        <v>212</v>
-      </c>
-      <c r="E34" s="219"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="212" t="s">
+        <v>194</v>
+      </c>
+      <c r="E34" s="214"/>
       <c r="F34" s="78" t="s">
-        <v>213</v>
+        <v>148</v>
       </c>
       <c r="G34" s="80" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="H34" s="80" t="s">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="I34" s="80">
         <v>1</v>
@@ -7900,10 +8049,10 @@
         <v>145</v>
       </c>
       <c r="K34" s="80" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="L34" s="79" t="s">
-        <v>214</v>
+        <v>139</v>
       </c>
       <c r="M34" s="66"/>
       <c r="N34" s="66"/>
@@ -7911,20 +8060,20 @@
     </row>
     <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="66"/>
-      <c r="B35" s="92"/>
-      <c r="C35" s="95" t="s">
-        <v>210</v>
-      </c>
-      <c r="D35" s="96"/>
-      <c r="E35" s="94"/>
+      <c r="B35" s="236"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="212" t="s">
+        <v>195</v>
+      </c>
+      <c r="E35" s="214"/>
       <c r="F35" s="78" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="G35" s="80" t="s">
+        <v>149</v>
+      </c>
+      <c r="H35" s="80" t="s">
         <v>145</v>
-      </c>
-      <c r="H35" s="80" t="s">
-        <v>206</v>
       </c>
       <c r="I35" s="80">
         <v>1</v>
@@ -7933,10 +8082,10 @@
         <v>145</v>
       </c>
       <c r="K35" s="80" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="L35" s="79" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="M35" s="66"/>
       <c r="N35" s="66"/>
@@ -7944,828 +8093,718 @@
     </row>
     <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="66"/>
-      <c r="B36" s="92"/>
-      <c r="C36" s="102"/>
-      <c r="D36" s="220" t="s">
-        <v>215</v>
-      </c>
-      <c r="E36" s="219"/>
-      <c r="F36" s="78" t="s">
-        <v>217</v>
-      </c>
-      <c r="G36" s="80" t="s">
-        <v>154</v>
-      </c>
-      <c r="H36" s="80" t="s">
-        <v>206</v>
-      </c>
-      <c r="I36" s="80">
-        <v>1</v>
-      </c>
-      <c r="J36" s="80" t="s">
-        <v>153</v>
-      </c>
-      <c r="K36" s="80" t="s">
-        <v>140</v>
-      </c>
-      <c r="L36" s="79" t="s">
-        <v>216</v>
-      </c>
+      <c r="B36" s="83"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="83"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="99"/>
+      <c r="J36" s="99"/>
+      <c r="K36" s="99"/>
+      <c r="L36" s="83"/>
       <c r="M36" s="66"/>
       <c r="N36" s="66"/>
       <c r="O36" s="66"/>
     </row>
     <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="66"/>
-      <c r="B37" s="92"/>
-      <c r="C37" s="102"/>
-      <c r="D37" s="221" t="s">
-        <v>181</v>
-      </c>
-      <c r="E37" s="222"/>
-      <c r="F37" s="78" t="s">
-        <v>182</v>
-      </c>
-      <c r="G37" s="80" t="s">
-        <v>183</v>
-      </c>
-      <c r="H37" s="80" t="s">
-        <v>206</v>
-      </c>
-      <c r="I37" s="80">
-        <v>1</v>
-      </c>
-      <c r="J37" s="80" t="s">
-        <v>140</v>
-      </c>
-      <c r="K37" s="80" t="s">
-        <v>140</v>
-      </c>
-      <c r="L37" s="79" t="s">
-        <v>218</v>
-      </c>
+      <c r="B37" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="C37" s="92"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="83"/>
+      <c r="G37" s="99"/>
+      <c r="H37" s="99"/>
+      <c r="I37" s="99"/>
+      <c r="J37" s="99"/>
+      <c r="K37" s="99"/>
+      <c r="L37" s="83"/>
       <c r="M37" s="66"/>
       <c r="N37" s="66"/>
       <c r="O37" s="66"/>
     </row>
     <row r="38" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="66"/>
-      <c r="B38" s="92"/>
-      <c r="C38" s="97"/>
-      <c r="D38" s="220" t="s">
-        <v>201</v>
-      </c>
-      <c r="E38" s="219"/>
-      <c r="F38" s="78" t="s">
-        <v>194</v>
-      </c>
-      <c r="G38" s="80" t="s">
-        <v>183</v>
-      </c>
-      <c r="H38" s="80" t="s">
-        <v>206</v>
-      </c>
-      <c r="I38" s="80">
-        <v>1</v>
-      </c>
-      <c r="J38" s="80" t="s">
-        <v>153</v>
-      </c>
-      <c r="K38" s="80" t="s">
-        <v>140</v>
-      </c>
-      <c r="L38" s="79" t="s">
-        <v>219</v>
-      </c>
+      <c r="B38" s="83"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="83"/>
+      <c r="G38" s="99"/>
+      <c r="H38" s="99"/>
+      <c r="I38" s="99"/>
+      <c r="J38" s="99"/>
+      <c r="K38" s="99"/>
+      <c r="L38" s="83"/>
       <c r="M38" s="66"/>
       <c r="N38" s="66"/>
       <c r="O38" s="66"/>
     </row>
     <row r="39" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="66"/>
-      <c r="B39" s="92"/>
-      <c r="C39" s="97"/>
-      <c r="D39" s="71" t="s">
-        <v>199</v>
-      </c>
-      <c r="E39" s="73"/>
-      <c r="F39" s="78" t="s">
-        <v>195</v>
-      </c>
-      <c r="G39" s="80" t="s">
-        <v>183</v>
-      </c>
-      <c r="H39" s="80" t="s">
-        <v>206</v>
-      </c>
-      <c r="I39" s="80">
-        <v>1</v>
-      </c>
-      <c r="J39" s="80" t="s">
-        <v>140</v>
-      </c>
-      <c r="K39" s="80" t="s">
-        <v>140</v>
-      </c>
-      <c r="L39" s="79" t="s">
-        <v>220</v>
-      </c>
+      <c r="B39" s="83"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="83"/>
+      <c r="G39" s="99"/>
+      <c r="H39" s="99"/>
+      <c r="I39" s="99"/>
+      <c r="J39" s="99"/>
+      <c r="K39" s="99"/>
+      <c r="L39" s="83"/>
       <c r="M39" s="66"/>
       <c r="N39" s="66"/>
       <c r="O39" s="66"/>
     </row>
     <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="66"/>
-      <c r="B40" s="92"/>
-      <c r="C40" s="97"/>
-      <c r="D40" s="103" t="s">
-        <v>202</v>
-      </c>
-      <c r="E40" s="145"/>
-      <c r="F40" s="151" t="s">
-        <v>203</v>
-      </c>
-      <c r="G40" s="80" t="s">
-        <v>183</v>
-      </c>
-      <c r="H40" s="80" t="s">
-        <v>206</v>
-      </c>
-      <c r="I40" s="80">
-        <v>1</v>
-      </c>
-      <c r="J40" s="80" t="s">
-        <v>140</v>
-      </c>
-      <c r="K40" s="80" t="s">
-        <v>140</v>
-      </c>
-      <c r="L40" s="153" t="s">
-        <v>246</v>
-      </c>
+      <c r="B40" s="83"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="83"/>
+      <c r="G40" s="99"/>
+      <c r="H40" s="99"/>
+      <c r="I40" s="99"/>
+      <c r="J40" s="99"/>
+      <c r="K40" s="99"/>
+      <c r="L40" s="83"/>
       <c r="M40" s="66"/>
       <c r="N40" s="66"/>
       <c r="O40" s="66"/>
     </row>
     <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="66"/>
-      <c r="B41" s="98"/>
-      <c r="C41" s="99"/>
-      <c r="D41" s="220" t="s">
-        <v>149</v>
-      </c>
-      <c r="E41" s="219"/>
-      <c r="F41" s="78" t="s">
-        <v>150</v>
-      </c>
-      <c r="G41" s="80" t="s">
-        <v>151</v>
-      </c>
-      <c r="H41" s="80" t="s">
-        <v>206</v>
-      </c>
-      <c r="I41" s="80">
-        <v>1</v>
-      </c>
-      <c r="J41" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="K41" s="80" t="s">
-        <v>140</v>
-      </c>
-      <c r="L41" s="79" t="s">
-        <v>221</v>
-      </c>
+      <c r="B41" s="83"/>
+      <c r="C41" s="92"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="83"/>
+      <c r="G41" s="99"/>
+      <c r="H41" s="99"/>
+      <c r="I41" s="99"/>
+      <c r="J41" s="99"/>
+      <c r="K41" s="99"/>
+      <c r="L41" s="83"/>
       <c r="M41" s="66"/>
       <c r="N41" s="66"/>
       <c r="O41" s="66"/>
     </row>
     <row r="42" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="66"/>
-      <c r="B42" s="84"/>
-      <c r="C42" s="93"/>
-      <c r="D42" s="86"/>
-      <c r="E42" s="86"/>
-      <c r="F42" s="84"/>
-      <c r="G42" s="100"/>
-      <c r="H42" s="100"/>
-      <c r="I42" s="100"/>
-      <c r="J42" s="100"/>
-      <c r="K42" s="100"/>
-      <c r="L42" s="84"/>
+      <c r="B42" s="83"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="83"/>
+      <c r="G42" s="99"/>
+      <c r="H42" s="99"/>
+      <c r="I42" s="99"/>
+      <c r="J42" s="99"/>
+      <c r="K42" s="99"/>
+      <c r="L42" s="83"/>
       <c r="M42" s="66"/>
       <c r="N42" s="66"/>
       <c r="O42" s="66"/>
     </row>
     <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="66"/>
-      <c r="B43" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="C43" s="93"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="84"/>
-      <c r="G43" s="100"/>
-      <c r="H43" s="100"/>
-      <c r="I43" s="100"/>
-      <c r="J43" s="100"/>
-      <c r="K43" s="100"/>
-      <c r="L43" s="84"/>
+      <c r="B43" s="83"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="85"/>
+      <c r="E43" s="85"/>
+      <c r="F43" s="83"/>
+      <c r="G43" s="99"/>
+      <c r="H43" s="99"/>
+      <c r="I43" s="99"/>
+      <c r="J43" s="99"/>
+      <c r="K43" s="99"/>
+      <c r="L43" s="83"/>
       <c r="M43" s="66"/>
       <c r="N43" s="66"/>
       <c r="O43" s="66"/>
     </row>
     <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="66"/>
-      <c r="B44" s="84"/>
-      <c r="C44" s="93"/>
-      <c r="D44" s="86"/>
-      <c r="E44" s="86"/>
-      <c r="F44" s="84"/>
-      <c r="G44" s="100"/>
-      <c r="H44" s="100"/>
-      <c r="I44" s="100"/>
-      <c r="J44" s="100"/>
-      <c r="K44" s="100"/>
-      <c r="L44" s="84"/>
+      <c r="B44" s="83"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="85"/>
+      <c r="F44" s="83"/>
+      <c r="G44" s="99"/>
+      <c r="H44" s="99"/>
+      <c r="I44" s="99"/>
+      <c r="J44" s="99"/>
+      <c r="K44" s="99"/>
+      <c r="L44" s="83"/>
       <c r="M44" s="66"/>
       <c r="N44" s="66"/>
       <c r="O44" s="66"/>
     </row>
     <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="66"/>
-      <c r="B45" s="84"/>
-      <c r="C45" s="93"/>
-      <c r="D45" s="86"/>
-      <c r="E45" s="86"/>
-      <c r="F45" s="84"/>
-      <c r="G45" s="100"/>
-      <c r="H45" s="100"/>
-      <c r="I45" s="100"/>
-      <c r="J45" s="100"/>
-      <c r="K45" s="100"/>
-      <c r="L45" s="84"/>
+      <c r="B45" s="83"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="85"/>
+      <c r="F45" s="83"/>
+      <c r="G45" s="99"/>
+      <c r="H45" s="99"/>
+      <c r="I45" s="99"/>
+      <c r="J45" s="99"/>
+      <c r="K45" s="99"/>
+      <c r="L45" s="83"/>
       <c r="M45" s="66"/>
       <c r="N45" s="66"/>
       <c r="O45" s="66"/>
     </row>
     <row r="46" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="66"/>
-      <c r="B46" s="84"/>
-      <c r="C46" s="93"/>
-      <c r="D46" s="86"/>
-      <c r="E46" s="86"/>
-      <c r="F46" s="84"/>
-      <c r="G46" s="100"/>
-      <c r="H46" s="100"/>
-      <c r="I46" s="100"/>
-      <c r="J46" s="100"/>
-      <c r="K46" s="100"/>
-      <c r="L46" s="84"/>
+      <c r="B46" s="83"/>
+      <c r="C46" s="92"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="83"/>
+      <c r="G46" s="99"/>
+      <c r="H46" s="99"/>
+      <c r="I46" s="99"/>
+      <c r="J46" s="99"/>
+      <c r="K46" s="99"/>
+      <c r="L46" s="83"/>
       <c r="M46" s="66"/>
       <c r="N46" s="66"/>
       <c r="O46" s="66"/>
     </row>
     <row r="47" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="66"/>
-      <c r="B47" s="84"/>
-      <c r="C47" s="93"/>
-      <c r="D47" s="86"/>
-      <c r="E47" s="86"/>
-      <c r="F47" s="84"/>
-      <c r="G47" s="100"/>
-      <c r="H47" s="100"/>
-      <c r="I47" s="100"/>
-      <c r="J47" s="100"/>
-      <c r="K47" s="100"/>
-      <c r="L47" s="84"/>
+      <c r="B47" s="83"/>
+      <c r="C47" s="92"/>
+      <c r="D47" s="85"/>
+      <c r="E47" s="85"/>
+      <c r="F47" s="83"/>
+      <c r="G47" s="99"/>
+      <c r="H47" s="99"/>
+      <c r="I47" s="99"/>
+      <c r="J47" s="99"/>
+      <c r="K47" s="99"/>
+      <c r="L47" s="83"/>
       <c r="M47" s="66"/>
       <c r="N47" s="66"/>
       <c r="O47" s="66"/>
     </row>
     <row r="48" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="66"/>
-      <c r="B48" s="84"/>
-      <c r="C48" s="93"/>
-      <c r="D48" s="86"/>
-      <c r="E48" s="86"/>
-      <c r="F48" s="84"/>
-      <c r="G48" s="100"/>
-      <c r="H48" s="100"/>
-      <c r="I48" s="100"/>
-      <c r="J48" s="100"/>
-      <c r="K48" s="100"/>
-      <c r="L48" s="84"/>
+      <c r="B48" s="83"/>
+      <c r="C48" s="92"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="85"/>
+      <c r="F48" s="83"/>
+      <c r="G48" s="99"/>
+      <c r="H48" s="99"/>
+      <c r="I48" s="99"/>
+      <c r="J48" s="99"/>
+      <c r="K48" s="99"/>
+      <c r="L48" s="83"/>
       <c r="M48" s="66"/>
       <c r="N48" s="66"/>
       <c r="O48" s="66"/>
     </row>
     <row r="49" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="66"/>
-      <c r="B49" s="84"/>
-      <c r="C49" s="93"/>
-      <c r="D49" s="86"/>
-      <c r="E49" s="86"/>
-      <c r="F49" s="84"/>
-      <c r="G49" s="100"/>
-      <c r="H49" s="100"/>
-      <c r="I49" s="100"/>
-      <c r="J49" s="100"/>
-      <c r="K49" s="100"/>
-      <c r="L49" s="84"/>
+      <c r="B49" s="83"/>
+      <c r="C49" s="92"/>
+      <c r="D49" s="85"/>
+      <c r="E49" s="85"/>
+      <c r="F49" s="83"/>
+      <c r="G49" s="99"/>
+      <c r="H49" s="99"/>
+      <c r="I49" s="99"/>
+      <c r="J49" s="99"/>
+      <c r="K49" s="99"/>
+      <c r="L49" s="83"/>
       <c r="M49" s="66"/>
       <c r="N49" s="66"/>
       <c r="O49" s="66"/>
     </row>
     <row r="50" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="66"/>
-      <c r="B50" s="84"/>
-      <c r="C50" s="93"/>
-      <c r="D50" s="86"/>
-      <c r="E50" s="86"/>
-      <c r="F50" s="84"/>
-      <c r="G50" s="100"/>
-      <c r="H50" s="100"/>
-      <c r="I50" s="100"/>
-      <c r="J50" s="100"/>
-      <c r="K50" s="100"/>
-      <c r="L50" s="84"/>
+      <c r="B50" s="83"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="85"/>
+      <c r="E50" s="85"/>
+      <c r="F50" s="83"/>
+      <c r="G50" s="99"/>
+      <c r="H50" s="99"/>
+      <c r="I50" s="99"/>
+      <c r="J50" s="99"/>
+      <c r="K50" s="99"/>
+      <c r="L50" s="83"/>
       <c r="M50" s="66"/>
       <c r="N50" s="66"/>
       <c r="O50" s="66"/>
     </row>
     <row r="51" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="66"/>
-      <c r="B51" s="84"/>
-      <c r="C51" s="93"/>
-      <c r="D51" s="86"/>
-      <c r="E51" s="86"/>
-      <c r="F51" s="84"/>
-      <c r="G51" s="100"/>
-      <c r="H51" s="100"/>
-      <c r="I51" s="100"/>
-      <c r="J51" s="100"/>
-      <c r="K51" s="100"/>
-      <c r="L51" s="84"/>
+      <c r="B51" s="83"/>
+      <c r="C51" s="92"/>
+      <c r="D51" s="85"/>
+      <c r="E51" s="85"/>
+      <c r="F51" s="83"/>
+      <c r="G51" s="99"/>
+      <c r="H51" s="99"/>
+      <c r="I51" s="99"/>
+      <c r="J51" s="99"/>
+      <c r="K51" s="99"/>
+      <c r="L51" s="83"/>
       <c r="M51" s="66"/>
       <c r="N51" s="66"/>
       <c r="O51" s="66"/>
     </row>
     <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A52" s="66"/>
-      <c r="B52" s="84"/>
-      <c r="C52" s="93"/>
-      <c r="D52" s="86"/>
-      <c r="E52" s="86"/>
-      <c r="F52" s="84"/>
-      <c r="G52" s="100"/>
-      <c r="H52" s="100"/>
-      <c r="I52" s="100"/>
-      <c r="J52" s="100"/>
-      <c r="K52" s="100"/>
-      <c r="L52" s="84"/>
+      <c r="B52" s="83"/>
+      <c r="C52" s="92"/>
+      <c r="D52" s="85"/>
+      <c r="E52" s="85"/>
+      <c r="F52" s="83"/>
+      <c r="G52" s="99"/>
+      <c r="H52" s="99"/>
+      <c r="I52" s="99"/>
+      <c r="J52" s="99"/>
+      <c r="K52" s="99"/>
+      <c r="L52" s="83"/>
       <c r="M52" s="66"/>
       <c r="N52" s="66"/>
       <c r="O52" s="66"/>
     </row>
     <row r="53" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="66"/>
-      <c r="B53" s="84"/>
-      <c r="C53" s="93"/>
-      <c r="D53" s="86"/>
-      <c r="E53" s="86"/>
-      <c r="F53" s="84"/>
-      <c r="G53" s="100"/>
-      <c r="H53" s="100"/>
-      <c r="I53" s="100"/>
-      <c r="J53" s="100"/>
-      <c r="K53" s="100"/>
-      <c r="L53" s="84"/>
+      <c r="B53" s="66"/>
+      <c r="C53" s="66"/>
+      <c r="D53" s="66"/>
+      <c r="E53" s="66"/>
+      <c r="F53" s="66"/>
+      <c r="G53" s="66"/>
+      <c r="H53" s="66"/>
+      <c r="I53" s="66"/>
+      <c r="J53" s="66"/>
+      <c r="K53" s="66"/>
+      <c r="L53" s="66"/>
       <c r="M53" s="66"/>
       <c r="N53" s="66"/>
       <c r="O53" s="66"/>
     </row>
     <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="66"/>
-      <c r="B54" s="84"/>
-      <c r="C54" s="93"/>
-      <c r="D54" s="86"/>
-      <c r="E54" s="86"/>
-      <c r="F54" s="84"/>
-      <c r="G54" s="100"/>
-      <c r="H54" s="100"/>
-      <c r="I54" s="100"/>
-      <c r="J54" s="100"/>
-      <c r="K54" s="100"/>
-      <c r="L54" s="84"/>
+      <c r="B54" s="235" t="s">
+        <v>150</v>
+      </c>
+      <c r="C54" s="235"/>
+      <c r="D54" s="235"/>
+      <c r="E54" s="66"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="66"/>
+      <c r="H54" s="66"/>
+      <c r="I54" s="66"/>
+      <c r="J54" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="K54" s="66"/>
+      <c r="L54" s="66"/>
       <c r="M54" s="66"/>
       <c r="N54" s="66"/>
       <c r="O54" s="66"/>
     </row>
     <row r="55" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="66"/>
-      <c r="B55" s="84"/>
-      <c r="C55" s="93"/>
-      <c r="D55" s="86"/>
-      <c r="E55" s="86"/>
-      <c r="F55" s="84"/>
-      <c r="G55" s="100"/>
-      <c r="H55" s="100"/>
-      <c r="I55" s="100"/>
-      <c r="J55" s="100"/>
-      <c r="K55" s="100"/>
-      <c r="L55" s="84"/>
+      <c r="B55" s="218" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55" s="219"/>
+      <c r="D55" s="219"/>
+      <c r="E55" s="220"/>
+      <c r="F55" s="76" t="s">
+        <v>132</v>
+      </c>
+      <c r="G55" s="76" t="s">
+        <v>134</v>
+      </c>
+      <c r="H55" s="76" t="s">
+        <v>135</v>
+      </c>
+      <c r="I55" s="76" t="s">
+        <v>146</v>
+      </c>
+      <c r="J55" s="76" t="s">
+        <v>136</v>
+      </c>
+      <c r="K55" s="76" t="s">
+        <v>137</v>
+      </c>
+      <c r="L55" s="76" t="s">
+        <v>0</v>
+      </c>
       <c r="M55" s="66"/>
       <c r="N55" s="66"/>
       <c r="O55" s="66"/>
     </row>
     <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="66"/>
-      <c r="B56" s="84"/>
-      <c r="C56" s="93"/>
-      <c r="D56" s="86"/>
-      <c r="E56" s="86"/>
-      <c r="F56" s="84"/>
-      <c r="G56" s="100"/>
-      <c r="H56" s="100"/>
-      <c r="I56" s="100"/>
-      <c r="J56" s="100"/>
-      <c r="K56" s="100"/>
-      <c r="L56" s="84"/>
+      <c r="B56" s="91" t="s">
+        <v>147</v>
+      </c>
+      <c r="C56" s="92"/>
+      <c r="D56" s="92"/>
+      <c r="E56" s="93"/>
+      <c r="F56" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="G56" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="H56" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="I56" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="J56" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="K56" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="L56" s="79"/>
       <c r="M56" s="66"/>
       <c r="N56" s="66"/>
       <c r="O56" s="66"/>
     </row>
     <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="66"/>
-      <c r="B57" s="84"/>
-      <c r="C57" s="93"/>
-      <c r="D57" s="86"/>
-      <c r="E57" s="86"/>
-      <c r="F57" s="84"/>
-      <c r="G57" s="100"/>
-      <c r="H57" s="100"/>
-      <c r="I57" s="100"/>
-      <c r="J57" s="100"/>
-      <c r="K57" s="100"/>
-      <c r="L57" s="84"/>
+      <c r="B57" s="91"/>
+      <c r="C57" s="94" t="s">
+        <v>193</v>
+      </c>
+      <c r="D57" s="95"/>
+      <c r="E57" s="93"/>
+      <c r="F57" s="78" t="s">
+        <v>192</v>
+      </c>
+      <c r="G57" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="H57" s="80" t="s">
+        <v>191</v>
+      </c>
+      <c r="I57" s="80">
+        <v>1</v>
+      </c>
+      <c r="J57" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="K57" s="80" t="s">
+        <v>151</v>
+      </c>
+      <c r="L57" s="79"/>
       <c r="M57" s="66"/>
       <c r="N57" s="66"/>
       <c r="O57" s="66"/>
     </row>
     <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="66"/>
-      <c r="B58" s="84"/>
-      <c r="C58" s="93"/>
-      <c r="D58" s="86"/>
-      <c r="E58" s="86"/>
-      <c r="F58" s="84"/>
-      <c r="G58" s="100"/>
-      <c r="H58" s="100"/>
-      <c r="I58" s="100"/>
-      <c r="J58" s="100"/>
-      <c r="K58" s="100"/>
-      <c r="L58" s="84"/>
+      <c r="B58" s="91"/>
+      <c r="C58" s="96"/>
+      <c r="D58" s="221" t="s">
+        <v>194</v>
+      </c>
+      <c r="E58" s="222"/>
+      <c r="F58" s="78" t="s">
+        <v>148</v>
+      </c>
+      <c r="G58" s="80" t="s">
+        <v>141</v>
+      </c>
+      <c r="H58" s="80" t="s">
+        <v>191</v>
+      </c>
+      <c r="I58" s="80">
+        <v>1</v>
+      </c>
+      <c r="J58" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="K58" s="80" t="s">
+        <v>151</v>
+      </c>
+      <c r="L58" s="147" t="s">
+        <v>212</v>
+      </c>
       <c r="M58" s="66"/>
       <c r="N58" s="66"/>
       <c r="O58" s="66"/>
     </row>
     <row r="59" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="66"/>
-      <c r="B59" s="66"/>
-      <c r="C59" s="66"/>
-      <c r="D59" s="66"/>
-      <c r="E59" s="66"/>
-      <c r="F59" s="66"/>
-      <c r="G59" s="66"/>
-      <c r="H59" s="66"/>
-      <c r="I59" s="66"/>
-      <c r="J59" s="66"/>
-      <c r="K59" s="66"/>
-      <c r="L59" s="66"/>
+      <c r="B59" s="91"/>
+      <c r="C59" s="96"/>
+      <c r="D59" s="221" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="222"/>
+      <c r="F59" s="145" t="s">
+        <v>210</v>
+      </c>
+      <c r="G59" s="146" t="s">
+        <v>174</v>
+      </c>
+      <c r="H59" s="80" t="s">
+        <v>191</v>
+      </c>
+      <c r="I59" s="80">
+        <v>1</v>
+      </c>
+      <c r="J59" s="146" t="s">
+        <v>140</v>
+      </c>
+      <c r="K59" s="146" t="s">
+        <v>140</v>
+      </c>
+      <c r="L59" s="147" t="s">
+        <v>211</v>
+      </c>
       <c r="M59" s="66"/>
       <c r="N59" s="66"/>
       <c r="O59" s="66"/>
     </row>
     <row r="60" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="66"/>
-      <c r="B60" s="232" t="s">
-        <v>152</v>
-      </c>
-      <c r="C60" s="232"/>
-      <c r="D60" s="232"/>
-      <c r="E60" s="66"/>
-      <c r="F60" s="66"/>
-      <c r="G60" s="66"/>
-      <c r="H60" s="66"/>
-      <c r="I60" s="66"/>
-      <c r="J60" s="66" t="s">
+      <c r="B60" s="91"/>
+      <c r="C60" s="96"/>
+      <c r="D60" s="223" t="s">
+        <v>215</v>
+      </c>
+      <c r="E60" s="234"/>
+      <c r="F60" s="145" t="s">
+        <v>213</v>
+      </c>
+      <c r="G60" s="80" t="s">
         <v>145</v>
       </c>
-      <c r="K60" s="66"/>
-      <c r="L60" s="66"/>
+      <c r="H60" s="80" t="s">
+        <v>191</v>
+      </c>
+      <c r="I60" s="80">
+        <v>1</v>
+      </c>
+      <c r="J60" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="K60" s="80" t="s">
+        <v>151</v>
+      </c>
+      <c r="L60" s="147" t="s">
+        <v>218</v>
+      </c>
       <c r="M60" s="66"/>
       <c r="N60" s="66"/>
       <c r="O60" s="66"/>
     </row>
-    <row r="61" spans="1:15" s="91" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A61" s="90"/>
-      <c r="B61" s="223" t="s">
-        <v>133</v>
-      </c>
-      <c r="C61" s="224"/>
-      <c r="D61" s="224"/>
-      <c r="E61" s="225"/>
-      <c r="F61" s="76" t="s">
-        <v>132</v>
-      </c>
-      <c r="G61" s="76" t="s">
-        <v>134</v>
-      </c>
-      <c r="H61" s="76" t="s">
-        <v>135</v>
-      </c>
-      <c r="I61" s="76" t="s">
-        <v>146</v>
-      </c>
-      <c r="J61" s="76" t="s">
-        <v>136</v>
-      </c>
-      <c r="K61" s="76" t="s">
-        <v>137</v>
-      </c>
-      <c r="L61" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="M61" s="90"/>
-      <c r="N61" s="90"/>
-      <c r="O61" s="90"/>
-    </row>
-    <row r="62" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A62" s="66"/>
-      <c r="B62" s="92" t="s">
-        <v>147</v>
-      </c>
-      <c r="C62" s="93"/>
-      <c r="D62" s="93"/>
-      <c r="E62" s="94"/>
-      <c r="F62" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="G62" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="H62" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="I62" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="J62" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="K62" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="L62" s="79"/>
-      <c r="M62" s="66"/>
-      <c r="N62" s="66"/>
-      <c r="O62" s="66"/>
+    <row r="61" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A61" s="66"/>
+      <c r="B61" s="97"/>
+      <c r="C61" s="237"/>
+      <c r="D61" s="238"/>
+      <c r="E61" s="148" t="s">
+        <v>216</v>
+      </c>
+      <c r="F61" s="145" t="s">
+        <v>196</v>
+      </c>
+      <c r="G61" s="146" t="s">
+        <v>174</v>
+      </c>
+      <c r="H61" s="80" t="s">
+        <v>191</v>
+      </c>
+      <c r="I61" s="146" t="s">
+        <v>214</v>
+      </c>
+      <c r="J61" s="146" t="s">
+        <v>140</v>
+      </c>
+      <c r="K61" s="146" t="s">
+        <v>140</v>
+      </c>
+      <c r="L61" s="147" t="s">
+        <v>217</v>
+      </c>
+      <c r="M61" s="66"/>
+      <c r="N61" s="66"/>
+      <c r="O61" s="66"/>
+    </row>
+    <row r="62" spans="1:15" s="90" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A62" s="89"/>
+      <c r="B62" s="83"/>
+      <c r="C62" s="92"/>
+      <c r="D62" s="85"/>
+      <c r="E62" s="85"/>
+      <c r="F62" s="83"/>
+      <c r="G62" s="99"/>
+      <c r="H62" s="99"/>
+      <c r="I62" s="99"/>
+      <c r="J62" s="99"/>
+      <c r="K62" s="99"/>
+      <c r="L62" s="83"/>
+      <c r="M62" s="89"/>
+      <c r="N62" s="89"/>
+      <c r="O62" s="89"/>
     </row>
     <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="66"/>
-      <c r="B63" s="92"/>
-      <c r="C63" s="95" t="s">
-        <v>209</v>
-      </c>
-      <c r="D63" s="96"/>
-      <c r="E63" s="94"/>
-      <c r="F63" s="78" t="s">
-        <v>207</v>
-      </c>
-      <c r="G63" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="H63" s="80" t="s">
-        <v>206</v>
-      </c>
-      <c r="I63" s="80">
-        <v>1</v>
-      </c>
-      <c r="J63" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="K63" s="80" t="s">
-        <v>153</v>
-      </c>
-      <c r="L63" s="79"/>
+      <c r="B63" s="74" t="s">
+        <v>199</v>
+      </c>
+      <c r="C63" s="66"/>
+      <c r="D63" s="66"/>
+      <c r="E63" s="66"/>
+      <c r="F63" s="66"/>
+      <c r="G63" s="66"/>
+      <c r="H63" s="66"/>
+      <c r="I63" s="66"/>
+      <c r="J63" s="66"/>
+      <c r="K63" s="66"/>
+      <c r="L63" s="66"/>
       <c r="M63" s="66"/>
       <c r="N63" s="66"/>
       <c r="O63" s="66"/>
     </row>
     <row r="64" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="66"/>
-      <c r="B64" s="92"/>
-      <c r="C64" s="97"/>
-      <c r="D64" s="218" t="s">
-        <v>211</v>
-      </c>
-      <c r="E64" s="219"/>
-      <c r="F64" s="78" t="s">
-        <v>148</v>
-      </c>
-      <c r="G64" s="80" t="s">
-        <v>141</v>
-      </c>
-      <c r="H64" s="80" t="s">
-        <v>206</v>
-      </c>
-      <c r="I64" s="80">
-        <v>1</v>
-      </c>
-      <c r="J64" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="K64" s="80" t="s">
-        <v>153</v>
-      </c>
-      <c r="L64" s="153" t="s">
-        <v>239</v>
-      </c>
+      <c r="B64" s="66"/>
+      <c r="C64" s="66"/>
+      <c r="D64" s="66"/>
+      <c r="E64" s="66"/>
+      <c r="F64" s="66"/>
+      <c r="G64" s="66"/>
+      <c r="H64" s="66"/>
+      <c r="I64" s="66"/>
+      <c r="J64" s="66"/>
+      <c r="K64" s="66"/>
+      <c r="L64" s="66"/>
       <c r="M64" s="66"/>
       <c r="N64" s="66"/>
       <c r="O64" s="66"/>
     </row>
     <row r="65" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="66"/>
-      <c r="B65" s="92"/>
-      <c r="C65" s="97"/>
-      <c r="D65" s="218" t="s">
-        <v>0</v>
-      </c>
-      <c r="E65" s="233"/>
-      <c r="F65" s="151" t="s">
-        <v>237</v>
-      </c>
-      <c r="G65" s="152" t="s">
-        <v>183</v>
-      </c>
-      <c r="H65" s="80" t="s">
-        <v>206</v>
-      </c>
-      <c r="I65" s="80">
-        <v>1</v>
-      </c>
-      <c r="J65" s="152" t="s">
-        <v>140</v>
-      </c>
-      <c r="K65" s="152" t="s">
-        <v>140</v>
-      </c>
-      <c r="L65" s="153" t="s">
-        <v>238</v>
-      </c>
+      <c r="B65" s="66"/>
+      <c r="C65" s="66"/>
+      <c r="D65" s="66"/>
+      <c r="E65" s="66"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="66"/>
+      <c r="H65" s="66"/>
+      <c r="I65" s="66"/>
+      <c r="J65" s="66"/>
+      <c r="K65" s="66"/>
+      <c r="L65" s="66"/>
       <c r="M65" s="66"/>
       <c r="N65" s="66"/>
       <c r="O65" s="66"/>
     </row>
     <row r="66" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="66"/>
-      <c r="B66" s="92"/>
-      <c r="C66" s="97"/>
-      <c r="D66" s="234" t="s">
-        <v>242</v>
-      </c>
-      <c r="E66" s="233"/>
-      <c r="F66" s="151" t="s">
-        <v>240</v>
-      </c>
-      <c r="G66" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="H66" s="80" t="s">
-        <v>206</v>
-      </c>
-      <c r="I66" s="80">
-        <v>1</v>
-      </c>
-      <c r="J66" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="K66" s="80" t="s">
-        <v>153</v>
-      </c>
-      <c r="L66" s="153" t="s">
-        <v>245</v>
-      </c>
+      <c r="B66" s="66"/>
+      <c r="C66" s="66"/>
+      <c r="D66" s="66"/>
+      <c r="E66" s="66"/>
+      <c r="F66" s="66"/>
+      <c r="G66" s="66"/>
+      <c r="H66" s="66"/>
+      <c r="I66" s="66"/>
+      <c r="J66" s="66"/>
+      <c r="K66" s="66"/>
+      <c r="L66" s="66"/>
       <c r="M66" s="66"/>
       <c r="N66" s="66"/>
       <c r="O66" s="66"/>
     </row>
     <row r="67" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="66"/>
-      <c r="B67" s="92"/>
-      <c r="C67" s="102"/>
-      <c r="D67" s="155"/>
-      <c r="E67" s="154" t="s">
-        <v>243</v>
-      </c>
-      <c r="F67" s="151" t="s">
-        <v>213</v>
-      </c>
-      <c r="G67" s="152" t="s">
-        <v>183</v>
-      </c>
-      <c r="H67" s="80" t="s">
-        <v>206</v>
-      </c>
-      <c r="I67" s="152" t="s">
-        <v>241</v>
-      </c>
-      <c r="J67" s="152" t="s">
-        <v>140</v>
-      </c>
-      <c r="K67" s="152" t="s">
-        <v>140</v>
-      </c>
-      <c r="L67" s="153" t="s">
-        <v>244</v>
-      </c>
+      <c r="B67" s="66"/>
+      <c r="C67" s="66"/>
+      <c r="D67" s="66"/>
+      <c r="E67" s="66"/>
+      <c r="F67" s="66"/>
+      <c r="G67" s="66"/>
+      <c r="H67" s="66"/>
+      <c r="I67" s="66"/>
+      <c r="J67" s="66"/>
+      <c r="K67" s="66"/>
+      <c r="L67" s="66"/>
       <c r="M67" s="66"/>
       <c r="N67" s="66"/>
       <c r="O67" s="66"/>
     </row>
     <row r="68" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="66"/>
-      <c r="B68" s="92"/>
-      <c r="C68" s="95" t="s">
-        <v>210</v>
-      </c>
-      <c r="D68" s="96"/>
-      <c r="E68" s="94"/>
-      <c r="F68" s="78" t="s">
-        <v>208</v>
-      </c>
-      <c r="G68" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="H68" s="80" t="s">
-        <v>206</v>
-      </c>
-      <c r="I68" s="80">
-        <v>1</v>
-      </c>
-      <c r="J68" s="80" t="s">
-        <v>145</v>
-      </c>
-      <c r="K68" s="80" t="s">
-        <v>153</v>
-      </c>
-      <c r="L68" s="79"/>
+      <c r="B68" s="66"/>
+      <c r="C68" s="66"/>
+      <c r="D68" s="66"/>
+      <c r="E68" s="66"/>
+      <c r="F68" s="66"/>
+      <c r="G68" s="66"/>
+      <c r="H68" s="66"/>
+      <c r="I68" s="66"/>
+      <c r="J68" s="66"/>
+      <c r="K68" s="66"/>
+      <c r="L68" s="66"/>
       <c r="M68" s="66"/>
       <c r="N68" s="66"/>
       <c r="O68" s="66"/>
     </row>
     <row r="69" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="66"/>
-      <c r="B69" s="98"/>
-      <c r="C69" s="99"/>
-      <c r="D69" s="220"/>
-      <c r="E69" s="219"/>
-      <c r="F69" s="78"/>
-      <c r="G69" s="80"/>
-      <c r="H69" s="80"/>
-      <c r="I69" s="80"/>
-      <c r="J69" s="80"/>
-      <c r="K69" s="80"/>
-      <c r="L69" s="79"/>
+      <c r="B69" s="66"/>
+      <c r="C69" s="66"/>
+      <c r="D69" s="66"/>
+      <c r="E69" s="66"/>
+      <c r="F69" s="66"/>
+      <c r="G69" s="66"/>
+      <c r="H69" s="66"/>
+      <c r="I69" s="66"/>
+      <c r="J69" s="66"/>
+      <c r="K69" s="66"/>
+      <c r="L69" s="66"/>
       <c r="M69" s="66"/>
       <c r="N69" s="66"/>
       <c r="O69" s="66"/>
     </row>
     <row r="70" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="66"/>
-      <c r="B70" s="84"/>
-      <c r="C70" s="93"/>
-      <c r="D70" s="86"/>
-      <c r="E70" s="86"/>
-      <c r="F70" s="84"/>
-      <c r="G70" s="100"/>
-      <c r="H70" s="100"/>
-      <c r="I70" s="100"/>
-      <c r="J70" s="100"/>
-      <c r="K70" s="100"/>
-      <c r="L70" s="84"/>
+      <c r="B70" s="66"/>
+      <c r="C70" s="66"/>
+      <c r="D70" s="66"/>
+      <c r="E70" s="66"/>
+      <c r="F70" s="66"/>
+      <c r="G70" s="66"/>
+      <c r="H70" s="66"/>
+      <c r="I70" s="66"/>
+      <c r="J70" s="66"/>
+      <c r="K70" s="66"/>
+      <c r="L70" s="66"/>
       <c r="M70" s="66"/>
       <c r="N70" s="66"/>
       <c r="O70" s="66"/>
     </row>
     <row r="71" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="66"/>
-      <c r="B71" s="74" t="s">
-        <v>224</v>
-      </c>
+      <c r="B71" s="66"/>
       <c r="C71" s="66"/>
       <c r="D71" s="66"/>
       <c r="E71" s="66"/>
@@ -8969,189 +9008,102 @@
     </row>
     <row r="83" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A83" s="66"/>
-      <c r="B83" s="66"/>
-      <c r="C83" s="66"/>
-      <c r="D83" s="66"/>
-      <c r="E83" s="66"/>
-      <c r="F83" s="66"/>
-      <c r="G83" s="66"/>
-      <c r="H83" s="66"/>
-      <c r="I83" s="66"/>
-      <c r="J83" s="66"/>
-      <c r="K83" s="66"/>
-      <c r="L83" s="66"/>
+      <c r="B83" s="100"/>
+      <c r="C83" s="100"/>
+      <c r="D83" s="100"/>
+      <c r="E83" s="100"/>
+      <c r="F83" s="100"/>
+      <c r="G83" s="100"/>
+      <c r="H83" s="100"/>
+      <c r="I83" s="100"/>
+      <c r="J83" s="100"/>
+      <c r="K83" s="100"/>
+      <c r="L83" s="100"/>
       <c r="M83" s="66"/>
       <c r="N83" s="66"/>
       <c r="O83" s="66"/>
     </row>
     <row r="84" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A84" s="66"/>
-      <c r="B84" s="66"/>
-      <c r="C84" s="66"/>
-      <c r="D84" s="66"/>
-      <c r="E84" s="66"/>
-      <c r="F84" s="66"/>
-      <c r="G84" s="66"/>
-      <c r="H84" s="66"/>
-      <c r="I84" s="66"/>
-      <c r="J84" s="66"/>
-      <c r="K84" s="66"/>
-      <c r="L84" s="66"/>
       <c r="M84" s="66"/>
       <c r="N84" s="66"/>
       <c r="O84" s="66"/>
     </row>
     <row r="85" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A85" s="66"/>
-      <c r="B85" s="66"/>
-      <c r="C85" s="66"/>
-      <c r="D85" s="66"/>
-      <c r="E85" s="66"/>
-      <c r="F85" s="66"/>
-      <c r="G85" s="66"/>
-      <c r="H85" s="66"/>
-      <c r="I85" s="66"/>
-      <c r="J85" s="66"/>
-      <c r="K85" s="66"/>
-      <c r="L85" s="66"/>
       <c r="M85" s="66"/>
       <c r="N85" s="66"/>
       <c r="O85" s="66"/>
     </row>
     <row r="86" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A86" s="66"/>
-      <c r="B86" s="66"/>
-      <c r="C86" s="66"/>
-      <c r="D86" s="66"/>
-      <c r="E86" s="66"/>
-      <c r="F86" s="66"/>
-      <c r="G86" s="66"/>
-      <c r="H86" s="66"/>
-      <c r="I86" s="66"/>
-      <c r="J86" s="66"/>
-      <c r="K86" s="66"/>
-      <c r="L86" s="66"/>
       <c r="M86" s="66"/>
       <c r="N86" s="66"/>
       <c r="O86" s="66"/>
     </row>
     <row r="87" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A87" s="66"/>
-      <c r="B87" s="66"/>
-      <c r="C87" s="66"/>
-      <c r="D87" s="66"/>
-      <c r="E87" s="66"/>
-      <c r="F87" s="66"/>
-      <c r="G87" s="66"/>
-      <c r="H87" s="66"/>
-      <c r="I87" s="66"/>
-      <c r="J87" s="66"/>
-      <c r="K87" s="66"/>
-      <c r="L87" s="66"/>
       <c r="M87" s="66"/>
       <c r="N87" s="66"/>
       <c r="O87" s="66"/>
     </row>
     <row r="88" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A88" s="66"/>
-      <c r="B88" s="66"/>
-      <c r="C88" s="66"/>
-      <c r="D88" s="66"/>
-      <c r="E88" s="66"/>
-      <c r="F88" s="66"/>
-      <c r="G88" s="66"/>
-      <c r="H88" s="66"/>
-      <c r="I88" s="66"/>
-      <c r="J88" s="66"/>
-      <c r="K88" s="66"/>
-      <c r="L88" s="66"/>
       <c r="M88" s="66"/>
       <c r="N88" s="66"/>
       <c r="O88" s="66"/>
     </row>
     <row r="89" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A89" s="66"/>
-      <c r="B89" s="66"/>
-      <c r="C89" s="66"/>
-      <c r="D89" s="66"/>
-      <c r="E89" s="66"/>
-      <c r="F89" s="66"/>
-      <c r="G89" s="66"/>
-      <c r="H89" s="66"/>
-      <c r="I89" s="66"/>
-      <c r="J89" s="66"/>
-      <c r="K89" s="66"/>
-      <c r="L89" s="66"/>
       <c r="M89" s="66"/>
       <c r="N89" s="66"/>
       <c r="O89" s="66"/>
     </row>
     <row r="90" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A90" s="66"/>
-      <c r="B90" s="66"/>
-      <c r="C90" s="66"/>
-      <c r="D90" s="66"/>
-      <c r="E90" s="66"/>
-      <c r="F90" s="66"/>
-      <c r="G90" s="66"/>
-      <c r="H90" s="66"/>
-      <c r="I90" s="66"/>
-      <c r="J90" s="66"/>
-      <c r="K90" s="66"/>
-      <c r="L90" s="66"/>
       <c r="M90" s="66"/>
       <c r="N90" s="66"/>
       <c r="O90" s="66"/>
     </row>
     <row r="91" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A91" s="101"/>
-      <c r="B91" s="101"/>
-      <c r="C91" s="101"/>
-      <c r="D91" s="101"/>
-      <c r="E91" s="101"/>
-      <c r="F91" s="101"/>
-      <c r="G91" s="101"/>
-      <c r="H91" s="101"/>
-      <c r="I91" s="101"/>
-      <c r="J91" s="101"/>
-      <c r="K91" s="101"/>
-      <c r="L91" s="101"/>
-      <c r="M91" s="101"/>
-      <c r="N91" s="101"/>
-      <c r="O91" s="101"/>
+      <c r="A91" s="66"/>
+      <c r="M91" s="66"/>
+      <c r="N91" s="66"/>
+      <c r="O91" s="66"/>
+    </row>
+    <row r="92" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A92" s="100"/>
+      <c r="M92" s="100"/>
+      <c r="N92" s="100"/>
+      <c r="O92" s="100"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="19">
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D58:E58"/>
     <mergeCell ref="C4:I4"/>
     <mergeCell ref="C5:I5"/>
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="J14:L14"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B61:E61"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <hyperlinks>
-    <hyperlink ref="I15" r:id="rId1" display="foo@mulodo.com"/>
+    <hyperlink ref="I20" r:id="rId1"/>
     <hyperlink ref="I16" r:id="rId2" display="foo@mulodo.com"/>
-    <hyperlink ref="I19" r:id="rId3"/>
+    <hyperlink ref="I15" r:id="rId3" display="foo@mulodo.com"/>
   </hyperlinks>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
